--- a/Test Case/Bharath/Test Case- Radiology.xlsx
+++ b/Test Case/Bharath/Test Case- Radiology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mediware_originalwork\CentralRepository-Mediware\Test Case\Bharath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741044AE-16E1-4BB3-AC40-34077D6D2CBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84CA950-499C-4BEA-8758-A7AE65E24017}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B0F86180-7D4B-4DF7-AD62-71380A8C5CDD}"/>
   </bookViews>
@@ -1827,7 +1827,7 @@
   <dimension ref="A1:R730"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A542" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A547" sqref="A547"/>
     </sheetView>
   </sheetViews>
@@ -11223,6 +11223,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="D514:D524"/>
+    <mergeCell ref="D527:D534"/>
+    <mergeCell ref="D537:D544"/>
+    <mergeCell ref="D321:D333"/>
+    <mergeCell ref="D337:D352"/>
+    <mergeCell ref="D478:D487"/>
+    <mergeCell ref="D490:D500"/>
+    <mergeCell ref="D503:D512"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="D21:D30"/>
+    <mergeCell ref="D32:D44"/>
+    <mergeCell ref="D47:D62"/>
+    <mergeCell ref="D65:D77"/>
+    <mergeCell ref="D80:D92"/>
+    <mergeCell ref="D95:D102"/>
+    <mergeCell ref="D105:D114"/>
+    <mergeCell ref="D117:D126"/>
+    <mergeCell ref="D129:D136"/>
+    <mergeCell ref="D139:D148"/>
+    <mergeCell ref="D151:D160"/>
     <mergeCell ref="D252:D270"/>
     <mergeCell ref="D443:D475"/>
     <mergeCell ref="D163:D194"/>
@@ -11239,29 +11262,6 @@
     <mergeCell ref="D355:D375"/>
     <mergeCell ref="D378:D388"/>
     <mergeCell ref="D391:D409"/>
-    <mergeCell ref="D105:D114"/>
-    <mergeCell ref="D117:D126"/>
-    <mergeCell ref="D129:D136"/>
-    <mergeCell ref="D139:D148"/>
-    <mergeCell ref="D151:D160"/>
-    <mergeCell ref="D32:D44"/>
-    <mergeCell ref="D47:D62"/>
-    <mergeCell ref="D65:D77"/>
-    <mergeCell ref="D80:D92"/>
-    <mergeCell ref="D95:D102"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="D21:D30"/>
-    <mergeCell ref="D514:D524"/>
-    <mergeCell ref="D527:D534"/>
-    <mergeCell ref="D537:D544"/>
-    <mergeCell ref="D321:D333"/>
-    <mergeCell ref="D337:D352"/>
-    <mergeCell ref="D478:D487"/>
-    <mergeCell ref="D490:D500"/>
-    <mergeCell ref="D503:D512"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B11:B608" xr:uid="{AFF23500-95E7-47BF-9178-11CBABB7C7B3}">

--- a/Test Case/Bharath/Test Case- Radiology.xlsx
+++ b/Test Case/Bharath/Test Case- Radiology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mediware_originalwork\CentralRepository-Mediware\Test Case\Bharath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84CA950-499C-4BEA-8758-A7AE65E24017}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E757CCC-6784-4451-8E5A-42A0534DDF91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B0F86180-7D4B-4DF7-AD62-71380A8C5CDD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="400">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1087,13 +1087,7 @@
     <t>Machine : CT</t>
   </si>
   <si>
-    <t>Test to verify Appointment List(criteria Machine)</t>
-  </si>
-  <si>
     <t>MED_RAD_TC_030</t>
-  </si>
-  <si>
-    <t>Test to verify Appointment List(criteria Radiologist)</t>
   </si>
   <si>
     <t xml:space="preserve">Select the required  radiologist from  the Radiologist dropdown </t>
@@ -1271,6 +1265,124 @@
   </si>
   <si>
     <t>MED_RAD_TC_038</t>
+  </si>
+  <si>
+    <t>Test to verify Filtering of Appointment List(criteria Radiologist)</t>
+  </si>
+  <si>
+    <t>Test to verify Filtering Appointment List(criteria Machine)</t>
+  </si>
+  <si>
+    <t>Click on Waiting List section</t>
+  </si>
+  <si>
+    <t>Waiting List page should be displayed</t>
+  </si>
+  <si>
+    <t>Navigate to the Machine dropdown &gt;&gt; Select the required Machine</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_039</t>
+  </si>
+  <si>
+    <t>Test to  verify Filtering of Waiting List(criteria Machine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only patients that have made appointments for the  selected machine should be displayed </t>
+  </si>
+  <si>
+    <t>Navigate to the Radiologist dropdown &gt;&gt; Select the required Radiologist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only patients that have made appointments with the selected Doctor  should be displayed </t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_040</t>
+  </si>
+  <si>
+    <t>Test to verify Treatment Summary in the Waiting List page</t>
+  </si>
+  <si>
+    <t>Waiting List page should be displayed.</t>
+  </si>
+  <si>
+    <t>Navigate to the Waiting Patients section &gt;&gt; Select the Processed text box of the required patient from the list</t>
+  </si>
+  <si>
+    <t>(Data Successfully Updted message should be displayed)
+The entry of the selected patient will be created in Order Acceptance Page</t>
+  </si>
+  <si>
+    <t>Test to verify Processed  in the Waiting List page</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_041</t>
+  </si>
+  <si>
+    <t>Test to verify Completed  in the Waiting List page</t>
+  </si>
+  <si>
+    <t>Navigate to the Waiting Patients section &gt;&gt; Select the Complete text box of the required patient from the list</t>
+  </si>
+  <si>
+    <t>Patient should be moved to the Completed Patients section of the page  and Completed status should be dispayed</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_042</t>
+  </si>
+  <si>
+    <t>Navigate to the Waiting Patients section &gt;&gt; Click on the Treatment Summary option of the required patient from the list</t>
+  </si>
+  <si>
+    <t>Treatment Summary pop-up with all the details should be displayed</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_043</t>
+  </si>
+  <si>
+    <t>Test to verify Update button in Order Acceptance</t>
+  </si>
+  <si>
+    <t>Click on the Select text box of  the patients whose entry  was just created in the Order Acceptance page</t>
+  </si>
+  <si>
+    <t>User should be able to click on the Select text box . The disabled Film size field and No.of Films fields should be enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the Process button </t>
+  </si>
+  <si>
+    <t>Click on the Update button</t>
+  </si>
+  <si>
+    <t>The Update button should be enabled and a Order number should be generated</t>
+  </si>
+  <si>
+    <t>A Confirmation pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>Click on the desired option(No)</t>
+  </si>
+  <si>
+    <t>Select the required data from Film Size fields</t>
+  </si>
+  <si>
+    <t>User should be able to select the data</t>
+  </si>
+  <si>
+    <t>Film Size : 10*14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter data in the No.of Film field </t>
+  </si>
+  <si>
+    <t>User should be able to enter the data</t>
+  </si>
+  <si>
+    <t>The selected patient should be moved to the Result Entry section</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_044</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1484,6 +1596,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1824,11 +1939,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9C3D31-C5E0-4697-A93F-78D6BCE0E40D}">
-  <dimension ref="A1:R730"/>
+  <dimension ref="A1:R732"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A542" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A547" sqref="A547"/>
+      <pane ySplit="1" topLeftCell="A597" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D602" sqref="D602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,14 +1999,14 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="Q1" s="34" t="s">
+      <c r="O1" s="34"/>
+      <c r="Q1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="34"/>
+      <c r="R1" s="35"/>
     </row>
     <row r="2" spans="1:18" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -1903,7 +2018,7 @@
       <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="36" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="7">
@@ -1927,7 +2042,7 @@
       </c>
       <c r="O2" s="13">
         <f>COUNTA(A:A)-1</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>15</v>
@@ -1941,7 +2056,7 @@
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="36"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="7">
         <v>2</v>
       </c>
@@ -1977,7 +2092,7 @@
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="36"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="7">
         <v>3</v>
       </c>
@@ -2007,7 +2122,7 @@
     <row r="5" spans="1:18" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
-      <c r="D5" s="36"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="7">
         <v>4</v>
       </c>
@@ -2030,7 +2145,7 @@
     <row r="6" spans="1:18" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
-      <c r="D6" s="36"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="7">
         <v>5</v>
       </c>
@@ -2046,7 +2161,7 @@
     <row r="7" spans="1:18" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
-      <c r="D7" s="36"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="7">
         <v>6</v>
       </c>
@@ -2064,7 +2179,7 @@
     <row r="8" spans="1:18" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
-      <c r="D8" s="36"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="7">
         <v>7</v>
       </c>
@@ -2080,7 +2195,7 @@
     <row r="9" spans="1:18" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
-      <c r="D9" s="36"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="7">
         <v>8</v>
       </c>
@@ -2098,7 +2213,7 @@
     <row r="10" spans="1:18" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
-      <c r="D10" s="36"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="7">
         <v>9</v>
       </c>
@@ -2141,7 +2256,7 @@
       <c r="C13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E13" s="7">
@@ -2161,7 +2276,7 @@
     <row r="14" spans="1:18" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="5"/>
-      <c r="D14" s="32"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="7">
         <v>2</v>
       </c>
@@ -2179,7 +2294,7 @@
     <row r="15" spans="1:18" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="5"/>
-      <c r="D15" s="32"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="7">
         <v>3</v>
       </c>
@@ -2195,7 +2310,7 @@
     <row r="16" spans="1:18" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="5"/>
-      <c r="D16" s="32"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="7">
         <v>4</v>
       </c>
@@ -2211,7 +2326,7 @@
     <row r="17" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="5"/>
-      <c r="D17" s="32"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="7">
         <v>5</v>
       </c>
@@ -2227,7 +2342,7 @@
     <row r="18" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="5"/>
-      <c r="D18" s="32"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="7">
         <v>6</v>
       </c>
@@ -2245,7 +2360,7 @@
     <row r="19" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="5"/>
-      <c r="D19" s="32"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="7">
         <v>7</v>
       </c>
@@ -2278,7 +2393,7 @@
       <c r="C21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="33" t="s">
         <v>71</v>
       </c>
       <c r="E21" s="7">
@@ -2298,7 +2413,7 @@
     <row r="22" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="5"/>
-      <c r="D22" s="32"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="7">
         <v>2</v>
       </c>
@@ -2316,7 +2431,7 @@
     <row r="23" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="5"/>
-      <c r="D23" s="32"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="7">
         <v>3</v>
       </c>
@@ -2332,7 +2447,7 @@
     <row r="24" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="5"/>
-      <c r="D24" s="32"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="7">
         <v>4</v>
       </c>
@@ -2348,7 +2463,7 @@
     <row r="25" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="5"/>
-      <c r="D25" s="32"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="7">
         <v>5</v>
       </c>
@@ -2364,7 +2479,7 @@
     <row r="26" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="5"/>
-      <c r="D26" s="32"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="7">
         <v>6</v>
       </c>
@@ -2382,7 +2497,7 @@
     <row r="27" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="5"/>
-      <c r="D27" s="32"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="7">
         <v>7</v>
       </c>
@@ -2398,7 +2513,7 @@
     <row r="28" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="5"/>
-      <c r="D28" s="32"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="7">
         <v>8</v>
       </c>
@@ -2414,7 +2529,7 @@
     <row r="29" spans="1:11" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="5"/>
-      <c r="D29" s="32"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="7">
         <v>9</v>
       </c>
@@ -2432,7 +2547,7 @@
     <row r="30" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="5"/>
-      <c r="D30" s="32"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="7">
         <v>10</v>
       </c>
@@ -2465,7 +2580,7 @@
       <c r="C32" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="33" t="s">
         <v>81</v>
       </c>
       <c r="E32" s="7">
@@ -2485,7 +2600,7 @@
     <row r="33" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="5"/>
-      <c r="D33" s="32"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="7">
         <v>2</v>
       </c>
@@ -2503,7 +2618,7 @@
     <row r="34" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="5"/>
-      <c r="D34" s="32"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="7">
         <v>3</v>
       </c>
@@ -2519,7 +2634,7 @@
     <row r="35" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="5"/>
-      <c r="D35" s="32"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="7">
         <v>4</v>
       </c>
@@ -2535,7 +2650,7 @@
     <row r="36" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="5"/>
-      <c r="D36" s="32"/>
+      <c r="D36" s="33"/>
       <c r="E36" s="7">
         <v>5</v>
       </c>
@@ -2551,7 +2666,7 @@
     <row r="37" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="5"/>
-      <c r="D37" s="32"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="7">
         <v>6</v>
       </c>
@@ -2569,7 +2684,7 @@
     <row r="38" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="5"/>
-      <c r="D38" s="32"/>
+      <c r="D38" s="33"/>
       <c r="E38" s="7">
         <v>7</v>
       </c>
@@ -2585,7 +2700,7 @@
     <row r="39" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="5"/>
-      <c r="D39" s="32"/>
+      <c r="D39" s="33"/>
       <c r="E39" s="7">
         <v>8</v>
       </c>
@@ -2601,7 +2716,7 @@
     <row r="40" spans="1:11" s="6" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="5"/>
-      <c r="D40" s="32"/>
+      <c r="D40" s="33"/>
       <c r="E40" s="7">
         <v>9</v>
       </c>
@@ -2619,7 +2734,7 @@
     <row r="41" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="5"/>
-      <c r="D41" s="32"/>
+      <c r="D41" s="33"/>
       <c r="E41" s="7">
         <v>10</v>
       </c>
@@ -2635,7 +2750,7 @@
     <row r="42" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="5"/>
-      <c r="D42" s="32"/>
+      <c r="D42" s="33"/>
       <c r="E42" s="7">
         <v>11</v>
       </c>
@@ -2651,7 +2766,7 @@
     <row r="43" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="5"/>
-      <c r="D43" s="32"/>
+      <c r="D43" s="33"/>
       <c r="E43" s="7">
         <v>12</v>
       </c>
@@ -2667,7 +2782,7 @@
     <row r="44" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="5"/>
-      <c r="D44" s="32"/>
+      <c r="D44" s="33"/>
       <c r="E44" s="7">
         <v>13</v>
       </c>
@@ -2710,7 +2825,7 @@
       <c r="C47" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="33" t="s">
         <v>92</v>
       </c>
       <c r="E47" s="7">
@@ -2730,7 +2845,7 @@
     <row r="48" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="5"/>
-      <c r="D48" s="32"/>
+      <c r="D48" s="33"/>
       <c r="E48" s="7">
         <v>2</v>
       </c>
@@ -2748,7 +2863,7 @@
     <row r="49" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
       <c r="B49" s="5"/>
-      <c r="D49" s="32"/>
+      <c r="D49" s="33"/>
       <c r="E49" s="7">
         <v>3</v>
       </c>
@@ -2764,7 +2879,7 @@
     <row r="50" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="5"/>
-      <c r="D50" s="32"/>
+      <c r="D50" s="33"/>
       <c r="E50" s="7">
         <v>4</v>
       </c>
@@ -2780,7 +2895,7 @@
     <row r="51" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
       <c r="B51" s="5"/>
-      <c r="D51" s="32"/>
+      <c r="D51" s="33"/>
       <c r="E51" s="7">
         <v>5</v>
       </c>
@@ -2796,7 +2911,7 @@
     <row r="52" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="5"/>
-      <c r="D52" s="32"/>
+      <c r="D52" s="33"/>
       <c r="E52" s="7">
         <v>6</v>
       </c>
@@ -2814,7 +2929,7 @@
     <row r="53" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
       <c r="B53" s="5"/>
-      <c r="D53" s="32"/>
+      <c r="D53" s="33"/>
       <c r="E53" s="7">
         <v>7</v>
       </c>
@@ -2830,7 +2945,7 @@
     <row r="54" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="B54" s="5"/>
-      <c r="D54" s="32"/>
+      <c r="D54" s="33"/>
       <c r="E54" s="7">
         <v>8</v>
       </c>
@@ -2846,7 +2961,7 @@
     <row r="55" spans="1:11" s="6" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="5"/>
-      <c r="D55" s="32"/>
+      <c r="D55" s="33"/>
       <c r="E55" s="7">
         <v>9</v>
       </c>
@@ -2864,7 +2979,7 @@
     <row r="56" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
       <c r="B56" s="5"/>
-      <c r="D56" s="32"/>
+      <c r="D56" s="33"/>
       <c r="E56" s="7">
         <v>10</v>
       </c>
@@ -2880,7 +2995,7 @@
     <row r="57" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="5"/>
-      <c r="D57" s="32"/>
+      <c r="D57" s="33"/>
       <c r="E57" s="7">
         <v>11</v>
       </c>
@@ -2898,7 +3013,7 @@
     <row r="58" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
       <c r="B58" s="5"/>
-      <c r="D58" s="32"/>
+      <c r="D58" s="33"/>
       <c r="E58" s="7">
         <v>12</v>
       </c>
@@ -2914,7 +3029,7 @@
     <row r="59" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="5"/>
-      <c r="D59" s="32"/>
+      <c r="D59" s="33"/>
       <c r="E59" s="7">
         <v>13</v>
       </c>
@@ -2930,7 +3045,7 @@
     <row r="60" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
       <c r="B60" s="5"/>
-      <c r="D60" s="32"/>
+      <c r="D60" s="33"/>
       <c r="E60" s="7">
         <v>14</v>
       </c>
@@ -2946,7 +3061,7 @@
     <row r="61" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
       <c r="B61" s="5"/>
-      <c r="D61" s="32"/>
+      <c r="D61" s="33"/>
       <c r="E61" s="7">
         <v>15</v>
       </c>
@@ -2962,7 +3077,7 @@
     <row r="62" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
       <c r="B62" s="5"/>
-      <c r="D62" s="32"/>
+      <c r="D62" s="33"/>
       <c r="E62" s="7">
         <v>16</v>
       </c>
@@ -3005,7 +3120,7 @@
       <c r="C65" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D65" s="33" t="s">
         <v>102</v>
       </c>
       <c r="E65" s="7">
@@ -3025,7 +3140,7 @@
     <row r="66" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
       <c r="B66" s="5"/>
-      <c r="D66" s="32"/>
+      <c r="D66" s="33"/>
       <c r="E66" s="7">
         <v>2</v>
       </c>
@@ -3043,7 +3158,7 @@
     <row r="67" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="20"/>
       <c r="B67" s="5"/>
-      <c r="D67" s="32"/>
+      <c r="D67" s="33"/>
       <c r="E67" s="7">
         <v>3</v>
       </c>
@@ -3059,7 +3174,7 @@
     <row r="68" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="20"/>
       <c r="B68" s="5"/>
-      <c r="D68" s="32"/>
+      <c r="D68" s="33"/>
       <c r="E68" s="7">
         <v>4</v>
       </c>
@@ -3075,7 +3190,7 @@
     <row r="69" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="20"/>
       <c r="B69" s="5"/>
-      <c r="D69" s="32"/>
+      <c r="D69" s="33"/>
       <c r="E69" s="7">
         <v>5</v>
       </c>
@@ -3091,7 +3206,7 @@
     <row r="70" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="20"/>
       <c r="B70" s="5"/>
-      <c r="D70" s="32"/>
+      <c r="D70" s="33"/>
       <c r="E70" s="7">
         <v>6</v>
       </c>
@@ -3109,7 +3224,7 @@
     <row r="71" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="20"/>
       <c r="B71" s="5"/>
-      <c r="D71" s="32"/>
+      <c r="D71" s="33"/>
       <c r="E71" s="7">
         <v>7</v>
       </c>
@@ -3125,7 +3240,7 @@
     <row r="72" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
       <c r="B72" s="5"/>
-      <c r="D72" s="32"/>
+      <c r="D72" s="33"/>
       <c r="E72" s="7">
         <v>8</v>
       </c>
@@ -3141,7 +3256,7 @@
     <row r="73" spans="1:11" s="6" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A73" s="20"/>
       <c r="B73" s="5"/>
-      <c r="D73" s="32"/>
+      <c r="D73" s="33"/>
       <c r="E73" s="7">
         <v>9</v>
       </c>
@@ -3159,7 +3274,7 @@
     <row r="74" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="20"/>
       <c r="B74" s="5"/>
-      <c r="D74" s="32"/>
+      <c r="D74" s="33"/>
       <c r="E74" s="7">
         <v>10</v>
       </c>
@@ -3175,7 +3290,7 @@
     <row r="75" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="20"/>
       <c r="B75" s="5"/>
-      <c r="D75" s="32"/>
+      <c r="D75" s="33"/>
       <c r="E75" s="7">
         <v>11</v>
       </c>
@@ -3193,7 +3308,7 @@
     <row r="76" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
       <c r="B76" s="5"/>
-      <c r="D76" s="32"/>
+      <c r="D76" s="33"/>
       <c r="E76" s="7">
         <v>12</v>
       </c>
@@ -3209,7 +3324,7 @@
     <row r="77" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="20"/>
       <c r="B77" s="5"/>
-      <c r="D77" s="32"/>
+      <c r="D77" s="33"/>
       <c r="E77" s="7">
         <v>13</v>
       </c>
@@ -3252,7 +3367,7 @@
       <c r="C80" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D80" s="32" t="s">
+      <c r="D80" s="33" t="s">
         <v>104</v>
       </c>
       <c r="E80" s="7">
@@ -3272,7 +3387,7 @@
     <row r="81" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
       <c r="B81" s="5"/>
-      <c r="D81" s="32"/>
+      <c r="D81" s="33"/>
       <c r="E81" s="7">
         <v>2</v>
       </c>
@@ -3290,7 +3405,7 @@
     <row r="82" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
       <c r="B82" s="5"/>
-      <c r="D82" s="32"/>
+      <c r="D82" s="33"/>
       <c r="E82" s="7">
         <v>3</v>
       </c>
@@ -3306,7 +3421,7 @@
     <row r="83" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
       <c r="B83" s="5"/>
-      <c r="D83" s="32"/>
+      <c r="D83" s="33"/>
       <c r="E83" s="7">
         <v>4</v>
       </c>
@@ -3322,7 +3437,7 @@
     <row r="84" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="20"/>
       <c r="B84" s="5"/>
-      <c r="D84" s="32"/>
+      <c r="D84" s="33"/>
       <c r="E84" s="7">
         <v>5</v>
       </c>
@@ -3338,7 +3453,7 @@
     <row r="85" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
       <c r="B85" s="5"/>
-      <c r="D85" s="32"/>
+      <c r="D85" s="33"/>
       <c r="E85" s="7">
         <v>6</v>
       </c>
@@ -3356,7 +3471,7 @@
     <row r="86" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
       <c r="B86" s="5"/>
-      <c r="D86" s="32"/>
+      <c r="D86" s="33"/>
       <c r="E86" s="7">
         <v>7</v>
       </c>
@@ -3372,7 +3487,7 @@
     <row r="87" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
       <c r="B87" s="5"/>
-      <c r="D87" s="32"/>
+      <c r="D87" s="33"/>
       <c r="E87" s="7">
         <v>8</v>
       </c>
@@ -3388,7 +3503,7 @@
     <row r="88" spans="1:11" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A88" s="20"/>
       <c r="B88" s="5"/>
-      <c r="D88" s="32"/>
+      <c r="D88" s="33"/>
       <c r="E88" s="7">
         <v>9</v>
       </c>
@@ -3406,7 +3521,7 @@
     <row r="89" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="20"/>
       <c r="B89" s="5"/>
-      <c r="D89" s="32"/>
+      <c r="D89" s="33"/>
       <c r="E89" s="7">
         <v>10</v>
       </c>
@@ -3422,7 +3537,7 @@
     <row r="90" spans="1:11" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A90" s="20"/>
       <c r="B90" s="5"/>
-      <c r="D90" s="32"/>
+      <c r="D90" s="33"/>
       <c r="E90" s="7">
         <v>11</v>
       </c>
@@ -3438,7 +3553,7 @@
     <row r="91" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
       <c r="B91" s="5"/>
-      <c r="D91" s="32"/>
+      <c r="D91" s="33"/>
       <c r="E91" s="7">
         <v>12</v>
       </c>
@@ -3454,7 +3569,7 @@
     <row r="92" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
       <c r="B92" s="5"/>
-      <c r="D92" s="32"/>
+      <c r="D92" s="33"/>
       <c r="E92" s="7">
         <v>13</v>
       </c>
@@ -3497,7 +3612,7 @@
       <c r="C95" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D95" s="32" t="s">
+      <c r="D95" s="33" t="s">
         <v>117</v>
       </c>
       <c r="E95" s="7">
@@ -3520,7 +3635,7 @@
       <c r="C96" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D96" s="32"/>
+      <c r="D96" s="33"/>
       <c r="E96" s="7">
         <v>2</v>
       </c>
@@ -3538,7 +3653,7 @@
     <row r="97" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
       <c r="B97" s="5"/>
-      <c r="D97" s="32"/>
+      <c r="D97" s="33"/>
       <c r="E97" s="7">
         <v>3</v>
       </c>
@@ -3554,7 +3669,7 @@
     <row r="98" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="20"/>
       <c r="B98" s="5"/>
-      <c r="D98" s="32"/>
+      <c r="D98" s="33"/>
       <c r="E98" s="7">
         <v>4</v>
       </c>
@@ -3570,7 +3685,7 @@
     <row r="99" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="20"/>
       <c r="B99" s="5"/>
-      <c r="D99" s="32"/>
+      <c r="D99" s="33"/>
       <c r="E99" s="7">
         <v>5</v>
       </c>
@@ -3586,7 +3701,7 @@
     <row r="100" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="20"/>
       <c r="B100" s="5"/>
-      <c r="D100" s="32"/>
+      <c r="D100" s="33"/>
       <c r="E100" s="7">
         <v>6</v>
       </c>
@@ -3604,7 +3719,7 @@
     <row r="101" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="20"/>
       <c r="B101" s="5"/>
-      <c r="D101" s="32"/>
+      <c r="D101" s="33"/>
       <c r="E101" s="7">
         <v>7</v>
       </c>
@@ -3620,7 +3735,7 @@
     <row r="102" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="20"/>
       <c r="B102" s="5"/>
-      <c r="D102" s="32"/>
+      <c r="D102" s="33"/>
       <c r="E102" s="7">
         <v>8</v>
       </c>
@@ -3663,7 +3778,7 @@
       <c r="C105" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D105" s="32" t="s">
+      <c r="D105" s="33" t="s">
         <v>121</v>
       </c>
       <c r="E105" s="7">
@@ -3683,7 +3798,7 @@
     <row r="106" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="20"/>
       <c r="B106" s="5"/>
-      <c r="D106" s="32"/>
+      <c r="D106" s="33"/>
       <c r="E106" s="7">
         <v>2</v>
       </c>
@@ -3699,7 +3814,7 @@
     <row r="107" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="20"/>
       <c r="B107" s="5"/>
-      <c r="D107" s="32"/>
+      <c r="D107" s="33"/>
       <c r="E107" s="7">
         <v>3</v>
       </c>
@@ -3715,7 +3830,7 @@
     <row r="108" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="20"/>
       <c r="B108" s="5"/>
-      <c r="D108" s="32"/>
+      <c r="D108" s="33"/>
       <c r="E108" s="7">
         <v>4</v>
       </c>
@@ -3731,7 +3846,7 @@
     <row r="109" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="20"/>
       <c r="B109" s="5"/>
-      <c r="D109" s="32"/>
+      <c r="D109" s="33"/>
       <c r="E109" s="7">
         <v>5</v>
       </c>
@@ -3747,7 +3862,7 @@
     <row r="110" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="20"/>
       <c r="B110" s="5"/>
-      <c r="D110" s="32"/>
+      <c r="D110" s="33"/>
       <c r="E110" s="7">
         <v>6</v>
       </c>
@@ -3765,7 +3880,7 @@
     <row r="111" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="20"/>
       <c r="B111" s="5"/>
-      <c r="D111" s="32"/>
+      <c r="D111" s="33"/>
       <c r="E111" s="7">
         <v>7</v>
       </c>
@@ -3781,7 +3896,7 @@
     <row r="112" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="20"/>
       <c r="B112" s="5"/>
-      <c r="D112" s="32"/>
+      <c r="D112" s="33"/>
       <c r="E112" s="7">
         <v>8</v>
       </c>
@@ -3797,7 +3912,7 @@
     <row r="113" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="20"/>
       <c r="B113" s="5"/>
-      <c r="D113" s="32"/>
+      <c r="D113" s="33"/>
       <c r="E113" s="7">
         <v>9</v>
       </c>
@@ -3813,7 +3928,7 @@
     <row r="114" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="20"/>
       <c r="B114" s="5"/>
-      <c r="D114" s="32"/>
+      <c r="D114" s="33"/>
       <c r="E114" s="7">
         <v>10</v>
       </c>
@@ -3856,7 +3971,7 @@
       <c r="C117" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D117" s="32" t="s">
+      <c r="D117" s="33" t="s">
         <v>126</v>
       </c>
       <c r="E117" s="7">
@@ -3876,7 +3991,7 @@
     <row r="118" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="20"/>
       <c r="B118" s="5"/>
-      <c r="D118" s="32"/>
+      <c r="D118" s="33"/>
       <c r="E118" s="7">
         <v>2</v>
       </c>
@@ -3892,7 +4007,7 @@
     <row r="119" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="20"/>
       <c r="B119" s="5"/>
-      <c r="D119" s="32"/>
+      <c r="D119" s="33"/>
       <c r="E119" s="7">
         <v>3</v>
       </c>
@@ -3908,7 +4023,7 @@
     <row r="120" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="20"/>
       <c r="B120" s="5"/>
-      <c r="D120" s="32"/>
+      <c r="D120" s="33"/>
       <c r="E120" s="7">
         <v>4</v>
       </c>
@@ -3924,7 +4039,7 @@
     <row r="121" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="20"/>
       <c r="B121" s="5"/>
-      <c r="D121" s="32"/>
+      <c r="D121" s="33"/>
       <c r="E121" s="7">
         <v>5</v>
       </c>
@@ -3940,7 +4055,7 @@
     <row r="122" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="20"/>
       <c r="B122" s="5"/>
-      <c r="D122" s="32"/>
+      <c r="D122" s="33"/>
       <c r="E122" s="7">
         <v>6</v>
       </c>
@@ -3958,7 +4073,7 @@
     <row r="123" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A123" s="20"/>
       <c r="B123" s="5"/>
-      <c r="D123" s="32"/>
+      <c r="D123" s="33"/>
       <c r="E123" s="7">
         <v>7</v>
       </c>
@@ -3974,7 +4089,7 @@
     <row r="124" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="20"/>
       <c r="B124" s="5"/>
-      <c r="D124" s="32"/>
+      <c r="D124" s="33"/>
       <c r="E124" s="7">
         <v>8</v>
       </c>
@@ -3990,7 +4105,7 @@
     <row r="125" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="20"/>
       <c r="B125" s="5"/>
-      <c r="D125" s="32"/>
+      <c r="D125" s="33"/>
       <c r="E125" s="7">
         <v>9</v>
       </c>
@@ -4006,7 +4121,7 @@
     <row r="126" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="20"/>
       <c r="B126" s="5"/>
-      <c r="D126" s="32"/>
+      <c r="D126" s="33"/>
       <c r="E126" s="7">
         <v>10</v>
       </c>
@@ -4049,7 +4164,7 @@
       <c r="C129" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D129" s="32" t="s">
+      <c r="D129" s="33" t="s">
         <v>133</v>
       </c>
       <c r="E129" s="7">
@@ -4069,7 +4184,7 @@
     <row r="130" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="20"/>
       <c r="B130" s="5"/>
-      <c r="D130" s="32"/>
+      <c r="D130" s="33"/>
       <c r="E130" s="7">
         <v>2</v>
       </c>
@@ -4085,7 +4200,7 @@
     <row r="131" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="20"/>
       <c r="B131" s="5"/>
-      <c r="D131" s="32"/>
+      <c r="D131" s="33"/>
       <c r="E131" s="7">
         <v>3</v>
       </c>
@@ -4101,7 +4216,7 @@
     <row r="132" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="20"/>
       <c r="B132" s="5"/>
-      <c r="D132" s="32"/>
+      <c r="D132" s="33"/>
       <c r="E132" s="7">
         <v>4</v>
       </c>
@@ -4117,7 +4232,7 @@
     <row r="133" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="20"/>
       <c r="B133" s="5"/>
-      <c r="D133" s="32"/>
+      <c r="D133" s="33"/>
       <c r="E133" s="7">
         <v>5</v>
       </c>
@@ -4133,7 +4248,7 @@
     <row r="134" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="20"/>
       <c r="B134" s="5"/>
-      <c r="D134" s="32"/>
+      <c r="D134" s="33"/>
       <c r="E134" s="7">
         <v>6</v>
       </c>
@@ -4151,7 +4266,7 @@
     <row r="135" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A135" s="20"/>
       <c r="B135" s="5"/>
-      <c r="D135" s="32"/>
+      <c r="D135" s="33"/>
       <c r="E135" s="7">
         <v>7</v>
       </c>
@@ -4167,7 +4282,7 @@
     <row r="136" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="20"/>
       <c r="B136" s="5"/>
-      <c r="D136" s="32"/>
+      <c r="D136" s="33"/>
       <c r="E136" s="7">
         <v>8</v>
       </c>
@@ -4210,7 +4325,7 @@
       <c r="C139" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D139" s="32" t="s">
+      <c r="D139" s="33" t="s">
         <v>136</v>
       </c>
       <c r="E139" s="7">
@@ -4230,7 +4345,7 @@
     <row r="140" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="20"/>
       <c r="B140" s="5"/>
-      <c r="D140" s="32"/>
+      <c r="D140" s="33"/>
       <c r="E140" s="7">
         <v>2</v>
       </c>
@@ -4246,7 +4361,7 @@
     <row r="141" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="20"/>
       <c r="B141" s="5"/>
-      <c r="D141" s="32"/>
+      <c r="D141" s="33"/>
       <c r="E141" s="7">
         <v>3</v>
       </c>
@@ -4262,7 +4377,7 @@
     <row r="142" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="20"/>
       <c r="B142" s="5"/>
-      <c r="D142" s="32"/>
+      <c r="D142" s="33"/>
       <c r="E142" s="7">
         <v>4</v>
       </c>
@@ -4278,7 +4393,7 @@
     <row r="143" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="20"/>
       <c r="B143" s="5"/>
-      <c r="D143" s="32"/>
+      <c r="D143" s="33"/>
       <c r="E143" s="7">
         <v>5</v>
       </c>
@@ -4294,7 +4409,7 @@
     <row r="144" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="20"/>
       <c r="B144" s="5"/>
-      <c r="D144" s="32"/>
+      <c r="D144" s="33"/>
       <c r="E144" s="7">
         <v>6</v>
       </c>
@@ -4312,7 +4427,7 @@
     <row r="145" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A145" s="20"/>
       <c r="B145" s="5"/>
-      <c r="D145" s="32"/>
+      <c r="D145" s="33"/>
       <c r="E145" s="7">
         <v>7</v>
       </c>
@@ -4328,7 +4443,7 @@
     <row r="146" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A146" s="20"/>
       <c r="B146" s="5"/>
-      <c r="D146" s="32"/>
+      <c r="D146" s="33"/>
       <c r="E146" s="7">
         <v>8</v>
       </c>
@@ -4344,7 +4459,7 @@
     <row r="147" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="20"/>
       <c r="B147" s="5"/>
-      <c r="D147" s="32"/>
+      <c r="D147" s="33"/>
       <c r="E147" s="7">
         <v>9</v>
       </c>
@@ -4360,7 +4475,7 @@
     <row r="148" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="20"/>
       <c r="B148" s="5"/>
-      <c r="D148" s="32"/>
+      <c r="D148" s="33"/>
       <c r="E148" s="7">
         <v>10</v>
       </c>
@@ -4403,7 +4518,7 @@
       <c r="C151" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D151" s="32" t="s">
+      <c r="D151" s="33" t="s">
         <v>142</v>
       </c>
       <c r="E151" s="7">
@@ -4421,7 +4536,7 @@
     <row r="152" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="20"/>
       <c r="B152" s="5"/>
-      <c r="D152" s="32"/>
+      <c r="D152" s="33"/>
       <c r="E152" s="7">
         <v>2</v>
       </c>
@@ -4437,7 +4552,7 @@
     <row r="153" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="20"/>
       <c r="B153" s="5"/>
-      <c r="D153" s="32"/>
+      <c r="D153" s="33"/>
       <c r="E153" s="7">
         <v>3</v>
       </c>
@@ -4453,7 +4568,7 @@
     <row r="154" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="20"/>
       <c r="B154" s="5"/>
-      <c r="D154" s="32"/>
+      <c r="D154" s="33"/>
       <c r="E154" s="7">
         <v>4</v>
       </c>
@@ -4469,7 +4584,7 @@
     <row r="155" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="20"/>
       <c r="B155" s="5"/>
-      <c r="D155" s="32"/>
+      <c r="D155" s="33"/>
       <c r="E155" s="7">
         <v>5</v>
       </c>
@@ -4485,7 +4600,7 @@
     <row r="156" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="20"/>
       <c r="B156" s="5"/>
-      <c r="D156" s="32"/>
+      <c r="D156" s="33"/>
       <c r="E156" s="7">
         <v>6</v>
       </c>
@@ -4501,7 +4616,7 @@
     <row r="157" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A157" s="20"/>
       <c r="B157" s="5"/>
-      <c r="D157" s="32"/>
+      <c r="D157" s="33"/>
       <c r="E157" s="7">
         <v>7</v>
       </c>
@@ -4517,7 +4632,7 @@
     <row r="158" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="20"/>
       <c r="B158" s="5"/>
-      <c r="D158" s="32"/>
+      <c r="D158" s="33"/>
       <c r="E158" s="7">
         <v>8</v>
       </c>
@@ -4533,7 +4648,7 @@
     <row r="159" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="20"/>
       <c r="B159" s="5"/>
-      <c r="D159" s="32"/>
+      <c r="D159" s="33"/>
       <c r="E159" s="7">
         <v>9</v>
       </c>
@@ -4549,7 +4664,7 @@
     <row r="160" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="20"/>
       <c r="B160" s="5"/>
-      <c r="D160" s="32"/>
+      <c r="D160" s="33"/>
       <c r="E160" s="7">
         <v>10</v>
       </c>
@@ -4592,7 +4707,7 @@
       <c r="C163" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D163" s="32" t="s">
+      <c r="D163" s="33" t="s">
         <v>147</v>
       </c>
       <c r="E163" s="7">
@@ -4612,7 +4727,7 @@
     <row r="164" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="20"/>
       <c r="B164" s="5"/>
-      <c r="D164" s="32"/>
+      <c r="D164" s="33"/>
       <c r="E164" s="7">
         <v>2</v>
       </c>
@@ -4630,7 +4745,7 @@
     <row r="165" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="20"/>
       <c r="B165" s="5"/>
-      <c r="D165" s="32"/>
+      <c r="D165" s="33"/>
       <c r="E165" s="7">
         <v>3</v>
       </c>
@@ -4646,7 +4761,7 @@
     <row r="166" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="20"/>
       <c r="B166" s="5"/>
-      <c r="D166" s="32"/>
+      <c r="D166" s="33"/>
       <c r="E166" s="7">
         <v>4</v>
       </c>
@@ -4662,7 +4777,7 @@
     <row r="167" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="20"/>
       <c r="B167" s="5"/>
-      <c r="D167" s="32"/>
+      <c r="D167" s="33"/>
       <c r="E167" s="7">
         <v>5</v>
       </c>
@@ -4678,7 +4793,7 @@
     <row r="168" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="20"/>
       <c r="B168" s="5"/>
-      <c r="D168" s="32"/>
+      <c r="D168" s="33"/>
       <c r="E168" s="7">
         <v>6</v>
       </c>
@@ -4696,7 +4811,7 @@
     <row r="169" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A169" s="20"/>
       <c r="B169" s="5"/>
-      <c r="D169" s="32"/>
+      <c r="D169" s="33"/>
       <c r="E169" s="7">
         <v>7</v>
       </c>
@@ -4712,7 +4827,7 @@
     <row r="170" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="20"/>
       <c r="B170" s="5"/>
-      <c r="D170" s="32"/>
+      <c r="D170" s="33"/>
       <c r="E170" s="7">
         <v>8</v>
       </c>
@@ -4728,7 +4843,7 @@
     <row r="171" spans="1:11" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A171" s="20"/>
       <c r="B171" s="5"/>
-      <c r="D171" s="32"/>
+      <c r="D171" s="33"/>
       <c r="E171" s="7">
         <v>9</v>
       </c>
@@ -4746,7 +4861,7 @@
     <row r="172" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="20"/>
       <c r="B172" s="5"/>
-      <c r="D172" s="32"/>
+      <c r="D172" s="33"/>
       <c r="E172" s="7">
         <v>10</v>
       </c>
@@ -4762,7 +4877,7 @@
     <row r="173" spans="1:11" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A173" s="20"/>
       <c r="B173" s="5"/>
-      <c r="D173" s="32"/>
+      <c r="D173" s="33"/>
       <c r="E173" s="7">
         <v>11</v>
       </c>
@@ -4778,7 +4893,7 @@
     <row r="174" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="20"/>
       <c r="B174" s="5"/>
-      <c r="D174" s="32"/>
+      <c r="D174" s="33"/>
       <c r="E174" s="7">
         <v>12</v>
       </c>
@@ -4794,7 +4909,7 @@
     <row r="175" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="20"/>
       <c r="B175" s="5"/>
-      <c r="D175" s="32"/>
+      <c r="D175" s="33"/>
       <c r="E175" s="7">
         <v>13</v>
       </c>
@@ -4810,7 +4925,7 @@
     <row r="176" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="20"/>
       <c r="B176" s="5"/>
-      <c r="D176" s="32"/>
+      <c r="D176" s="33"/>
       <c r="E176" s="7">
         <v>14</v>
       </c>
@@ -4826,7 +4941,7 @@
     <row r="177" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A177" s="20"/>
       <c r="B177" s="5"/>
-      <c r="D177" s="32"/>
+      <c r="D177" s="33"/>
       <c r="E177" s="7">
         <v>15</v>
       </c>
@@ -4844,7 +4959,7 @@
     <row r="178" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="20"/>
       <c r="B178" s="5"/>
-      <c r="D178" s="32"/>
+      <c r="D178" s="33"/>
       <c r="E178" s="7">
         <v>16</v>
       </c>
@@ -4860,7 +4975,7 @@
     <row r="179" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="20"/>
       <c r="B179" s="5"/>
-      <c r="D179" s="32"/>
+      <c r="D179" s="33"/>
       <c r="E179" s="7">
         <v>17</v>
       </c>
@@ -4878,7 +4993,7 @@
     <row r="180" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="20"/>
       <c r="B180" s="5"/>
-      <c r="D180" s="32"/>
+      <c r="D180" s="33"/>
       <c r="E180" s="7">
         <v>18</v>
       </c>
@@ -4896,7 +5011,7 @@
     <row r="181" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="20"/>
       <c r="B181" s="5"/>
-      <c r="D181" s="32"/>
+      <c r="D181" s="33"/>
       <c r="E181" s="7">
         <v>19</v>
       </c>
@@ -4912,7 +5027,7 @@
     <row r="182" spans="1:11" s="6" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A182" s="20"/>
       <c r="B182" s="5"/>
-      <c r="D182" s="32"/>
+      <c r="D182" s="33"/>
       <c r="E182" s="7">
         <v>20</v>
       </c>
@@ -4930,7 +5045,7 @@
     <row r="183" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="20"/>
       <c r="B183" s="5"/>
-      <c r="D183" s="32"/>
+      <c r="D183" s="33"/>
       <c r="E183" s="7">
         <v>21</v>
       </c>
@@ -4946,7 +5061,7 @@
     <row r="184" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="20"/>
       <c r="B184" s="5"/>
-      <c r="D184" s="32"/>
+      <c r="D184" s="33"/>
       <c r="E184" s="7">
         <v>22</v>
       </c>
@@ -4962,15 +5077,15 @@
     <row r="185" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="20"/>
       <c r="B185" s="5"/>
-      <c r="D185" s="32"/>
+      <c r="D185" s="33"/>
       <c r="E185" s="7">
         <v>23</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H185" s="8"/>
       <c r="K185" s="10"/>
@@ -4978,15 +5093,15 @@
     <row r="186" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="20"/>
       <c r="B186" s="31"/>
-      <c r="D186" s="32"/>
+      <c r="D186" s="33"/>
       <c r="E186" s="7">
         <v>24</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H186" s="8"/>
       <c r="K186" s="10"/>
@@ -4994,15 +5109,15 @@
     <row r="187" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="20"/>
       <c r="B187" s="31"/>
-      <c r="D187" s="32"/>
+      <c r="D187" s="33"/>
       <c r="E187" s="7">
         <v>25</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H187" s="8"/>
       <c r="K187" s="10"/>
@@ -5010,7 +5125,7 @@
     <row r="188" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="20"/>
       <c r="B188" s="5"/>
-      <c r="D188" s="32"/>
+      <c r="D188" s="33"/>
       <c r="E188" s="7">
         <v>26</v>
       </c>
@@ -5026,7 +5141,7 @@
     <row r="189" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="20"/>
       <c r="B189" s="5"/>
-      <c r="D189" s="32"/>
+      <c r="D189" s="33"/>
       <c r="E189" s="7">
         <v>27</v>
       </c>
@@ -5042,7 +5157,7 @@
     <row r="190" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="20"/>
       <c r="B190" s="5"/>
-      <c r="D190" s="32"/>
+      <c r="D190" s="33"/>
       <c r="E190" s="7">
         <v>28</v>
       </c>
@@ -5058,7 +5173,7 @@
     <row r="191" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="20"/>
       <c r="B191" s="5"/>
-      <c r="D191" s="32"/>
+      <c r="D191" s="33"/>
       <c r="E191" s="7">
         <v>29</v>
       </c>
@@ -5074,7 +5189,7 @@
     <row r="192" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="20"/>
       <c r="B192" s="5"/>
-      <c r="D192" s="32"/>
+      <c r="D192" s="33"/>
       <c r="E192" s="7">
         <v>30</v>
       </c>
@@ -5090,7 +5205,7 @@
     <row r="193" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="20"/>
       <c r="B193" s="5"/>
-      <c r="D193" s="32"/>
+      <c r="D193" s="33"/>
       <c r="E193" s="7">
         <v>31</v>
       </c>
@@ -5106,7 +5221,7 @@
     <row r="194" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="20"/>
       <c r="B194" s="5"/>
-      <c r="D194" s="32"/>
+      <c r="D194" s="33"/>
       <c r="E194" s="7">
         <v>32</v>
       </c>
@@ -5149,7 +5264,7 @@
       <c r="C197" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D197" s="32" t="s">
+      <c r="D197" s="33" t="s">
         <v>180</v>
       </c>
       <c r="E197" s="7">
@@ -5169,7 +5284,7 @@
     <row r="198" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="20"/>
       <c r="B198" s="5"/>
-      <c r="D198" s="32"/>
+      <c r="D198" s="33"/>
       <c r="E198" s="7">
         <v>2</v>
       </c>
@@ -5187,7 +5302,7 @@
     <row r="199" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="20"/>
       <c r="B199" s="5"/>
-      <c r="D199" s="32"/>
+      <c r="D199" s="33"/>
       <c r="E199" s="7">
         <v>3</v>
       </c>
@@ -5203,7 +5318,7 @@
     <row r="200" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="20"/>
       <c r="B200" s="5"/>
-      <c r="D200" s="32"/>
+      <c r="D200" s="33"/>
       <c r="E200" s="7">
         <v>4</v>
       </c>
@@ -5219,7 +5334,7 @@
     <row r="201" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="20"/>
       <c r="B201" s="5"/>
-      <c r="D201" s="32"/>
+      <c r="D201" s="33"/>
       <c r="E201" s="7">
         <v>5</v>
       </c>
@@ -5235,7 +5350,7 @@
     <row r="202" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="20"/>
       <c r="B202" s="5"/>
-      <c r="D202" s="32"/>
+      <c r="D202" s="33"/>
       <c r="E202" s="7">
         <v>6</v>
       </c>
@@ -5251,7 +5366,7 @@
     <row r="203" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="20"/>
       <c r="B203" s="5"/>
-      <c r="D203" s="32"/>
+      <c r="D203" s="33"/>
       <c r="E203" s="7">
         <v>7</v>
       </c>
@@ -5267,7 +5382,7 @@
     <row r="204" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="20"/>
       <c r="B204" s="5"/>
-      <c r="D204" s="32"/>
+      <c r="D204" s="33"/>
       <c r="E204" s="7">
         <v>8</v>
       </c>
@@ -5283,7 +5398,7 @@
     <row r="205" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="20"/>
       <c r="B205" s="5"/>
-      <c r="D205" s="32"/>
+      <c r="D205" s="33"/>
       <c r="E205" s="7">
         <v>9</v>
       </c>
@@ -5336,7 +5451,7 @@
       <c r="C209" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D209" s="32" t="s">
+      <c r="D209" s="33" t="s">
         <v>190</v>
       </c>
       <c r="E209" s="7">
@@ -5356,7 +5471,7 @@
     <row r="210" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="20"/>
       <c r="B210" s="5"/>
-      <c r="D210" s="32"/>
+      <c r="D210" s="33"/>
       <c r="E210" s="7">
         <v>2</v>
       </c>
@@ -5374,7 +5489,7 @@
     <row r="211" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="20"/>
       <c r="B211" s="5"/>
-      <c r="D211" s="32"/>
+      <c r="D211" s="33"/>
       <c r="E211" s="7">
         <v>3</v>
       </c>
@@ -5390,7 +5505,7 @@
     <row r="212" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="20"/>
       <c r="B212" s="5"/>
-      <c r="D212" s="32"/>
+      <c r="D212" s="33"/>
       <c r="E212" s="7">
         <v>4</v>
       </c>
@@ -5406,7 +5521,7 @@
     <row r="213" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="20"/>
       <c r="B213" s="5"/>
-      <c r="D213" s="32"/>
+      <c r="D213" s="33"/>
       <c r="E213" s="7">
         <v>5</v>
       </c>
@@ -5422,7 +5537,7 @@
     <row r="214" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="20"/>
       <c r="B214" s="5"/>
-      <c r="D214" s="32"/>
+      <c r="D214" s="33"/>
       <c r="E214" s="7">
         <v>6</v>
       </c>
@@ -5440,7 +5555,7 @@
     <row r="215" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A215" s="20"/>
       <c r="B215" s="5"/>
-      <c r="D215" s="32"/>
+      <c r="D215" s="33"/>
       <c r="E215" s="7">
         <v>7</v>
       </c>
@@ -5456,7 +5571,7 @@
     <row r="216" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="20"/>
       <c r="B216" s="5"/>
-      <c r="D216" s="32"/>
+      <c r="D216" s="33"/>
       <c r="E216" s="7">
         <v>8</v>
       </c>
@@ -5472,7 +5587,7 @@
     <row r="217" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="20"/>
       <c r="B217" s="5"/>
-      <c r="D217" s="32"/>
+      <c r="D217" s="33"/>
       <c r="E217" s="7">
         <v>9</v>
       </c>
@@ -5488,7 +5603,7 @@
     <row r="218" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="20"/>
       <c r="B218" s="5"/>
-      <c r="D218" s="32"/>
+      <c r="D218" s="33"/>
       <c r="E218" s="7">
         <v>10</v>
       </c>
@@ -5543,7 +5658,7 @@
       <c r="C222" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D222" s="32" t="s">
+      <c r="D222" s="33" t="s">
         <v>198</v>
       </c>
       <c r="E222" s="7">
@@ -5563,7 +5678,7 @@
     <row r="223" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="20"/>
       <c r="B223" s="5"/>
-      <c r="D223" s="32"/>
+      <c r="D223" s="33"/>
       <c r="E223" s="7">
         <v>2</v>
       </c>
@@ -5581,7 +5696,7 @@
     <row r="224" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="20"/>
       <c r="B224" s="5"/>
-      <c r="D224" s="32"/>
+      <c r="D224" s="33"/>
       <c r="E224" s="7">
         <v>3</v>
       </c>
@@ -5597,7 +5712,7 @@
     <row r="225" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="20"/>
       <c r="B225" s="5"/>
-      <c r="D225" s="32"/>
+      <c r="D225" s="33"/>
       <c r="E225" s="7">
         <v>4</v>
       </c>
@@ -5613,7 +5728,7 @@
     <row r="226" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="20"/>
       <c r="B226" s="5"/>
-      <c r="D226" s="32"/>
+      <c r="D226" s="33"/>
       <c r="E226" s="7">
         <v>5</v>
       </c>
@@ -5629,7 +5744,7 @@
     <row r="227" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="20"/>
       <c r="B227" s="5"/>
-      <c r="D227" s="32"/>
+      <c r="D227" s="33"/>
       <c r="E227" s="7">
         <v>6</v>
       </c>
@@ -5647,7 +5762,7 @@
     <row r="228" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A228" s="20"/>
       <c r="B228" s="5"/>
-      <c r="D228" s="32"/>
+      <c r="D228" s="33"/>
       <c r="E228" s="7">
         <v>7</v>
       </c>
@@ -5663,7 +5778,7 @@
     <row r="229" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="20"/>
       <c r="B229" s="5"/>
-      <c r="D229" s="32"/>
+      <c r="D229" s="33"/>
       <c r="E229" s="7">
         <v>8</v>
       </c>
@@ -5679,7 +5794,7 @@
     <row r="230" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="20"/>
       <c r="B230" s="5"/>
-      <c r="D230" s="32"/>
+      <c r="D230" s="33"/>
       <c r="E230" s="7">
         <v>9</v>
       </c>
@@ -5695,7 +5810,7 @@
     <row r="231" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="20"/>
       <c r="B231" s="5"/>
-      <c r="D231" s="32"/>
+      <c r="D231" s="33"/>
       <c r="E231" s="7">
         <v>10</v>
       </c>
@@ -5738,7 +5853,7 @@
       <c r="C234" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D234" s="32" t="s">
+      <c r="D234" s="33" t="s">
         <v>203</v>
       </c>
       <c r="E234" s="7">
@@ -5758,7 +5873,7 @@
     <row r="235" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="20"/>
       <c r="B235" s="5"/>
-      <c r="D235" s="32"/>
+      <c r="D235" s="33"/>
       <c r="E235" s="7">
         <v>2</v>
       </c>
@@ -5776,7 +5891,7 @@
     <row r="236" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="20"/>
       <c r="B236" s="5"/>
-      <c r="D236" s="32"/>
+      <c r="D236" s="33"/>
       <c r="E236" s="7">
         <v>3</v>
       </c>
@@ -5792,7 +5907,7 @@
     <row r="237" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="20"/>
       <c r="B237" s="5"/>
-      <c r="D237" s="32"/>
+      <c r="D237" s="33"/>
       <c r="E237" s="7">
         <v>4</v>
       </c>
@@ -5808,7 +5923,7 @@
     <row r="238" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="20"/>
       <c r="B238" s="5"/>
-      <c r="D238" s="32"/>
+      <c r="D238" s="33"/>
       <c r="E238" s="7">
         <v>5</v>
       </c>
@@ -5824,7 +5939,7 @@
     <row r="239" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="20"/>
       <c r="B239" s="5"/>
-      <c r="D239" s="32"/>
+      <c r="D239" s="33"/>
       <c r="E239" s="7">
         <v>6</v>
       </c>
@@ -5842,7 +5957,7 @@
     <row r="240" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A240" s="20"/>
       <c r="B240" s="5"/>
-      <c r="D240" s="32"/>
+      <c r="D240" s="33"/>
       <c r="E240" s="7">
         <v>7</v>
       </c>
@@ -5858,7 +5973,7 @@
     <row r="241" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="20"/>
       <c r="B241" s="5"/>
-      <c r="D241" s="32"/>
+      <c r="D241" s="33"/>
       <c r="E241" s="7">
         <v>8</v>
       </c>
@@ -5874,7 +5989,7 @@
     <row r="242" spans="1:11" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A242" s="20"/>
       <c r="B242" s="5"/>
-      <c r="D242" s="32"/>
+      <c r="D242" s="33"/>
       <c r="E242" s="7">
         <v>9</v>
       </c>
@@ -5892,7 +6007,7 @@
     <row r="243" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="20"/>
       <c r="B243" s="5"/>
-      <c r="D243" s="32"/>
+      <c r="D243" s="33"/>
       <c r="E243" s="7">
         <v>10</v>
       </c>
@@ -5908,7 +6023,7 @@
     <row r="244" spans="1:11" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A244" s="20"/>
       <c r="B244" s="5"/>
-      <c r="D244" s="32"/>
+      <c r="D244" s="33"/>
       <c r="E244" s="7">
         <v>11</v>
       </c>
@@ -5924,7 +6039,7 @@
     <row r="245" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="20"/>
       <c r="B245" s="5"/>
-      <c r="D245" s="32"/>
+      <c r="D245" s="33"/>
       <c r="E245" s="7">
         <v>12</v>
       </c>
@@ -5940,7 +6055,7 @@
     <row r="246" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="20"/>
       <c r="B246" s="5"/>
-      <c r="D246" s="32"/>
+      <c r="D246" s="33"/>
       <c r="E246" s="7">
         <v>13</v>
       </c>
@@ -5956,7 +6071,7 @@
     <row r="247" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="20"/>
       <c r="B247" s="5"/>
-      <c r="D247" s="32"/>
+      <c r="D247" s="33"/>
       <c r="E247" s="7">
         <v>14</v>
       </c>
@@ -5972,7 +6087,7 @@
     <row r="248" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="20"/>
       <c r="B248" s="5"/>
-      <c r="D248" s="32"/>
+      <c r="D248" s="33"/>
       <c r="E248" s="7">
         <v>15</v>
       </c>
@@ -5988,7 +6103,7 @@
     <row r="249" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A249" s="20"/>
       <c r="B249" s="5"/>
-      <c r="D249" s="32"/>
+      <c r="D249" s="33"/>
       <c r="E249" s="7">
         <v>16</v>
       </c>
@@ -6031,7 +6146,7 @@
       <c r="C252" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D252" s="32" t="s">
+      <c r="D252" s="33" t="s">
         <v>204</v>
       </c>
       <c r="E252" s="7">
@@ -6051,7 +6166,7 @@
     <row r="253" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="20"/>
       <c r="B253" s="5"/>
-      <c r="D253" s="32"/>
+      <c r="D253" s="33"/>
       <c r="E253" s="7">
         <v>2</v>
       </c>
@@ -6069,7 +6184,7 @@
     <row r="254" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="20"/>
       <c r="B254" s="5"/>
-      <c r="D254" s="32"/>
+      <c r="D254" s="33"/>
       <c r="E254" s="7">
         <v>3</v>
       </c>
@@ -6085,7 +6200,7 @@
     <row r="255" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="20"/>
       <c r="B255" s="5"/>
-      <c r="D255" s="32"/>
+      <c r="D255" s="33"/>
       <c r="E255" s="7">
         <v>4</v>
       </c>
@@ -6101,7 +6216,7 @@
     <row r="256" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="20"/>
       <c r="B256" s="5"/>
-      <c r="D256" s="32"/>
+      <c r="D256" s="33"/>
       <c r="E256" s="7">
         <v>5</v>
       </c>
@@ -6117,7 +6232,7 @@
     <row r="257" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="20"/>
       <c r="B257" s="5"/>
-      <c r="D257" s="32"/>
+      <c r="D257" s="33"/>
       <c r="E257" s="7">
         <v>6</v>
       </c>
@@ -6135,7 +6250,7 @@
     <row r="258" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A258" s="20"/>
       <c r="B258" s="5"/>
-      <c r="D258" s="32"/>
+      <c r="D258" s="33"/>
       <c r="E258" s="7">
         <v>7</v>
       </c>
@@ -6151,7 +6266,7 @@
     <row r="259" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A259" s="20"/>
       <c r="B259" s="5"/>
-      <c r="D259" s="32"/>
+      <c r="D259" s="33"/>
       <c r="E259" s="7">
         <v>8</v>
       </c>
@@ -6167,7 +6282,7 @@
     <row r="260" spans="1:11" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A260" s="20"/>
       <c r="B260" s="5"/>
-      <c r="D260" s="32"/>
+      <c r="D260" s="33"/>
       <c r="E260" s="7">
         <v>9</v>
       </c>
@@ -6185,7 +6300,7 @@
     <row r="261" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="20"/>
       <c r="B261" s="5"/>
-      <c r="D261" s="32"/>
+      <c r="D261" s="33"/>
       <c r="E261" s="7">
         <v>10</v>
       </c>
@@ -6201,7 +6316,7 @@
     <row r="262" spans="1:11" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A262" s="20"/>
       <c r="B262" s="5"/>
-      <c r="D262" s="32"/>
+      <c r="D262" s="33"/>
       <c r="E262" s="7">
         <v>11</v>
       </c>
@@ -6217,7 +6332,7 @@
     <row r="263" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="20"/>
       <c r="B263" s="5"/>
-      <c r="D263" s="32"/>
+      <c r="D263" s="33"/>
       <c r="E263" s="7">
         <v>12</v>
       </c>
@@ -6233,7 +6348,7 @@
     <row r="264" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="20"/>
       <c r="B264" s="5"/>
-      <c r="D264" s="32"/>
+      <c r="D264" s="33"/>
       <c r="E264" s="7">
         <v>13</v>
       </c>
@@ -6249,7 +6364,7 @@
     <row r="265" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="20"/>
       <c r="B265" s="5"/>
-      <c r="D265" s="32"/>
+      <c r="D265" s="33"/>
       <c r="E265" s="7">
         <v>14</v>
       </c>
@@ -6267,7 +6382,7 @@
     <row r="266" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="20"/>
       <c r="B266" s="5"/>
-      <c r="D266" s="32"/>
+      <c r="D266" s="33"/>
       <c r="E266" s="7">
         <v>15</v>
       </c>
@@ -6283,7 +6398,7 @@
     <row r="267" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="20"/>
       <c r="B267" s="5"/>
-      <c r="D267" s="32"/>
+      <c r="D267" s="33"/>
       <c r="E267" s="7">
         <v>16</v>
       </c>
@@ -6299,7 +6414,7 @@
     <row r="268" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="20"/>
       <c r="B268" s="5"/>
-      <c r="D268" s="32"/>
+      <c r="D268" s="33"/>
       <c r="E268" s="7">
         <v>17</v>
       </c>
@@ -6315,7 +6430,7 @@
     <row r="269" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A269" s="20"/>
       <c r="B269" s="5"/>
-      <c r="D269" s="32"/>
+      <c r="D269" s="33"/>
       <c r="E269" s="7">
         <v>18</v>
       </c>
@@ -6331,7 +6446,7 @@
     <row r="270" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="20"/>
       <c r="B270" s="5"/>
-      <c r="D270" s="32"/>
+      <c r="D270" s="33"/>
       <c r="E270" s="7">
         <v>19</v>
       </c>
@@ -6374,7 +6489,7 @@
       <c r="C273" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D273" s="32" t="s">
+      <c r="D273" s="33" t="s">
         <v>205</v>
       </c>
       <c r="E273" s="7">
@@ -6394,7 +6509,7 @@
     <row r="274" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="20"/>
       <c r="B274" s="5"/>
-      <c r="D274" s="32"/>
+      <c r="D274" s="33"/>
       <c r="E274" s="7">
         <v>2</v>
       </c>
@@ -6412,7 +6527,7 @@
     <row r="275" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="20"/>
       <c r="B275" s="5"/>
-      <c r="D275" s="32"/>
+      <c r="D275" s="33"/>
       <c r="E275" s="7">
         <v>3</v>
       </c>
@@ -6428,7 +6543,7 @@
     <row r="276" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="20"/>
       <c r="B276" s="5"/>
-      <c r="D276" s="32"/>
+      <c r="D276" s="33"/>
       <c r="E276" s="7">
         <v>4</v>
       </c>
@@ -6444,7 +6559,7 @@
     <row r="277" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="20"/>
       <c r="B277" s="5"/>
-      <c r="D277" s="32"/>
+      <c r="D277" s="33"/>
       <c r="E277" s="7">
         <v>5</v>
       </c>
@@ -6460,7 +6575,7 @@
     <row r="278" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="20"/>
       <c r="B278" s="5"/>
-      <c r="D278" s="32"/>
+      <c r="D278" s="33"/>
       <c r="E278" s="7">
         <v>6</v>
       </c>
@@ -6478,7 +6593,7 @@
     <row r="279" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A279" s="20"/>
       <c r="B279" s="5"/>
-      <c r="D279" s="32"/>
+      <c r="D279" s="33"/>
       <c r="E279" s="7">
         <v>7</v>
       </c>
@@ -6494,7 +6609,7 @@
     <row r="280" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A280" s="20"/>
       <c r="B280" s="5"/>
-      <c r="D280" s="32"/>
+      <c r="D280" s="33"/>
       <c r="E280" s="7">
         <v>8</v>
       </c>
@@ -6510,7 +6625,7 @@
     <row r="281" spans="1:11" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A281" s="20"/>
       <c r="B281" s="5"/>
-      <c r="D281" s="32"/>
+      <c r="D281" s="33"/>
       <c r="E281" s="7">
         <v>9</v>
       </c>
@@ -6528,7 +6643,7 @@
     <row r="282" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="20"/>
       <c r="B282" s="5"/>
-      <c r="D282" s="32"/>
+      <c r="D282" s="33"/>
       <c r="E282" s="7">
         <v>10</v>
       </c>
@@ -6544,7 +6659,7 @@
     <row r="283" spans="1:11" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A283" s="20"/>
       <c r="B283" s="5"/>
-      <c r="D283" s="32"/>
+      <c r="D283" s="33"/>
       <c r="E283" s="7">
         <v>11</v>
       </c>
@@ -6560,7 +6675,7 @@
     <row r="284" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A284" s="20"/>
       <c r="B284" s="5"/>
-      <c r="D284" s="32"/>
+      <c r="D284" s="33"/>
       <c r="E284" s="7">
         <v>12</v>
       </c>
@@ -6576,7 +6691,7 @@
     <row r="285" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="20"/>
       <c r="B285" s="5"/>
-      <c r="D285" s="32"/>
+      <c r="D285" s="33"/>
       <c r="E285" s="7">
         <v>13</v>
       </c>
@@ -6592,7 +6707,7 @@
     <row r="286" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="20"/>
       <c r="B286" s="5"/>
-      <c r="D286" s="32"/>
+      <c r="D286" s="33"/>
       <c r="E286" s="7">
         <v>14</v>
       </c>
@@ -6610,7 +6725,7 @@
     <row r="287" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="20"/>
       <c r="B287" s="5"/>
-      <c r="D287" s="32"/>
+      <c r="D287" s="33"/>
       <c r="E287" s="7">
         <v>15</v>
       </c>
@@ -6626,7 +6741,7 @@
     <row r="288" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="20"/>
       <c r="B288" s="5"/>
-      <c r="D288" s="32"/>
+      <c r="D288" s="33"/>
       <c r="E288" s="7">
         <v>16</v>
       </c>
@@ -6679,7 +6794,7 @@
       <c r="C292" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D292" s="32" t="s">
+      <c r="D292" s="33" t="s">
         <v>210</v>
       </c>
       <c r="E292" s="7">
@@ -6699,7 +6814,7 @@
     <row r="293" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="20"/>
       <c r="B293" s="5"/>
-      <c r="D293" s="32"/>
+      <c r="D293" s="33"/>
       <c r="E293" s="7">
         <v>2</v>
       </c>
@@ -6717,7 +6832,7 @@
     <row r="294" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="20"/>
       <c r="B294" s="5"/>
-      <c r="D294" s="32"/>
+      <c r="D294" s="33"/>
       <c r="E294" s="7">
         <v>3</v>
       </c>
@@ -6733,7 +6848,7 @@
     <row r="295" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="20"/>
       <c r="B295" s="5"/>
-      <c r="D295" s="32"/>
+      <c r="D295" s="33"/>
       <c r="E295" s="7">
         <v>4</v>
       </c>
@@ -6749,7 +6864,7 @@
     <row r="296" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="20"/>
       <c r="B296" s="5"/>
-      <c r="D296" s="32"/>
+      <c r="D296" s="33"/>
       <c r="E296" s="7">
         <v>5</v>
       </c>
@@ -6765,7 +6880,7 @@
     <row r="297" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="20"/>
       <c r="B297" s="5"/>
-      <c r="D297" s="32"/>
+      <c r="D297" s="33"/>
       <c r="E297" s="7">
         <v>6</v>
       </c>
@@ -6783,7 +6898,7 @@
     <row r="298" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A298" s="20"/>
       <c r="B298" s="5"/>
-      <c r="D298" s="32"/>
+      <c r="D298" s="33"/>
       <c r="E298" s="7">
         <v>7</v>
       </c>
@@ -6799,7 +6914,7 @@
     <row r="299" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A299" s="20"/>
       <c r="B299" s="5"/>
-      <c r="D299" s="32"/>
+      <c r="D299" s="33"/>
       <c r="E299" s="7">
         <v>8</v>
       </c>
@@ -6815,7 +6930,7 @@
     <row r="300" spans="1:11" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A300" s="20"/>
       <c r="B300" s="5"/>
-      <c r="D300" s="32"/>
+      <c r="D300" s="33"/>
       <c r="E300" s="7">
         <v>9</v>
       </c>
@@ -6833,7 +6948,7 @@
     <row r="301" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="20"/>
       <c r="B301" s="5"/>
-      <c r="D301" s="32"/>
+      <c r="D301" s="33"/>
       <c r="E301" s="7">
         <v>10</v>
       </c>
@@ -6849,7 +6964,7 @@
     <row r="302" spans="1:11" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A302" s="20"/>
       <c r="B302" s="5"/>
-      <c r="D302" s="32"/>
+      <c r="D302" s="33"/>
       <c r="E302" s="7">
         <v>11</v>
       </c>
@@ -6865,7 +6980,7 @@
     <row r="303" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" s="20"/>
       <c r="B303" s="5"/>
-      <c r="D303" s="32"/>
+      <c r="D303" s="33"/>
       <c r="E303" s="7">
         <v>12</v>
       </c>
@@ -6881,7 +6996,7 @@
     <row r="304" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A304" s="20"/>
       <c r="B304" s="5"/>
-      <c r="D304" s="32"/>
+      <c r="D304" s="33"/>
       <c r="E304" s="7">
         <v>13</v>
       </c>
@@ -6924,7 +7039,7 @@
       <c r="C307" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D307" s="32" t="s">
+      <c r="D307" s="33" t="s">
         <v>261</v>
       </c>
       <c r="E307" s="7">
@@ -6944,7 +7059,7 @@
     <row r="308" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="20"/>
       <c r="B308" s="5"/>
-      <c r="D308" s="32"/>
+      <c r="D308" s="33"/>
       <c r="E308" s="7">
         <v>2</v>
       </c>
@@ -6962,7 +7077,7 @@
     <row r="309" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="20"/>
       <c r="B309" s="5"/>
-      <c r="D309" s="32"/>
+      <c r="D309" s="33"/>
       <c r="E309" s="7">
         <v>3</v>
       </c>
@@ -6978,7 +7093,7 @@
     <row r="310" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="20"/>
       <c r="B310" s="5"/>
-      <c r="D310" s="32"/>
+      <c r="D310" s="33"/>
       <c r="E310" s="7">
         <v>4</v>
       </c>
@@ -6994,7 +7109,7 @@
     <row r="311" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="20"/>
       <c r="B311" s="5"/>
-      <c r="D311" s="32"/>
+      <c r="D311" s="33"/>
       <c r="E311" s="7">
         <v>5</v>
       </c>
@@ -7010,7 +7125,7 @@
     <row r="312" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="20"/>
       <c r="B312" s="5"/>
-      <c r="D312" s="32"/>
+      <c r="D312" s="33"/>
       <c r="E312" s="7">
         <v>6</v>
       </c>
@@ -7028,7 +7143,7 @@
     <row r="313" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A313" s="20"/>
       <c r="B313" s="5"/>
-      <c r="D313" s="32"/>
+      <c r="D313" s="33"/>
       <c r="E313" s="7">
         <v>7</v>
       </c>
@@ -7044,7 +7159,7 @@
     <row r="314" spans="1:11" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A314" s="20"/>
       <c r="B314" s="5"/>
-      <c r="D314" s="32"/>
+      <c r="D314" s="33"/>
       <c r="E314" s="7">
         <v>8</v>
       </c>
@@ -7060,7 +7175,7 @@
     <row r="315" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="20"/>
       <c r="B315" s="5"/>
-      <c r="D315" s="32"/>
+      <c r="D315" s="33"/>
       <c r="E315" s="7">
         <v>9</v>
       </c>
@@ -7076,7 +7191,7 @@
     <row r="316" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="20"/>
       <c r="B316" s="5"/>
-      <c r="D316" s="32"/>
+      <c r="D316" s="33"/>
       <c r="E316" s="7">
         <v>10</v>
       </c>
@@ -7092,7 +7207,7 @@
     <row r="317" spans="1:11" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A317" s="20"/>
       <c r="B317" s="5"/>
-      <c r="D317" s="32"/>
+      <c r="D317" s="33"/>
       <c r="E317" s="7">
         <v>11</v>
       </c>
@@ -7108,7 +7223,7 @@
     <row r="318" spans="1:11" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A318" s="20"/>
       <c r="B318" s="5"/>
-      <c r="D318" s="32"/>
+      <c r="D318" s="33"/>
       <c r="E318" s="7">
         <v>12</v>
       </c>
@@ -7151,7 +7266,7 @@
       <c r="C321" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D321" s="32" t="s">
+      <c r="D321" s="33" t="s">
         <v>260</v>
       </c>
       <c r="E321" s="7">
@@ -7171,7 +7286,7 @@
     <row r="322" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="20"/>
       <c r="B322" s="5"/>
-      <c r="D322" s="32"/>
+      <c r="D322" s="33"/>
       <c r="E322" s="7">
         <v>2</v>
       </c>
@@ -7189,7 +7304,7 @@
     <row r="323" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="20"/>
       <c r="B323" s="5"/>
-      <c r="D323" s="32"/>
+      <c r="D323" s="33"/>
       <c r="E323" s="7">
         <v>3</v>
       </c>
@@ -7205,7 +7320,7 @@
     <row r="324" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="20"/>
       <c r="B324" s="5"/>
-      <c r="D324" s="32"/>
+      <c r="D324" s="33"/>
       <c r="E324" s="7">
         <v>4</v>
       </c>
@@ -7221,7 +7336,7 @@
     <row r="325" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="20"/>
       <c r="B325" s="5"/>
-      <c r="D325" s="32"/>
+      <c r="D325" s="33"/>
       <c r="E325" s="7">
         <v>5</v>
       </c>
@@ -7237,7 +7352,7 @@
     <row r="326" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="20"/>
       <c r="B326" s="5"/>
-      <c r="D326" s="32"/>
+      <c r="D326" s="33"/>
       <c r="E326" s="7">
         <v>6</v>
       </c>
@@ -7255,7 +7370,7 @@
     <row r="327" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="20"/>
       <c r="B327" s="5"/>
-      <c r="D327" s="32"/>
+      <c r="D327" s="33"/>
       <c r="E327" s="7">
         <v>7</v>
       </c>
@@ -7271,7 +7386,7 @@
     <row r="328" spans="1:11" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A328" s="20"/>
       <c r="B328" s="5"/>
-      <c r="D328" s="32"/>
+      <c r="D328" s="33"/>
       <c r="E328" s="7">
         <v>8</v>
       </c>
@@ -7287,7 +7402,7 @@
     <row r="329" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="20"/>
       <c r="B329" s="5"/>
-      <c r="D329" s="32"/>
+      <c r="D329" s="33"/>
       <c r="E329" s="7">
         <v>9</v>
       </c>
@@ -7303,7 +7418,7 @@
     <row r="330" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" s="20"/>
       <c r="B330" s="5"/>
-      <c r="D330" s="32"/>
+      <c r="D330" s="33"/>
       <c r="E330" s="7">
         <v>10</v>
       </c>
@@ -7319,7 +7434,7 @@
     <row r="331" spans="1:11" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A331" s="20"/>
       <c r="B331" s="5"/>
-      <c r="D331" s="32"/>
+      <c r="D331" s="33"/>
       <c r="E331" s="7">
         <v>11</v>
       </c>
@@ -7335,7 +7450,7 @@
     <row r="332" spans="1:11" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A332" s="20"/>
       <c r="B332" s="5"/>
-      <c r="D332" s="32"/>
+      <c r="D332" s="33"/>
       <c r="E332" s="7">
         <v>12</v>
       </c>
@@ -7351,7 +7466,7 @@
     <row r="333" spans="1:11" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A333" s="20"/>
       <c r="B333" s="5"/>
-      <c r="D333" s="32"/>
+      <c r="D333" s="33"/>
       <c r="E333" s="7">
         <v>13</v>
       </c>
@@ -7399,7 +7514,7 @@
         <v>234</v>
       </c>
       <c r="B337" s="5"/>
-      <c r="D337" s="32" t="s">
+      <c r="D337" s="33" t="s">
         <v>259</v>
       </c>
       <c r="E337" s="7">
@@ -7418,7 +7533,7 @@
     </row>
     <row r="338" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B338" s="5"/>
-      <c r="D338" s="32"/>
+      <c r="D338" s="33"/>
       <c r="E338" s="7">
         <v>2</v>
       </c>
@@ -7436,7 +7551,7 @@
     </row>
     <row r="339" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B339" s="5"/>
-      <c r="D339" s="32"/>
+      <c r="D339" s="33"/>
       <c r="E339" s="7">
         <v>3</v>
       </c>
@@ -7451,7 +7566,7 @@
     </row>
     <row r="340" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B340" s="5"/>
-      <c r="D340" s="32"/>
+      <c r="D340" s="33"/>
       <c r="E340" s="7">
         <v>4</v>
       </c>
@@ -7466,7 +7581,7 @@
     </row>
     <row r="341" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B341" s="5"/>
-      <c r="D341" s="32"/>
+      <c r="D341" s="33"/>
       <c r="E341" s="7">
         <v>5</v>
       </c>
@@ -7481,7 +7596,7 @@
     </row>
     <row r="342" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B342" s="5"/>
-      <c r="D342" s="32"/>
+      <c r="D342" s="33"/>
       <c r="E342" s="7">
         <v>6</v>
       </c>
@@ -7499,7 +7614,7 @@
     </row>
     <row r="343" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B343" s="5"/>
-      <c r="D343" s="32"/>
+      <c r="D343" s="33"/>
       <c r="E343" s="7">
         <v>7</v>
       </c>
@@ -7514,7 +7629,7 @@
     </row>
     <row r="344" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B344" s="5"/>
-      <c r="D344" s="32"/>
+      <c r="D344" s="33"/>
       <c r="E344" s="7">
         <v>8</v>
       </c>
@@ -7529,7 +7644,7 @@
     </row>
     <row r="345" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B345" s="5"/>
-      <c r="D345" s="32"/>
+      <c r="D345" s="33"/>
       <c r="E345" s="7">
         <v>9</v>
       </c>
@@ -7544,7 +7659,7 @@
     </row>
     <row r="346" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B346" s="5"/>
-      <c r="D346" s="32"/>
+      <c r="D346" s="33"/>
       <c r="E346" s="7">
         <v>10</v>
       </c>
@@ -7559,7 +7674,7 @@
     </row>
     <row r="347" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B347" s="5"/>
-      <c r="D347" s="32"/>
+      <c r="D347" s="33"/>
       <c r="E347" s="7">
         <v>11</v>
       </c>
@@ -7574,7 +7689,7 @@
     </row>
     <row r="348" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B348" s="29"/>
-      <c r="D348" s="32"/>
+      <c r="D348" s="33"/>
       <c r="E348" s="7">
         <v>12</v>
       </c>
@@ -7589,7 +7704,7 @@
     </row>
     <row r="349" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B349" s="5"/>
-      <c r="D349" s="32"/>
+      <c r="D349" s="33"/>
       <c r="E349" s="7">
         <v>13</v>
       </c>
@@ -7604,7 +7719,7 @@
     </row>
     <row r="350" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B350" s="5"/>
-      <c r="D350" s="32"/>
+      <c r="D350" s="33"/>
       <c r="E350" s="7">
         <v>14</v>
       </c>
@@ -7619,7 +7734,7 @@
     </row>
     <row r="351" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="B351" s="5"/>
-      <c r="D351" s="32"/>
+      <c r="D351" s="33"/>
       <c r="E351" s="7">
         <v>15</v>
       </c>
@@ -7634,7 +7749,7 @@
     </row>
     <row r="352" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B352" s="5"/>
-      <c r="D352" s="32"/>
+      <c r="D352" s="33"/>
       <c r="E352" s="7">
         <v>16</v>
       </c>
@@ -7662,7 +7777,7 @@
         <v>241</v>
       </c>
       <c r="B355" s="5"/>
-      <c r="D355" s="32" t="s">
+      <c r="D355" s="33" t="s">
         <v>258</v>
       </c>
       <c r="E355" s="7">
@@ -7682,7 +7797,7 @@
     </row>
     <row r="356" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B356" s="5"/>
-      <c r="D356" s="32"/>
+      <c r="D356" s="33"/>
       <c r="E356" s="7">
         <v>2</v>
       </c>
@@ -7700,7 +7815,7 @@
     </row>
     <row r="357" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B357" s="5"/>
-      <c r="D357" s="32"/>
+      <c r="D357" s="33"/>
       <c r="E357" s="7">
         <v>3</v>
       </c>
@@ -7715,7 +7830,7 @@
     </row>
     <row r="358" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B358" s="5"/>
-      <c r="D358" s="32"/>
+      <c r="D358" s="33"/>
       <c r="E358" s="7">
         <v>4</v>
       </c>
@@ -7730,7 +7845,7 @@
     </row>
     <row r="359" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B359" s="5"/>
-      <c r="D359" s="32"/>
+      <c r="D359" s="33"/>
       <c r="E359" s="7">
         <v>5</v>
       </c>
@@ -7745,7 +7860,7 @@
     </row>
     <row r="360" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B360" s="5"/>
-      <c r="D360" s="32"/>
+      <c r="D360" s="33"/>
       <c r="E360" s="7">
         <v>6</v>
       </c>
@@ -7763,7 +7878,7 @@
     </row>
     <row r="361" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B361" s="5"/>
-      <c r="D361" s="32"/>
+      <c r="D361" s="33"/>
       <c r="E361" s="7">
         <v>7</v>
       </c>
@@ -7778,7 +7893,7 @@
     </row>
     <row r="362" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B362" s="5"/>
-      <c r="D362" s="32"/>
+      <c r="D362" s="33"/>
       <c r="E362" s="7">
         <v>8</v>
       </c>
@@ -7793,7 +7908,7 @@
     </row>
     <row r="363" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B363" s="5"/>
-      <c r="D363" s="32"/>
+      <c r="D363" s="33"/>
       <c r="E363" s="7">
         <v>9</v>
       </c>
@@ -7808,7 +7923,7 @@
     </row>
     <row r="364" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B364" s="5"/>
-      <c r="D364" s="32"/>
+      <c r="D364" s="33"/>
       <c r="E364" s="7">
         <v>10</v>
       </c>
@@ -7823,7 +7938,7 @@
     </row>
     <row r="365" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B365" s="5"/>
-      <c r="D365" s="32"/>
+      <c r="D365" s="33"/>
       <c r="E365" s="7">
         <v>11</v>
       </c>
@@ -7838,7 +7953,7 @@
     </row>
     <row r="366" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B366" s="5"/>
-      <c r="D366" s="32"/>
+      <c r="D366" s="33"/>
       <c r="E366" s="7">
         <v>12</v>
       </c>
@@ -7853,7 +7968,7 @@
     </row>
     <row r="367" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B367" s="5"/>
-      <c r="D367" s="32"/>
+      <c r="D367" s="33"/>
       <c r="E367" s="7">
         <v>13</v>
       </c>
@@ -7868,7 +7983,7 @@
     </row>
     <row r="368" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B368" s="5"/>
-      <c r="D368" s="32"/>
+      <c r="D368" s="33"/>
       <c r="E368" s="7">
         <v>14</v>
       </c>
@@ -7883,7 +7998,7 @@
     </row>
     <row r="369" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B369" s="5"/>
-      <c r="D369" s="32"/>
+      <c r="D369" s="33"/>
       <c r="E369" s="7">
         <v>15</v>
       </c>
@@ -7898,7 +8013,7 @@
     </row>
     <row r="370" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B370" s="5"/>
-      <c r="D370" s="32"/>
+      <c r="D370" s="33"/>
       <c r="E370" s="7">
         <v>16</v>
       </c>
@@ -7913,7 +8028,7 @@
     </row>
     <row r="371" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B371" s="5"/>
-      <c r="D371" s="32"/>
+      <c r="D371" s="33"/>
       <c r="E371" s="7">
         <v>17</v>
       </c>
@@ -7928,7 +8043,7 @@
     </row>
     <row r="372" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B372" s="5"/>
-      <c r="D372" s="32"/>
+      <c r="D372" s="33"/>
       <c r="E372" s="7">
         <v>18</v>
       </c>
@@ -7943,7 +8058,7 @@
     </row>
     <row r="373" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="B373" s="30"/>
-      <c r="D373" s="32"/>
+      <c r="D373" s="33"/>
       <c r="E373" s="7">
         <v>19</v>
       </c>
@@ -7958,7 +8073,7 @@
     </row>
     <row r="374" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B374" s="5"/>
-      <c r="D374" s="32"/>
+      <c r="D374" s="33"/>
       <c r="E374" s="7">
         <v>20</v>
       </c>
@@ -7973,7 +8088,7 @@
     </row>
     <row r="375" spans="1:11" ht="210" x14ac:dyDescent="0.25">
       <c r="B375" s="5"/>
-      <c r="D375" s="32"/>
+      <c r="D375" s="33"/>
       <c r="E375" s="7">
         <v>21</v>
       </c>
@@ -8001,7 +8116,7 @@
         <v>257</v>
       </c>
       <c r="B378" s="5"/>
-      <c r="D378" s="32" t="s">
+      <c r="D378" s="33" t="s">
         <v>262</v>
       </c>
       <c r="E378" s="7">
@@ -8021,7 +8136,7 @@
     </row>
     <row r="379" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B379" s="5"/>
-      <c r="D379" s="32"/>
+      <c r="D379" s="33"/>
       <c r="E379" s="7">
         <v>2</v>
       </c>
@@ -8039,7 +8154,7 @@
     </row>
     <row r="380" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B380" s="5"/>
-      <c r="D380" s="32"/>
+      <c r="D380" s="33"/>
       <c r="E380" s="7">
         <v>3</v>
       </c>
@@ -8054,7 +8169,7 @@
     </row>
     <row r="381" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B381" s="5"/>
-      <c r="D381" s="32"/>
+      <c r="D381" s="33"/>
       <c r="E381" s="7">
         <v>4</v>
       </c>
@@ -8069,7 +8184,7 @@
     </row>
     <row r="382" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B382" s="5"/>
-      <c r="D382" s="32"/>
+      <c r="D382" s="33"/>
       <c r="E382" s="7">
         <v>5</v>
       </c>
@@ -8084,7 +8199,7 @@
     </row>
     <row r="383" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B383" s="5"/>
-      <c r="D383" s="32"/>
+      <c r="D383" s="33"/>
       <c r="E383" s="7">
         <v>6</v>
       </c>
@@ -8102,7 +8217,7 @@
     </row>
     <row r="384" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B384" s="5"/>
-      <c r="D384" s="32"/>
+      <c r="D384" s="33"/>
       <c r="E384" s="7">
         <v>7</v>
       </c>
@@ -8117,7 +8232,7 @@
     </row>
     <row r="385" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B385" s="5"/>
-      <c r="D385" s="32"/>
+      <c r="D385" s="33"/>
       <c r="E385" s="7">
         <v>8</v>
       </c>
@@ -8132,7 +8247,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B386" s="5"/>
-      <c r="D386" s="32"/>
+      <c r="D386" s="33"/>
       <c r="E386" s="7">
         <v>9</v>
       </c>
@@ -8147,7 +8262,7 @@
     </row>
     <row r="387" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B387" s="5"/>
-      <c r="D387" s="32"/>
+      <c r="D387" s="33"/>
       <c r="E387" s="7">
         <v>10</v>
       </c>
@@ -8162,7 +8277,7 @@
     </row>
     <row r="388" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B388" s="5"/>
-      <c r="D388" s="32"/>
+      <c r="D388" s="33"/>
       <c r="E388" s="7">
         <v>11</v>
       </c>
@@ -8190,7 +8305,7 @@
         <v>271</v>
       </c>
       <c r="B391" s="5"/>
-      <c r="D391" s="32" t="s">
+      <c r="D391" s="33" t="s">
         <v>272</v>
       </c>
       <c r="E391" s="7">
@@ -8210,7 +8325,7 @@
     </row>
     <row r="392" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B392" s="5"/>
-      <c r="D392" s="32"/>
+      <c r="D392" s="33"/>
       <c r="E392" s="7">
         <v>2</v>
       </c>
@@ -8228,7 +8343,7 @@
     </row>
     <row r="393" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B393" s="5"/>
-      <c r="D393" s="32"/>
+      <c r="D393" s="33"/>
       <c r="E393" s="7">
         <v>3</v>
       </c>
@@ -8243,7 +8358,7 @@
     </row>
     <row r="394" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B394" s="5"/>
-      <c r="D394" s="32"/>
+      <c r="D394" s="33"/>
       <c r="E394" s="7">
         <v>4</v>
       </c>
@@ -8258,7 +8373,7 @@
     </row>
     <row r="395" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B395" s="5"/>
-      <c r="D395" s="32"/>
+      <c r="D395" s="33"/>
       <c r="E395" s="7">
         <v>5</v>
       </c>
@@ -8273,7 +8388,7 @@
     </row>
     <row r="396" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B396" s="5"/>
-      <c r="D396" s="32"/>
+      <c r="D396" s="33"/>
       <c r="E396" s="7">
         <v>6</v>
       </c>
@@ -8291,7 +8406,7 @@
     </row>
     <row r="397" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B397" s="5"/>
-      <c r="D397" s="32"/>
+      <c r="D397" s="33"/>
       <c r="E397" s="7">
         <v>7</v>
       </c>
@@ -8306,7 +8421,7 @@
     </row>
     <row r="398" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B398" s="5"/>
-      <c r="D398" s="32"/>
+      <c r="D398" s="33"/>
       <c r="E398" s="7">
         <v>8</v>
       </c>
@@ -8321,7 +8436,7 @@
     </row>
     <row r="399" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B399" s="5"/>
-      <c r="D399" s="32"/>
+      <c r="D399" s="33"/>
       <c r="E399" s="7">
         <v>9</v>
       </c>
@@ -8336,7 +8451,7 @@
     </row>
     <row r="400" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B400" s="5"/>
-      <c r="D400" s="32"/>
+      <c r="D400" s="33"/>
       <c r="E400" s="7">
         <v>10</v>
       </c>
@@ -8351,7 +8466,7 @@
     </row>
     <row r="401" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B401" s="5"/>
-      <c r="D401" s="32"/>
+      <c r="D401" s="33"/>
       <c r="E401" s="7">
         <v>11</v>
       </c>
@@ -8366,7 +8481,7 @@
     </row>
     <row r="402" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B402" s="5"/>
-      <c r="D402" s="32"/>
+      <c r="D402" s="33"/>
       <c r="E402" s="7">
         <v>12</v>
       </c>
@@ -8381,7 +8496,7 @@
     </row>
     <row r="403" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B403" s="5"/>
-      <c r="D403" s="32"/>
+      <c r="D403" s="33"/>
       <c r="E403" s="7">
         <v>13</v>
       </c>
@@ -8396,7 +8511,7 @@
     </row>
     <row r="404" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B404" s="5"/>
-      <c r="D404" s="32"/>
+      <c r="D404" s="33"/>
       <c r="E404" s="7">
         <v>14</v>
       </c>
@@ -8411,7 +8526,7 @@
     </row>
     <row r="405" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B405" s="5"/>
-      <c r="D405" s="32"/>
+      <c r="D405" s="33"/>
       <c r="E405" s="7">
         <v>15</v>
       </c>
@@ -8426,7 +8541,7 @@
     </row>
     <row r="406" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B406" s="5"/>
-      <c r="D406" s="32"/>
+      <c r="D406" s="33"/>
       <c r="E406" s="7">
         <v>16</v>
       </c>
@@ -8441,7 +8556,7 @@
     </row>
     <row r="407" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B407" s="5"/>
-      <c r="D407" s="32"/>
+      <c r="D407" s="33"/>
       <c r="E407" s="7">
         <v>17</v>
       </c>
@@ -8456,7 +8571,7 @@
     </row>
     <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B408" s="5"/>
-      <c r="D408" s="32"/>
+      <c r="D408" s="33"/>
       <c r="E408" s="7">
         <v>18</v>
       </c>
@@ -8471,7 +8586,7 @@
     </row>
     <row r="409" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B409" s="5"/>
-      <c r="D409" s="32"/>
+      <c r="D409" s="33"/>
       <c r="E409" s="7">
         <v>19</v>
       </c>
@@ -8504,7 +8619,7 @@
         <v>287</v>
       </c>
       <c r="B413" s="5"/>
-      <c r="D413" s="32" t="s">
+      <c r="D413" s="33" t="s">
         <v>285</v>
       </c>
       <c r="E413" s="7">
@@ -8524,7 +8639,7 @@
     </row>
     <row r="414" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B414" s="5"/>
-      <c r="D414" s="32"/>
+      <c r="D414" s="33"/>
       <c r="E414" s="7">
         <v>2</v>
       </c>
@@ -8542,7 +8657,7 @@
     </row>
     <row r="415" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B415" s="5"/>
-      <c r="D415" s="32"/>
+      <c r="D415" s="33"/>
       <c r="E415" s="7">
         <v>3</v>
       </c>
@@ -8557,7 +8672,7 @@
     </row>
     <row r="416" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B416" s="5"/>
-      <c r="D416" s="32"/>
+      <c r="D416" s="33"/>
       <c r="E416" s="7">
         <v>4</v>
       </c>
@@ -8572,7 +8687,7 @@
     </row>
     <row r="417" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B417" s="5"/>
-      <c r="D417" s="32"/>
+      <c r="D417" s="33"/>
       <c r="E417" s="7">
         <v>5</v>
       </c>
@@ -8587,7 +8702,7 @@
     </row>
     <row r="418" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B418" s="5"/>
-      <c r="D418" s="32"/>
+      <c r="D418" s="33"/>
       <c r="E418" s="7">
         <v>6</v>
       </c>
@@ -8602,7 +8717,7 @@
     </row>
     <row r="419" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B419" s="5"/>
-      <c r="D419" s="32"/>
+      <c r="D419" s="33"/>
       <c r="E419" s="7">
         <v>7</v>
       </c>
@@ -8620,7 +8735,7 @@
     </row>
     <row r="420" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="B420" s="5"/>
-      <c r="D420" s="32"/>
+      <c r="D420" s="33"/>
       <c r="E420" s="7">
         <v>8</v>
       </c>
@@ -8648,8 +8763,8 @@
         <v>295</v>
       </c>
       <c r="B423" s="5"/>
-      <c r="D423" s="32" t="s">
-        <v>303</v>
+      <c r="D423" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="E423" s="7">
         <v>1</v>
@@ -8668,7 +8783,7 @@
     </row>
     <row r="424" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B424" s="5"/>
-      <c r="D424" s="32"/>
+      <c r="D424" s="33"/>
       <c r="E424" s="7">
         <v>2</v>
       </c>
@@ -8686,7 +8801,7 @@
     </row>
     <row r="425" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B425" s="5"/>
-      <c r="D425" s="32"/>
+      <c r="D425" s="33"/>
       <c r="E425" s="7">
         <v>3</v>
       </c>
@@ -8701,7 +8816,7 @@
     </row>
     <row r="426" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B426" s="5"/>
-      <c r="D426" s="32"/>
+      <c r="D426" s="33"/>
       <c r="E426" s="7">
         <v>4</v>
       </c>
@@ -8716,7 +8831,7 @@
     </row>
     <row r="427" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B427" s="5"/>
-      <c r="D427" s="32"/>
+      <c r="D427" s="33"/>
       <c r="E427" s="7">
         <v>5</v>
       </c>
@@ -8731,7 +8846,7 @@
     </row>
     <row r="428" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B428" s="5"/>
-      <c r="D428" s="32"/>
+      <c r="D428" s="33"/>
       <c r="E428" s="7">
         <v>6</v>
       </c>
@@ -8746,7 +8861,7 @@
     </row>
     <row r="429" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B429" s="5"/>
-      <c r="D429" s="32"/>
+      <c r="D429" s="33"/>
       <c r="E429" s="7">
         <v>7</v>
       </c>
@@ -8761,7 +8876,7 @@
     </row>
     <row r="430" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B430" s="5"/>
-      <c r="D430" s="32"/>
+      <c r="D430" s="33"/>
       <c r="E430" s="7">
         <v>8</v>
       </c>
@@ -8789,11 +8904,11 @@
     </row>
     <row r="433" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B433" s="5"/>
-      <c r="D433" s="32" t="s">
-        <v>305</v>
+      <c r="D433" s="33" t="s">
+        <v>361</v>
       </c>
       <c r="E433" s="7">
         <v>1</v>
@@ -8812,7 +8927,7 @@
     </row>
     <row r="434" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B434" s="5"/>
-      <c r="D434" s="32"/>
+      <c r="D434" s="33"/>
       <c r="E434" s="7">
         <v>2</v>
       </c>
@@ -8830,7 +8945,7 @@
     </row>
     <row r="435" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B435" s="5"/>
-      <c r="D435" s="32"/>
+      <c r="D435" s="33"/>
       <c r="E435" s="7">
         <v>3</v>
       </c>
@@ -8845,7 +8960,7 @@
     </row>
     <row r="436" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B436" s="5"/>
-      <c r="D436" s="32"/>
+      <c r="D436" s="33"/>
       <c r="E436" s="7">
         <v>4</v>
       </c>
@@ -8860,7 +8975,7 @@
     </row>
     <row r="437" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B437" s="5"/>
-      <c r="D437" s="32"/>
+      <c r="D437" s="33"/>
       <c r="E437" s="7">
         <v>5</v>
       </c>
@@ -8875,7 +8990,7 @@
     </row>
     <row r="438" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B438" s="5"/>
-      <c r="D438" s="32"/>
+      <c r="D438" s="33"/>
       <c r="E438" s="7">
         <v>6</v>
       </c>
@@ -8890,7 +9005,7 @@
     </row>
     <row r="439" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B439" s="5"/>
-      <c r="D439" s="32"/>
+      <c r="D439" s="33"/>
       <c r="E439" s="7">
         <v>7</v>
       </c>
@@ -8905,15 +9020,15 @@
     </row>
     <row r="440" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B440" s="5"/>
-      <c r="D440" s="32"/>
+      <c r="D440" s="33"/>
       <c r="E440" s="7">
         <v>8</v>
       </c>
       <c r="F440" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G440" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H440" s="8" t="s">
         <v>302</v>
@@ -8933,11 +9048,11 @@
     </row>
     <row r="443" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B443" s="5"/>
-      <c r="D443" s="32" t="s">
-        <v>331</v>
+      <c r="D443" s="33" t="s">
+        <v>329</v>
       </c>
       <c r="E443" s="7">
         <v>1</v>
@@ -8956,7 +9071,7 @@
     </row>
     <row r="444" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B444" s="5"/>
-      <c r="D444" s="32"/>
+      <c r="D444" s="33"/>
       <c r="E444" s="7">
         <v>2</v>
       </c>
@@ -8974,7 +9089,7 @@
     </row>
     <row r="445" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B445" s="5"/>
-      <c r="D445" s="32"/>
+      <c r="D445" s="33"/>
       <c r="E445" s="7">
         <v>3</v>
       </c>
@@ -8989,7 +9104,7 @@
     </row>
     <row r="446" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B446" s="5"/>
-      <c r="D446" s="32"/>
+      <c r="D446" s="33"/>
       <c r="E446" s="7">
         <v>4</v>
       </c>
@@ -9004,7 +9119,7 @@
     </row>
     <row r="447" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B447" s="5"/>
-      <c r="D447" s="32"/>
+      <c r="D447" s="33"/>
       <c r="E447" s="7">
         <v>5</v>
       </c>
@@ -9019,7 +9134,7 @@
     </row>
     <row r="448" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B448" s="5"/>
-      <c r="D448" s="32"/>
+      <c r="D448" s="33"/>
       <c r="E448" s="7">
         <v>6</v>
       </c>
@@ -9034,7 +9149,7 @@
     </row>
     <row r="449" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B449" s="5"/>
-      <c r="D449" s="32"/>
+      <c r="D449" s="33"/>
       <c r="E449" s="7">
         <v>7</v>
       </c>
@@ -9049,82 +9164,82 @@
     </row>
     <row r="450" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B450" s="5"/>
-      <c r="D450" s="32"/>
+      <c r="D450" s="33"/>
       <c r="E450" s="7">
         <v>8</v>
       </c>
       <c r="F450" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G450" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J450" s="6"/>
       <c r="K450" s="10"/>
     </row>
     <row r="451" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B451" s="5"/>
-      <c r="D451" s="32"/>
+      <c r="D451" s="33"/>
       <c r="E451" s="7">
         <v>9</v>
       </c>
       <c r="F451" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G451" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J451" s="6"/>
       <c r="K451" s="10"/>
     </row>
     <row r="452" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B452" s="5"/>
-      <c r="D452" s="32"/>
+      <c r="D452" s="33"/>
       <c r="E452" s="7">
         <v>10</v>
       </c>
       <c r="F452" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G452" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J452" s="6"/>
       <c r="K452" s="10"/>
     </row>
     <row r="453" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B453" s="5"/>
-      <c r="D453" s="32"/>
+      <c r="D453" s="33"/>
       <c r="E453" s="7">
         <v>11</v>
       </c>
       <c r="F453" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G453" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J453" s="6"/>
       <c r="K453" s="10"/>
     </row>
     <row r="454" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B454" s="5"/>
-      <c r="D454" s="32"/>
+      <c r="D454" s="33"/>
       <c r="E454" s="7">
         <v>12</v>
       </c>
       <c r="F454" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G454" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J454" s="6"/>
       <c r="K454" s="10"/>
     </row>
     <row r="455" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B455" s="5"/>
-      <c r="D455" s="32"/>
+      <c r="D455" s="33"/>
       <c r="E455" s="7">
         <v>13</v>
       </c>
@@ -9139,7 +9254,7 @@
     </row>
     <row r="456" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B456" s="5"/>
-      <c r="D456" s="32"/>
+      <c r="D456" s="33"/>
       <c r="E456" s="7">
         <v>14</v>
       </c>
@@ -9157,7 +9272,7 @@
     </row>
     <row r="457" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B457" s="5"/>
-      <c r="D457" s="32"/>
+      <c r="D457" s="33"/>
       <c r="E457" s="7">
         <v>15</v>
       </c>
@@ -9172,7 +9287,7 @@
     </row>
     <row r="458" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B458" s="5"/>
-      <c r="D458" s="32"/>
+      <c r="D458" s="33"/>
       <c r="E458" s="7">
         <v>16</v>
       </c>
@@ -9190,7 +9305,7 @@
     </row>
     <row r="459" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B459" s="5"/>
-      <c r="D459" s="32"/>
+      <c r="D459" s="33"/>
       <c r="E459" s="7">
         <v>17</v>
       </c>
@@ -9201,14 +9316,14 @@
         <v>162</v>
       </c>
       <c r="H459" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J459" s="6"/>
       <c r="K459" s="10"/>
     </row>
     <row r="460" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B460" s="5"/>
-      <c r="D460" s="32"/>
+      <c r="D460" s="33"/>
       <c r="E460" s="7">
         <v>18</v>
       </c>
@@ -9223,7 +9338,7 @@
     </row>
     <row r="461" spans="2:11" ht="240" x14ac:dyDescent="0.25">
       <c r="B461" s="5"/>
-      <c r="D461" s="32"/>
+      <c r="D461" s="33"/>
       <c r="E461" s="7">
         <v>19</v>
       </c>
@@ -9241,7 +9356,7 @@
     </row>
     <row r="462" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B462" s="5"/>
-      <c r="D462" s="32"/>
+      <c r="D462" s="33"/>
       <c r="E462" s="7">
         <v>20</v>
       </c>
@@ -9256,7 +9371,7 @@
     </row>
     <row r="463" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B463" s="5"/>
-      <c r="D463" s="32"/>
+      <c r="D463" s="33"/>
       <c r="E463" s="7">
         <v>21</v>
       </c>
@@ -9271,52 +9386,52 @@
     </row>
     <row r="464" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B464" s="5"/>
-      <c r="D464" s="32"/>
+      <c r="D464" s="33"/>
       <c r="E464" s="7">
         <v>22</v>
       </c>
       <c r="F464" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G464" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J464" s="6"/>
       <c r="K464" s="10"/>
     </row>
     <row r="465" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B465" s="5"/>
-      <c r="D465" s="32"/>
+      <c r="D465" s="33"/>
       <c r="E465" s="7">
         <v>23</v>
       </c>
       <c r="F465" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G465" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J465" s="6"/>
       <c r="K465" s="10"/>
     </row>
     <row r="466" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B466" s="5"/>
-      <c r="D466" s="32"/>
+      <c r="D466" s="33"/>
       <c r="E466" s="7">
         <v>24</v>
       </c>
       <c r="F466" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G466" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J466" s="6"/>
       <c r="K466" s="10"/>
     </row>
     <row r="467" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B467" s="5"/>
-      <c r="D467" s="32"/>
+      <c r="D467" s="33"/>
       <c r="E467" s="7">
         <v>25</v>
       </c>
@@ -9331,7 +9446,7 @@
     </row>
     <row r="468" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B468" s="5"/>
-      <c r="D468" s="32"/>
+      <c r="D468" s="33"/>
       <c r="E468" s="7">
         <v>26</v>
       </c>
@@ -9346,7 +9461,7 @@
     </row>
     <row r="469" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B469" s="5"/>
-      <c r="D469" s="32"/>
+      <c r="D469" s="33"/>
       <c r="E469" s="7">
         <v>27</v>
       </c>
@@ -9361,7 +9476,7 @@
     </row>
     <row r="470" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B470" s="5"/>
-      <c r="D470" s="32"/>
+      <c r="D470" s="33"/>
       <c r="E470" s="7">
         <v>28</v>
       </c>
@@ -9376,7 +9491,7 @@
     </row>
     <row r="471" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B471" s="5"/>
-      <c r="D471" s="32"/>
+      <c r="D471" s="33"/>
       <c r="E471" s="7">
         <v>29</v>
       </c>
@@ -9391,40 +9506,40 @@
     </row>
     <row r="472" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B472" s="5"/>
-      <c r="D472" s="32"/>
+      <c r="D472" s="33"/>
       <c r="E472" s="7">
         <v>30</v>
       </c>
       <c r="F472" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G472" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H472" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J472" s="6"/>
       <c r="K472" s="10"/>
     </row>
     <row r="473" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B473" s="5"/>
-      <c r="D473" s="32"/>
+      <c r="D473" s="33"/>
       <c r="E473" s="7">
         <v>31</v>
       </c>
       <c r="F473" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="G473" s="8" t="s">
         <v>334</v>
-      </c>
-      <c r="G473" s="8" t="s">
-        <v>336</v>
       </c>
       <c r="J473" s="6"/>
       <c r="K473" s="10"/>
     </row>
     <row r="474" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B474" s="5"/>
-      <c r="D474" s="32"/>
+      <c r="D474" s="33"/>
       <c r="E474" s="7">
         <v>32</v>
       </c>
@@ -9439,7 +9554,7 @@
     </row>
     <row r="475" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B475" s="5"/>
-      <c r="D475" s="32"/>
+      <c r="D475" s="33"/>
       <c r="E475" s="7">
         <v>33</v>
       </c>
@@ -9447,7 +9562,7 @@
         <v>178</v>
       </c>
       <c r="G475" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J475" s="6"/>
       <c r="K475" s="10"/>
@@ -9464,17 +9579,17 @@
     </row>
     <row r="478" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B478" s="5"/>
+      <c r="D478" s="33" t="s">
         <v>330</v>
-      </c>
-      <c r="B478" s="5"/>
-      <c r="D478" s="32" t="s">
-        <v>332</v>
       </c>
       <c r="E478" s="7">
         <v>1</v>
       </c>
       <c r="F478" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G478" s="26" t="s">
         <v>220</v>
@@ -9487,7 +9602,7 @@
     </row>
     <row r="479" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B479" s="5"/>
-      <c r="D479" s="32"/>
+      <c r="D479" s="33"/>
       <c r="E479" s="7">
         <v>2</v>
       </c>
@@ -9505,7 +9620,7 @@
     </row>
     <row r="480" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B480" s="5"/>
-      <c r="D480" s="32"/>
+      <c r="D480" s="33"/>
       <c r="E480" s="7">
         <v>3</v>
       </c>
@@ -9520,7 +9635,7 @@
     </row>
     <row r="481" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B481" s="5"/>
-      <c r="D481" s="32"/>
+      <c r="D481" s="33"/>
       <c r="E481" s="7">
         <v>4</v>
       </c>
@@ -9535,7 +9650,7 @@
     </row>
     <row r="482" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B482" s="5"/>
-      <c r="D482" s="32"/>
+      <c r="D482" s="33"/>
       <c r="E482" s="7">
         <v>5</v>
       </c>
@@ -9550,7 +9665,7 @@
     </row>
     <row r="483" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B483" s="5"/>
-      <c r="D483" s="32"/>
+      <c r="D483" s="33"/>
       <c r="E483" s="7">
         <v>6</v>
       </c>
@@ -9565,7 +9680,7 @@
     </row>
     <row r="484" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B484" s="5"/>
-      <c r="D484" s="32"/>
+      <c r="D484" s="33"/>
       <c r="E484" s="7">
         <v>7</v>
       </c>
@@ -9580,25 +9695,25 @@
     </row>
     <row r="485" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B485" s="5"/>
-      <c r="D485" s="32"/>
+      <c r="D485" s="33"/>
       <c r="E485" s="7">
         <v>8</v>
       </c>
       <c r="F485" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G485" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="H485" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="G485" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="H485" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="J485" s="10"/>
       <c r="K485" s="10"/>
     </row>
     <row r="486" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B486" s="5"/>
-      <c r="D486" s="32"/>
+      <c r="D486" s="33"/>
       <c r="E486" s="7">
         <v>9</v>
       </c>
@@ -9613,7 +9728,7 @@
     </row>
     <row r="487" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B487" s="5"/>
-      <c r="D487" s="32"/>
+      <c r="D487" s="33"/>
       <c r="E487" s="7">
         <v>10</v>
       </c>
@@ -9621,7 +9736,7 @@
         <v>178</v>
       </c>
       <c r="G487" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J487" s="10"/>
       <c r="K487" s="10"/>
@@ -9638,17 +9753,17 @@
     </row>
     <row r="490" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A490" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B490" s="5"/>
-      <c r="D490" s="32" t="s">
-        <v>350</v>
+      <c r="D490" s="33" t="s">
+        <v>348</v>
       </c>
       <c r="E490" s="7">
         <v>1</v>
       </c>
       <c r="F490" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G490" s="26" t="s">
         <v>220</v>
@@ -9661,7 +9776,7 @@
     </row>
     <row r="491" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B491" s="5"/>
-      <c r="D491" s="32"/>
+      <c r="D491" s="33"/>
       <c r="E491" s="7">
         <v>2</v>
       </c>
@@ -9679,7 +9794,7 @@
     </row>
     <row r="492" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B492" s="5"/>
-      <c r="D492" s="32"/>
+      <c r="D492" s="33"/>
       <c r="E492" s="7">
         <v>3</v>
       </c>
@@ -9694,7 +9809,7 @@
     </row>
     <row r="493" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B493" s="5"/>
-      <c r="D493" s="32"/>
+      <c r="D493" s="33"/>
       <c r="E493" s="7">
         <v>4</v>
       </c>
@@ -9709,7 +9824,7 @@
     </row>
     <row r="494" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B494" s="5"/>
-      <c r="D494" s="32"/>
+      <c r="D494" s="33"/>
       <c r="E494" s="7">
         <v>5</v>
       </c>
@@ -9724,7 +9839,7 @@
     </row>
     <row r="495" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B495" s="5"/>
-      <c r="D495" s="32"/>
+      <c r="D495" s="33"/>
       <c r="E495" s="7">
         <v>6</v>
       </c>
@@ -9739,7 +9854,7 @@
     </row>
     <row r="496" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B496" s="5"/>
-      <c r="D496" s="32"/>
+      <c r="D496" s="33"/>
       <c r="E496" s="7">
         <v>7</v>
       </c>
@@ -9754,25 +9869,25 @@
     </row>
     <row r="497" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B497" s="5"/>
-      <c r="D497" s="32"/>
+      <c r="D497" s="33"/>
       <c r="E497" s="7">
         <v>8</v>
       </c>
       <c r="F497" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G497" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="H497" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="G497" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="H497" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="J497" s="10"/>
       <c r="K497" s="10"/>
     </row>
     <row r="498" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B498" s="5"/>
-      <c r="D498" s="32"/>
+      <c r="D498" s="33"/>
       <c r="E498" s="7">
         <v>9</v>
       </c>
@@ -9787,22 +9902,22 @@
     </row>
     <row r="499" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B499" s="5"/>
-      <c r="D499" s="32"/>
+      <c r="D499" s="33"/>
       <c r="E499" s="7">
         <v>10</v>
       </c>
       <c r="F499" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G499" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J499" s="10"/>
       <c r="K499" s="10"/>
     </row>
     <row r="500" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B500" s="5"/>
-      <c r="D500" s="32"/>
+      <c r="D500" s="33"/>
       <c r="E500" s="7">
         <v>11</v>
       </c>
@@ -9810,7 +9925,7 @@
         <v>178</v>
       </c>
       <c r="G500" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J500" s="10"/>
       <c r="K500" s="10"/>
@@ -9827,17 +9942,17 @@
     </row>
     <row r="503" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A503" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B503" s="5"/>
-      <c r="D503" s="32" t="s">
-        <v>343</v>
+      <c r="D503" s="33" t="s">
+        <v>341</v>
       </c>
       <c r="E503" s="7">
         <v>1</v>
       </c>
       <c r="F503" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G503" s="26" t="s">
         <v>220</v>
@@ -9850,7 +9965,7 @@
     </row>
     <row r="504" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B504" s="5"/>
-      <c r="D504" s="32"/>
+      <c r="D504" s="33"/>
       <c r="E504" s="7">
         <v>2</v>
       </c>
@@ -9868,7 +9983,7 @@
     </row>
     <row r="505" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B505" s="5"/>
-      <c r="D505" s="32"/>
+      <c r="D505" s="33"/>
       <c r="E505" s="7">
         <v>3</v>
       </c>
@@ -9883,7 +9998,7 @@
     </row>
     <row r="506" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B506" s="5"/>
-      <c r="D506" s="32"/>
+      <c r="D506" s="33"/>
       <c r="E506" s="7">
         <v>4</v>
       </c>
@@ -9898,7 +10013,7 @@
     </row>
     <row r="507" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B507" s="5"/>
-      <c r="D507" s="32"/>
+      <c r="D507" s="33"/>
       <c r="E507" s="7">
         <v>5</v>
       </c>
@@ -9913,7 +10028,7 @@
     </row>
     <row r="508" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B508" s="5"/>
-      <c r="D508" s="32"/>
+      <c r="D508" s="33"/>
       <c r="E508" s="7">
         <v>6</v>
       </c>
@@ -9928,7 +10043,7 @@
     </row>
     <row r="509" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B509" s="5"/>
-      <c r="D509" s="32"/>
+      <c r="D509" s="33"/>
       <c r="E509" s="7">
         <v>7</v>
       </c>
@@ -9943,25 +10058,25 @@
     </row>
     <row r="510" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B510" s="5"/>
-      <c r="D510" s="32"/>
+      <c r="D510" s="33"/>
       <c r="E510" s="7">
         <v>8</v>
       </c>
       <c r="F510" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G510" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H510" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J510" s="10"/>
       <c r="K510" s="10"/>
     </row>
     <row r="511" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B511" s="5"/>
-      <c r="D511" s="32"/>
+      <c r="D511" s="33"/>
       <c r="E511" s="7">
         <v>9</v>
       </c>
@@ -9976,7 +10091,7 @@
     </row>
     <row r="512" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B512" s="5"/>
-      <c r="D512" s="32"/>
+      <c r="D512" s="33"/>
       <c r="E512" s="7">
         <v>10</v>
       </c>
@@ -9984,7 +10099,7 @@
         <v>178</v>
       </c>
       <c r="G512" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J512" s="10"/>
       <c r="K512" s="10"/>
@@ -9996,17 +10111,17 @@
     </row>
     <row r="514" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A514" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B514" s="5"/>
-      <c r="D514" s="32" t="s">
-        <v>351</v>
+      <c r="D514" s="33" t="s">
+        <v>349</v>
       </c>
       <c r="E514" s="7">
         <v>1</v>
       </c>
       <c r="F514" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G514" s="26" t="s">
         <v>220</v>
@@ -10019,7 +10134,7 @@
     </row>
     <row r="515" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B515" s="5"/>
-      <c r="D515" s="32"/>
+      <c r="D515" s="33"/>
       <c r="E515" s="7">
         <v>2</v>
       </c>
@@ -10037,7 +10152,7 @@
     </row>
     <row r="516" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B516" s="5"/>
-      <c r="D516" s="32"/>
+      <c r="D516" s="33"/>
       <c r="E516" s="7">
         <v>3</v>
       </c>
@@ -10052,7 +10167,7 @@
     </row>
     <row r="517" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B517" s="5"/>
-      <c r="D517" s="32"/>
+      <c r="D517" s="33"/>
       <c r="E517" s="7">
         <v>4</v>
       </c>
@@ -10067,7 +10182,7 @@
     </row>
     <row r="518" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B518" s="5"/>
-      <c r="D518" s="32"/>
+      <c r="D518" s="33"/>
       <c r="E518" s="7">
         <v>5</v>
       </c>
@@ -10082,7 +10197,7 @@
     </row>
     <row r="519" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B519" s="5"/>
-      <c r="D519" s="32"/>
+      <c r="D519" s="33"/>
       <c r="E519" s="7">
         <v>6</v>
       </c>
@@ -10097,7 +10212,7 @@
     </row>
     <row r="520" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B520" s="5"/>
-      <c r="D520" s="32"/>
+      <c r="D520" s="33"/>
       <c r="E520" s="7">
         <v>7</v>
       </c>
@@ -10112,25 +10227,25 @@
     </row>
     <row r="521" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B521" s="5"/>
-      <c r="D521" s="32"/>
+      <c r="D521" s="33"/>
       <c r="E521" s="7">
         <v>8</v>
       </c>
       <c r="F521" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G521" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H521" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J521" s="10"/>
       <c r="K521" s="10"/>
     </row>
     <row r="522" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B522" s="5"/>
-      <c r="D522" s="32"/>
+      <c r="D522" s="33"/>
       <c r="E522" s="7">
         <v>9</v>
       </c>
@@ -10145,22 +10260,22 @@
     </row>
     <row r="523" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B523" s="5"/>
-      <c r="D523" s="32"/>
+      <c r="D523" s="33"/>
       <c r="E523" s="7">
         <v>10</v>
       </c>
       <c r="F523" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G523" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J523" s="10"/>
       <c r="K523" s="10"/>
     </row>
     <row r="524" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B524" s="5"/>
-      <c r="D524" s="32"/>
+      <c r="D524" s="33"/>
       <c r="E524" s="7">
         <v>11</v>
       </c>
@@ -10168,7 +10283,7 @@
         <v>178</v>
       </c>
       <c r="G524" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J524" s="10"/>
       <c r="K524" s="10"/>
@@ -10185,17 +10300,17 @@
     </row>
     <row r="527" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B527" s="5"/>
-      <c r="D527" s="32" t="s">
-        <v>352</v>
+      <c r="D527" s="33" t="s">
+        <v>350</v>
       </c>
       <c r="E527" s="7">
         <v>1</v>
       </c>
       <c r="F527" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G527" s="26" t="s">
         <v>220</v>
@@ -10208,7 +10323,7 @@
     </row>
     <row r="528" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B528" s="5"/>
-      <c r="D528" s="32"/>
+      <c r="D528" s="33"/>
       <c r="E528" s="7">
         <v>2</v>
       </c>
@@ -10226,7 +10341,7 @@
     </row>
     <row r="529" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B529" s="5"/>
-      <c r="D529" s="32"/>
+      <c r="D529" s="33"/>
       <c r="E529" s="7">
         <v>3</v>
       </c>
@@ -10241,7 +10356,7 @@
     </row>
     <row r="530" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B530" s="5"/>
-      <c r="D530" s="32"/>
+      <c r="D530" s="33"/>
       <c r="E530" s="7">
         <v>4</v>
       </c>
@@ -10256,7 +10371,7 @@
     </row>
     <row r="531" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B531" s="5"/>
-      <c r="D531" s="32"/>
+      <c r="D531" s="33"/>
       <c r="E531" s="7">
         <v>5</v>
       </c>
@@ -10271,7 +10386,7 @@
     </row>
     <row r="532" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B532" s="5"/>
-      <c r="D532" s="32"/>
+      <c r="D532" s="33"/>
       <c r="E532" s="7">
         <v>6</v>
       </c>
@@ -10286,7 +10401,7 @@
     </row>
     <row r="533" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B533" s="5"/>
-      <c r="D533" s="32"/>
+      <c r="D533" s="33"/>
       <c r="E533" s="7">
         <v>7</v>
       </c>
@@ -10301,15 +10416,15 @@
     </row>
     <row r="534" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B534" s="5"/>
-      <c r="D534" s="32"/>
+      <c r="D534" s="33"/>
       <c r="E534" s="7">
         <v>8</v>
       </c>
       <c r="F534" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G534" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J534" s="10"/>
       <c r="K534" s="10"/>
@@ -10326,17 +10441,17 @@
     </row>
     <row r="537" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A537" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B537" s="5"/>
-      <c r="D537" s="32" t="s">
-        <v>357</v>
+      <c r="D537" s="33" t="s">
+        <v>355</v>
       </c>
       <c r="E537" s="7">
         <v>1</v>
       </c>
       <c r="F537" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G537" s="26" t="s">
         <v>220</v>
@@ -10349,7 +10464,7 @@
     </row>
     <row r="538" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B538" s="5"/>
-      <c r="D538" s="32"/>
+      <c r="D538" s="33"/>
       <c r="E538" s="7">
         <v>2</v>
       </c>
@@ -10367,7 +10482,7 @@
     </row>
     <row r="539" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B539" s="5"/>
-      <c r="D539" s="32"/>
+      <c r="D539" s="33"/>
       <c r="E539" s="7">
         <v>3</v>
       </c>
@@ -10382,7 +10497,7 @@
     </row>
     <row r="540" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B540" s="5"/>
-      <c r="D540" s="32"/>
+      <c r="D540" s="33"/>
       <c r="E540" s="7">
         <v>4</v>
       </c>
@@ -10397,7 +10512,7 @@
     </row>
     <row r="541" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B541" s="5"/>
-      <c r="D541" s="32"/>
+      <c r="D541" s="33"/>
       <c r="E541" s="7">
         <v>5</v>
       </c>
@@ -10412,7 +10527,7 @@
     </row>
     <row r="542" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B542" s="5"/>
-      <c r="D542" s="32"/>
+      <c r="D542" s="33"/>
       <c r="E542" s="7">
         <v>6</v>
       </c>
@@ -10427,12 +10542,12 @@
     </row>
     <row r="543" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B543" s="5"/>
-      <c r="D543" s="32"/>
+      <c r="D543" s="33"/>
       <c r="E543" s="7">
         <v>7</v>
       </c>
       <c r="F543" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G543" s="8" t="s">
         <v>299</v>
@@ -10442,15 +10557,15 @@
     </row>
     <row r="544" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B544" s="5"/>
-      <c r="D544" s="32"/>
+      <c r="D544" s="33"/>
       <c r="E544" s="7">
         <v>8</v>
       </c>
       <c r="F544" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G544" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J544" s="10"/>
       <c r="K544" s="10"/>
@@ -10465,36 +10580,107 @@
       <c r="J546" s="10"/>
       <c r="K546" s="10"/>
     </row>
-    <row r="547" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B547" s="5"/>
+      <c r="D547" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="E547" s="7">
+        <v>1</v>
+      </c>
+      <c r="F547" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G547" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H547" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="J547" s="10"/>
       <c r="K547" s="10"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B548" s="5"/>
+      <c r="D548" s="33"/>
+      <c r="E548" s="7">
+        <v>2</v>
+      </c>
+      <c r="F548" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G548" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H548" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="J548" s="10"/>
       <c r="K548" s="10"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B549" s="5"/>
+      <c r="D549" s="33"/>
+      <c r="E549" s="7">
+        <v>3</v>
+      </c>
+      <c r="F549" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G549" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="J549" s="10"/>
       <c r="K549" s="10"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B550" s="5"/>
+      <c r="D550" s="33"/>
+      <c r="E550" s="7">
+        <v>4</v>
+      </c>
+      <c r="F550" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G550" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="J550" s="10"/>
       <c r="K550" s="10"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B551" s="5"/>
+      <c r="D551" s="33"/>
+      <c r="E551" s="7">
+        <v>5</v>
+      </c>
+      <c r="F551" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="G551" s="8" t="s">
+        <v>364</v>
+      </c>
       <c r="J551" s="10"/>
       <c r="K551" s="10"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B552" s="5"/>
+      <c r="D552" s="33"/>
+      <c r="E552" s="7">
+        <v>6</v>
+      </c>
+      <c r="F552" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="G552" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="H552" s="8" t="s">
+        <v>302</v>
+      </c>
       <c r="J552" s="10"/>
       <c r="K552" s="10"/>
     </row>
@@ -10508,337 +10694,757 @@
       <c r="J554" s="10"/>
       <c r="K554" s="10"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="8" t="s">
+        <v>366</v>
+      </c>
       <c r="B555" s="5"/>
+      <c r="D555" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="E555" s="7">
+        <v>1</v>
+      </c>
+      <c r="F555" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G555" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H555" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="J555" s="10"/>
       <c r="K555" s="10"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B556" s="5"/>
+      <c r="D556" s="33"/>
+      <c r="E556" s="7">
+        <v>2</v>
+      </c>
+      <c r="F556" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G556" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H556" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="J556" s="10"/>
       <c r="K556" s="10"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B557" s="5"/>
+      <c r="D557" s="33"/>
+      <c r="E557" s="7">
+        <v>3</v>
+      </c>
+      <c r="F557" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G557" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="J557" s="10"/>
       <c r="K557" s="10"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B558" s="5"/>
+      <c r="D558" s="33"/>
+      <c r="E558" s="7">
+        <v>4</v>
+      </c>
+      <c r="F558" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G558" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="J558" s="10"/>
       <c r="K558" s="10"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B559" s="5"/>
+      <c r="D559" s="33"/>
+      <c r="E559" s="7">
+        <v>5</v>
+      </c>
+      <c r="F559" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="G559" s="8" t="s">
+        <v>364</v>
+      </c>
       <c r="J559" s="10"/>
       <c r="K559" s="10"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B560" s="5"/>
+      <c r="D560" s="33"/>
+      <c r="E560" s="7">
+        <v>6</v>
+      </c>
+      <c r="F560" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="G560" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="H560" s="8" t="s">
+        <v>302</v>
+      </c>
       <c r="J560" s="10"/>
       <c r="K560" s="10"/>
     </row>
-    <row r="561" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B561" s="5"/>
       <c r="J561" s="10"/>
       <c r="K561" s="10"/>
     </row>
-    <row r="562" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B562" s="5"/>
       <c r="J562" s="10"/>
       <c r="K562" s="10"/>
     </row>
-    <row r="563" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A563" s="8" t="s">
+        <v>371</v>
+      </c>
       <c r="B563" s="5"/>
+      <c r="D563" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="E563" s="7">
+        <v>1</v>
+      </c>
+      <c r="F563" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G563" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H563" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="J563" s="10"/>
       <c r="K563" s="10"/>
     </row>
-    <row r="564" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B564" s="5"/>
+      <c r="D564" s="33"/>
+      <c r="E564" s="7">
+        <v>2</v>
+      </c>
+      <c r="F564" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G564" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H564" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="J564" s="10"/>
       <c r="K564" s="10"/>
     </row>
-    <row r="565" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B565" s="5"/>
+      <c r="D565" s="33"/>
+      <c r="E565" s="7">
+        <v>3</v>
+      </c>
+      <c r="F565" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G565" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="J565" s="10"/>
       <c r="K565" s="10"/>
     </row>
-    <row r="566" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B566" s="5"/>
+      <c r="D566" s="33"/>
+      <c r="E566" s="7">
+        <v>4</v>
+      </c>
+      <c r="F566" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G566" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="J566" s="10"/>
       <c r="K566" s="10"/>
     </row>
-    <row r="567" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B567" s="5"/>
+      <c r="D567" s="33"/>
+      <c r="E567" s="7">
+        <v>5</v>
+      </c>
+      <c r="F567" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="G567" s="8" t="s">
+        <v>373</v>
+      </c>
       <c r="J567" s="10"/>
       <c r="K567" s="10"/>
     </row>
-    <row r="568" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B568" s="5"/>
+      <c r="D568" s="33"/>
+      <c r="E568" s="7">
+        <v>6</v>
+      </c>
+      <c r="F568" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="G568" s="8" t="s">
+        <v>375</v>
+      </c>
       <c r="J568" s="10"/>
       <c r="K568" s="10"/>
     </row>
-    <row r="569" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B569" s="5"/>
       <c r="J569" s="10"/>
       <c r="K569" s="10"/>
     </row>
-    <row r="570" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B570" s="5"/>
       <c r="J570" s="10"/>
       <c r="K570" s="10"/>
     </row>
-    <row r="571" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B571" s="5"/>
       <c r="J571" s="10"/>
       <c r="K571" s="10"/>
     </row>
-    <row r="572" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A572" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="B572" s="5"/>
+      <c r="D572" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="E572" s="7">
+        <v>1</v>
+      </c>
+      <c r="F572" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G572" s="26" t="s">
+        <v>220</v>
+      </c>
       <c r="J572" s="10"/>
       <c r="K572" s="10"/>
     </row>
-    <row r="573" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B573" s="5"/>
+      <c r="D573" s="33"/>
+      <c r="E573" s="7">
+        <v>2</v>
+      </c>
+      <c r="F573" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G573" s="8" t="s">
+        <v>219</v>
+      </c>
       <c r="J573" s="10"/>
       <c r="K573" s="10"/>
     </row>
-    <row r="574" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B574" s="5"/>
+      <c r="D574" s="33"/>
+      <c r="E574" s="7">
+        <v>3</v>
+      </c>
+      <c r="F574" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G574" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="J574" s="10"/>
       <c r="K574" s="10"/>
     </row>
-    <row r="575" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B575" s="5"/>
+      <c r="D575" s="33"/>
+      <c r="E575" s="7">
+        <v>4</v>
+      </c>
+      <c r="F575" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G575" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="J575" s="10"/>
       <c r="K575" s="10"/>
     </row>
-    <row r="576" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B576" s="5"/>
+      <c r="D576" s="33"/>
+      <c r="E576" s="7">
+        <v>5</v>
+      </c>
+      <c r="F576" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="G576" s="8" t="s">
+        <v>373</v>
+      </c>
       <c r="J576" s="10"/>
       <c r="K576" s="10"/>
     </row>
-    <row r="577" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B577" s="5"/>
+      <c r="D577" s="33"/>
+      <c r="E577" s="7">
+        <v>6</v>
+      </c>
+      <c r="F577" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="G577" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="J577" s="10"/>
       <c r="K577" s="10"/>
     </row>
-    <row r="578" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B578" s="5"/>
       <c r="J578" s="10"/>
       <c r="K578" s="10"/>
     </row>
-    <row r="579" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B579" s="5"/>
       <c r="J579" s="10"/>
       <c r="K579" s="10"/>
     </row>
-    <row r="580" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A580" s="8" t="s">
+        <v>381</v>
+      </c>
       <c r="B580" s="5"/>
+      <c r="D580" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="E580" s="7">
+        <v>1</v>
+      </c>
+      <c r="F580" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G580" s="26" t="s">
+        <v>220</v>
+      </c>
       <c r="J580" s="10"/>
       <c r="K580" s="10"/>
     </row>
-    <row r="581" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B581" s="5"/>
+      <c r="D581" s="33"/>
+      <c r="E581" s="7">
+        <v>2</v>
+      </c>
+      <c r="F581" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G581" s="8" t="s">
+        <v>219</v>
+      </c>
       <c r="J581" s="10"/>
       <c r="K581" s="10"/>
     </row>
-    <row r="582" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B582" s="5"/>
+      <c r="D582" s="33"/>
+      <c r="E582" s="7">
+        <v>3</v>
+      </c>
+      <c r="F582" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G582" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="J582" s="10"/>
       <c r="K582" s="10"/>
     </row>
-    <row r="583" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B583" s="5"/>
+      <c r="D583" s="33"/>
+      <c r="E583" s="7">
+        <v>4</v>
+      </c>
+      <c r="F583" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G583" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="J583" s="10"/>
       <c r="K583" s="10"/>
     </row>
-    <row r="584" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B584" s="5"/>
+      <c r="D584" s="33"/>
+      <c r="E584" s="7">
+        <v>5</v>
+      </c>
+      <c r="F584" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="G584" s="8" t="s">
+        <v>373</v>
+      </c>
       <c r="J584" s="10"/>
       <c r="K584" s="10"/>
     </row>
-    <row r="585" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B585" s="5"/>
+      <c r="D585" s="33"/>
+      <c r="E585" s="7">
+        <v>6</v>
+      </c>
+      <c r="F585" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="G585" s="8" t="s">
+        <v>383</v>
+      </c>
       <c r="J585" s="10"/>
       <c r="K585" s="10"/>
     </row>
-    <row r="586" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B586" s="5"/>
       <c r="J586" s="10"/>
       <c r="K586" s="10"/>
     </row>
-    <row r="587" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B587" s="5"/>
       <c r="J587" s="10"/>
       <c r="K587" s="10"/>
     </row>
-    <row r="588" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A588" s="8" t="s">
+        <v>384</v>
+      </c>
       <c r="B588" s="5"/>
+      <c r="D588" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="E588" s="7">
+        <v>1</v>
+      </c>
+      <c r="F588" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G588" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H588" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="J588" s="10"/>
       <c r="K588" s="10"/>
     </row>
-    <row r="589" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B589" s="5"/>
+      <c r="D589" s="33"/>
+      <c r="E589" s="7">
+        <v>2</v>
+      </c>
+      <c r="F589" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G589" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H589" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="J589" s="10"/>
       <c r="K589" s="10"/>
     </row>
-    <row r="590" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B590" s="5"/>
+      <c r="D590" s="33"/>
+      <c r="E590" s="7">
+        <v>3</v>
+      </c>
+      <c r="F590" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G590" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="J590" s="10"/>
       <c r="K590" s="10"/>
     </row>
-    <row r="591" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B591" s="5"/>
+      <c r="D591" s="33"/>
+      <c r="E591" s="7">
+        <v>4</v>
+      </c>
+      <c r="F591" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G591" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="J591" s="10"/>
       <c r="K591" s="10"/>
     </row>
-    <row r="592" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B592" s="5"/>
+      <c r="D592" s="33"/>
+      <c r="E592" s="7">
+        <v>5</v>
+      </c>
+      <c r="F592" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="G592" s="8" t="s">
+        <v>373</v>
+      </c>
       <c r="J592" s="10"/>
       <c r="K592" s="10"/>
     </row>
-    <row r="593" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B593" s="5"/>
+      <c r="D593" s="33"/>
+      <c r="E593" s="7">
+        <v>6</v>
+      </c>
+      <c r="F593" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="G593" s="8" t="s">
+        <v>375</v>
+      </c>
       <c r="J593" s="10"/>
       <c r="K593" s="10"/>
     </row>
-    <row r="594" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B594" s="5"/>
+      <c r="D594" s="33"/>
+      <c r="E594" s="7">
+        <v>7</v>
+      </c>
+      <c r="F594" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="G594" s="8" t="s">
+        <v>387</v>
+      </c>
       <c r="J594" s="10"/>
       <c r="K594" s="10"/>
     </row>
-    <row r="595" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B595" s="5"/>
+    <row r="595" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B595" s="32"/>
+      <c r="D595" s="33"/>
+      <c r="E595" s="7">
+        <v>8</v>
+      </c>
+      <c r="F595" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G595" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="H595" s="8" t="s">
+        <v>395</v>
+      </c>
       <c r="J595" s="10"/>
       <c r="K595" s="10"/>
     </row>
-    <row r="596" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B596" s="5"/>
+    <row r="596" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B596" s="32"/>
+      <c r="D596" s="33"/>
+      <c r="E596" s="7">
+        <v>9</v>
+      </c>
+      <c r="F596" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="G596" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="H596" s="8">
+        <v>3</v>
+      </c>
       <c r="J596" s="10"/>
       <c r="K596" s="10"/>
     </row>
-    <row r="597" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B597" s="5"/>
+      <c r="D597" s="33"/>
+      <c r="E597" s="7">
+        <v>10</v>
+      </c>
+      <c r="F597" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="G597" s="8" t="s">
+        <v>390</v>
+      </c>
       <c r="J597" s="10"/>
       <c r="K597" s="10"/>
     </row>
-    <row r="598" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B598" s="5"/>
+      <c r="D598" s="33"/>
+      <c r="E598" s="7">
+        <v>11</v>
+      </c>
+      <c r="F598" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="G598" s="8" t="s">
+        <v>391</v>
+      </c>
       <c r="J598" s="10"/>
       <c r="K598" s="10"/>
     </row>
-    <row r="599" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B599" s="5"/>
+      <c r="D599" s="33"/>
+      <c r="E599" s="7">
+        <v>12</v>
+      </c>
+      <c r="F599" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="G599" s="8" t="s">
+        <v>398</v>
+      </c>
       <c r="J599" s="10"/>
       <c r="K599" s="10"/>
     </row>
-    <row r="600" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B600" s="5"/>
       <c r="J600" s="10"/>
       <c r="K600" s="10"/>
     </row>
-    <row r="601" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B601" s="5"/>
       <c r="J601" s="10"/>
       <c r="K601" s="10"/>
     </row>
-    <row r="602" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A602" s="8" t="s">
+        <v>399</v>
+      </c>
       <c r="B602" s="5"/>
+      <c r="D602" s="8" t="s">
+        <v>385</v>
+      </c>
       <c r="J602" s="10"/>
       <c r="K602" s="10"/>
     </row>
-    <row r="603" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B603" s="5"/>
       <c r="J603" s="10"/>
       <c r="K603" s="10"/>
     </row>
-    <row r="604" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B604" s="5"/>
       <c r="J604" s="10"/>
       <c r="K604" s="10"/>
     </row>
-    <row r="605" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B605" s="5"/>
       <c r="J605" s="10"/>
       <c r="K605" s="10"/>
     </row>
-    <row r="606" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B606" s="5"/>
       <c r="J606" s="10"/>
       <c r="K606" s="10"/>
     </row>
-    <row r="607" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B607" s="5"/>
       <c r="J607" s="10"/>
       <c r="K607" s="10"/>
     </row>
-    <row r="608" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B608" s="5"/>
       <c r="J608" s="10"/>
       <c r="K608" s="10"/>
     </row>
-    <row r="609" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B609" s="5"/>
       <c r="J609" s="10"/>
       <c r="K609" s="10"/>
     </row>
-    <row r="610" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B610" s="5"/>
       <c r="J610" s="10"/>
       <c r="K610" s="10"/>
     </row>
-    <row r="611" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J611" s="10"/>
       <c r="K611" s="10"/>
     </row>
-    <row r="612" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J612" s="10"/>
       <c r="K612" s="10"/>
     </row>
-    <row r="613" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J613" s="10"/>
       <c r="K613" s="10"/>
     </row>
-    <row r="614" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J614" s="10"/>
       <c r="K614" s="10"/>
     </row>
-    <row r="615" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J615" s="10"/>
       <c r="K615" s="10"/>
     </row>
-    <row r="616" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J616" s="10"/>
       <c r="K616" s="10"/>
     </row>
-    <row r="617" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J617" s="10"/>
       <c r="K617" s="10"/>
     </row>
-    <row r="618" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J618" s="10"/>
       <c r="K618" s="10"/>
     </row>
-    <row r="619" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J619" s="10"/>
       <c r="K619" s="10"/>
     </row>
-    <row r="620" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J620" s="10"/>
       <c r="K620" s="10"/>
     </row>
-    <row r="621" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J621" s="10"/>
       <c r="K621" s="10"/>
     </row>
-    <row r="622" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J622" s="10"/>
       <c r="K622" s="10"/>
     </row>
-    <row r="623" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J623" s="10"/>
       <c r="K623" s="10"/>
     </row>
-    <row r="624" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J624" s="10"/>
       <c r="K624" s="10"/>
     </row>
@@ -11087,9 +11693,11 @@
       <c r="K685" s="10"/>
     </row>
     <row r="686" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J686" s="10"/>
       <c r="K686" s="10"/>
     </row>
     <row r="687" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J687" s="10"/>
       <c r="K687" s="10"/>
     </row>
     <row r="688" spans="10:11" x14ac:dyDescent="0.25">
@@ -11221,9 +11829,16 @@
     <row r="730" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K730" s="10"/>
     </row>
+    <row r="731" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K731" s="10"/>
+    </row>
+    <row r="732" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K732" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="D514:D524"/>
+  <mergeCells count="45">
+    <mergeCell ref="D563:D568"/>
+    <mergeCell ref="D588:D599"/>
     <mergeCell ref="D527:D534"/>
     <mergeCell ref="D537:D544"/>
     <mergeCell ref="D321:D333"/>
@@ -11246,13 +11861,17 @@
     <mergeCell ref="D129:D136"/>
     <mergeCell ref="D139:D148"/>
     <mergeCell ref="D151:D160"/>
-    <mergeCell ref="D252:D270"/>
-    <mergeCell ref="D443:D475"/>
     <mergeCell ref="D163:D194"/>
     <mergeCell ref="D197:D205"/>
     <mergeCell ref="D209:D218"/>
     <mergeCell ref="D222:D231"/>
     <mergeCell ref="D234:D249"/>
+    <mergeCell ref="D547:D552"/>
+    <mergeCell ref="D555:D560"/>
+    <mergeCell ref="D572:D577"/>
+    <mergeCell ref="D580:D585"/>
+    <mergeCell ref="D252:D270"/>
+    <mergeCell ref="D443:D475"/>
     <mergeCell ref="D433:D440"/>
     <mergeCell ref="D273:D288"/>
     <mergeCell ref="D292:D304"/>
@@ -11262,21 +11881,22 @@
     <mergeCell ref="D355:D375"/>
     <mergeCell ref="D378:D388"/>
     <mergeCell ref="D391:D409"/>
+    <mergeCell ref="D514:D524"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B11:B608" xr:uid="{AFF23500-95E7-47BF-9178-11CBABB7C7B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B11:B610" xr:uid="{AFF23500-95E7-47BF-9178-11CBABB7C7B3}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J483:J685" xr:uid="{01AD6F3F-ED6E-4BD4-A56A-48A431009C35}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J483:J687" xr:uid="{01AD6F3F-ED6E-4BD4-A56A-48A431009C35}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J482" xr:uid="{9ABCAB91-EA72-4653-9CA8-9A382BDAE099}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K730" xr:uid="{448852A5-7DBD-44F3-839F-CC0FA067F14F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K732" xr:uid="{448852A5-7DBD-44F3-839F-CC0FA067F14F}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C730" xr:uid="{031CA33F-B44E-435C-B09A-6D90FA8E5898}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C732" xr:uid="{031CA33F-B44E-435C-B09A-6D90FA8E5898}">
       <formula1>"Bharath, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11316,8 +11936,12 @@
     <hyperlink ref="H514" r:id="rId33" xr:uid="{41131248-82CB-4C88-AD2B-FE442A9DD129}"/>
     <hyperlink ref="H527" r:id="rId34" xr:uid="{2874DDEE-2F09-4F05-84D5-6AE01ECD14FF}"/>
     <hyperlink ref="H537" r:id="rId35" xr:uid="{78EA79C4-FE13-4970-A7B8-2BD3D7A7479B}"/>
+    <hyperlink ref="H547" r:id="rId36" xr:uid="{80E691CE-CFA8-47E8-A279-CC9D8F03DA3E}"/>
+    <hyperlink ref="H555" r:id="rId37" xr:uid="{69753ACD-EBFA-4C3A-AE6B-40041C97BCA3}"/>
+    <hyperlink ref="H563" r:id="rId38" xr:uid="{C0CA47C2-F65F-44E6-89B3-280C5FA2DBAF}"/>
+    <hyperlink ref="H588" r:id="rId39" xr:uid="{54CF0BF5-23D1-4ADF-8185-03CB4E8D8CD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
--- a/Test Case/Bharath/Test Case- Radiology.xlsx
+++ b/Test Case/Bharath/Test Case- Radiology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mediware_originalwork\CentralRepository-Mediware\Test Case\Bharath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E757CCC-6784-4451-8E5A-42A0534DDF91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E5C864-B166-4EFB-92CD-D96A2F9918AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B0F86180-7D4B-4DF7-AD62-71380A8C5CDD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="575">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1383,6 +1383,574 @@
   </si>
   <si>
     <t>MED_RAD_TC_044</t>
+  </si>
+  <si>
+    <t>Click on Order Acceptance section</t>
+  </si>
+  <si>
+    <t>Click on the Order Acceptance  Section</t>
+  </si>
+  <si>
+    <t>Order Acceptance page should be displayed</t>
+  </si>
+  <si>
+    <t>Navigate to the data filtering  section &gt;&gt; Select Bill Wise # option from the dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following  filtering  criterias should be displayed :
+1.Bill#
+2.--Type--
+3.--ALL--
+4.Radiologist
+</t>
+  </si>
+  <si>
+    <t>Enter data any one of the filtering criterias or all known criteras or on all of them</t>
+  </si>
+  <si>
+    <t>Type : Cash</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_045</t>
+  </si>
+  <si>
+    <t>Test to verify filtering of data  in Order Acceptance using Bill # Wise option</t>
+  </si>
+  <si>
+    <t>Test to verify filtering of data  in Order Acceptance using Patient # Wise option</t>
+  </si>
+  <si>
+    <t>Precondition : Patients should exist in the Order Acceptance Page
+Login to the URL</t>
+  </si>
+  <si>
+    <t>Navigate to the data filtering  section &gt;&gt; Select Patient # wise option from the dropdown</t>
+  </si>
+  <si>
+    <t>User should be able to enter/select the required criterias</t>
+  </si>
+  <si>
+    <t>Click on the Search icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following  filtering  criterias should be displayed :
+1.Patient#
+2.--ALL--
+4.Radiologist
+</t>
+  </si>
+  <si>
+    <t>All : OP</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_046</t>
+  </si>
+  <si>
+    <t>Navigate to the data filtering  section &gt;&gt; Select Work Order option from the dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following  filtering  criterias should be displayed :
+1.Work#
+2.--ALL--
+4.Radiologist
+</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test to verify Summary Information in Order Acceptance </t>
+  </si>
+  <si>
+    <t>Test to verify filtering of data  in Order Acceptance using Work Order option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to the  Summary Information section and verify all data displayed is correct </t>
+  </si>
+  <si>
+    <t>The correct number of :
+1.VVIP Requests
+2.VIP Requests
+3.High Priority Requests
+4.IP Requests
+5.OP Requests
+6.Emergency Requests
+7.Total Requests
+should be displayed</t>
+  </si>
+  <si>
+    <t>User should be able to click on the option</t>
+  </si>
+  <si>
+    <t>OPRequests</t>
+  </si>
+  <si>
+    <t>Click on any of the options in the Summary Information</t>
+  </si>
+  <si>
+    <t>Verify whether  only requests of Op patients are displayed</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_048</t>
+  </si>
+  <si>
+    <t>Test case to verify From and To date options in Order Acceptance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to the  From and To section in Order Acceptance &gt;&gt;Select the From date and To date </t>
+  </si>
+  <si>
+    <t>User should be able to select from date and to date</t>
+  </si>
+  <si>
+    <t>Click on the Show button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only patients who meet the criteria should be displayed </t>
+  </si>
+  <si>
+    <t>Requests of only  patients of the selected type  should be displayed</t>
+  </si>
+  <si>
+    <t>From  : 9/05/2019
+To : 31/05/2019</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_049</t>
+  </si>
+  <si>
+    <t>Test case to verify Updated patients from the Order Acceptance page is moved to Result Entry page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3
+</t>
+  </si>
+  <si>
+    <t>Navigate to the Result Entry section &gt;&gt; Click on the Result Entry section</t>
+  </si>
+  <si>
+    <t>Result Entry page should be displayed</t>
+  </si>
+  <si>
+    <t>Verify whether the selected patient from the OrderAcceptance page is displayed in the Result Entry page</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_050</t>
+  </si>
+  <si>
+    <t>Test to verify filtering of data  in Result Entry using Bill # Wise option</t>
+  </si>
+  <si>
+    <t>Precondition : Patients should exist in the Result Entry page
+Login to the URL</t>
+  </si>
+  <si>
+    <t>Selected patient who was updated in the OrderAcceptance page should be displayed in the Result Entry page</t>
+  </si>
+  <si>
+    <t>Click on the Result Entry  Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Result Entry page should be displayed</t>
+  </si>
+  <si>
+    <t>Test to verify filtering of data  in Result Entry using Patient # Wise option</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_051</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_052</t>
+  </si>
+  <si>
+    <t>Result Entry should be displayed</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_053</t>
+  </si>
+  <si>
+    <t>Test to verify Summary Information in Result Entry</t>
+  </si>
+  <si>
+    <t>Test to verify filtering of data  in Result Entry using Work Order option</t>
+  </si>
+  <si>
+    <t>Navigate to the data filtering  section &gt;&gt; Select any option from the dropdown(Bill # Wise)</t>
+  </si>
+  <si>
+    <t>Bill # : 000007
+Type : Cash
+All : OP</t>
+  </si>
+  <si>
+    <t>Click on Clear icon</t>
+  </si>
+  <si>
+    <t>All the data entered should be cleared</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_054</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_055</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_056</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All the Order Acceptance requests that are created between the selected dates should be displayed </t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_058</t>
+  </si>
+  <si>
+    <t>Click on Result Entry section</t>
+  </si>
+  <si>
+    <t>Result Entry page should be displayed.</t>
+  </si>
+  <si>
+    <t>Precondition : Patients should exist in Result Entry page
+Login to the URL</t>
+  </si>
+  <si>
+    <t>Test case to verify From and To date options in Result Entry</t>
+  </si>
+  <si>
+    <t>Test to verify clear option in filtering data in  Order Acceptance page</t>
+  </si>
+  <si>
+    <t>Precondition : Patients should exist in the Order Acceptance page
+Login to the URL</t>
+  </si>
+  <si>
+    <t>Test to verify clear option in filtering data in Result Entry</t>
+  </si>
+  <si>
+    <t>Navigate to the  Result Entry section &gt;&gt; Click on the Treatment Summary option of the required patient from the list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test to verify Result option in the Result Entry page </t>
+  </si>
+  <si>
+    <t>Test to verify Treatment Summary in the Result Entry page</t>
+  </si>
+  <si>
+    <t>Navigate to the  Result Entry section &gt;&gt; Click on the Report option of the required patient from the list</t>
+  </si>
+  <si>
+    <t>Radiology Result pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>Select a radiologist from the dropdown</t>
+  </si>
+  <si>
+    <t>User should be able to select a radiologist</t>
+  </si>
+  <si>
+    <t>Radiologist: DIMA KASSABJI</t>
+  </si>
+  <si>
+    <t>Patient ID: NM00000532</t>
+  </si>
+  <si>
+    <t>Click on ALL textbox</t>
+  </si>
+  <si>
+    <t>User should be able select the textbox</t>
+  </si>
+  <si>
+    <t>Select the required machine from the Machine dropdown</t>
+  </si>
+  <si>
+    <t>User should be able to select a machine</t>
+  </si>
+  <si>
+    <t>Machine: CT</t>
+  </si>
+  <si>
+    <t>Enter the required  data  in the text area</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>The result should be saved and the selected  patient should be moved to Result verification page</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_059</t>
+  </si>
+  <si>
+    <t>Test to verify patient is moved to Result Verification page from Result Entry page</t>
+  </si>
+  <si>
+    <t>Click on the Result Verification section</t>
+  </si>
+  <si>
+    <t>Result Verification page should be displayed</t>
+  </si>
+  <si>
+    <t>Selected patient should be saved</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_060</t>
+  </si>
+  <si>
+    <t>Test to verify user can verify the report from the  Result Verification page</t>
+  </si>
+  <si>
+    <t>http://mediwarecloud.com/MediwareQC/</t>
+  </si>
+  <si>
+    <t>Verify the selected patient is present in the Report Verification page</t>
+  </si>
+  <si>
+    <t>Precondition : Patients should exist in Result Verification page
+Login to the URL</t>
+  </si>
+  <si>
+    <t>Click on the Edit icon</t>
+  </si>
+  <si>
+    <t>Radiology Report pop-up page should be displayed</t>
+  </si>
+  <si>
+    <t>Verify the result in the pop-up and edit details</t>
+  </si>
+  <si>
+    <t>User should be able to edit  the details in the Radiology Result pop-up</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_061</t>
+  </si>
+  <si>
+    <t>User should be able to save the result</t>
+  </si>
+  <si>
+    <t>Precondition : Patients should exist in the Result Verification page
+Login to the URL</t>
+  </si>
+  <si>
+    <t>Test to verify filtering of data  in Result Verification using Bill # Wise option</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_062</t>
+  </si>
+  <si>
+    <t>Click on the Result Verification  Section</t>
+  </si>
+  <si>
+    <t>Click on the  Result Entry</t>
+  </si>
+  <si>
+    <t>Test to verify filtering of data  in Result Verification using Patient # Wise option</t>
+  </si>
+  <si>
+    <t>Click on the Result Verification option</t>
+  </si>
+  <si>
+    <t>Result Verification should be displayed</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_063</t>
+  </si>
+  <si>
+    <t>Test to verify filtering of data  in Result Verification using Work Order option</t>
+  </si>
+  <si>
+    <t>Precondition : Patients should exist in the Result Verification  page
+Login to the URL</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_064</t>
+  </si>
+  <si>
+    <t>Test to verify clear option in filtering data in Result Verification</t>
+  </si>
+  <si>
+    <t>Test case to verify From and To date options in Result Verification</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_065</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_066</t>
+  </si>
+  <si>
+    <t>Test to verify Summary Information in Result Verification</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_067</t>
+  </si>
+  <si>
+    <t>Test to verify save option in Result Verification</t>
+  </si>
+  <si>
+    <t>Click on the textbox of the required patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to select the textbox </t>
+  </si>
+  <si>
+    <t>User should be able to save the patient result and is moved to the Result Printing page</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_068</t>
+  </si>
+  <si>
+    <t>Test to verify Treatment Summary in the Result Verification page</t>
+  </si>
+  <si>
+    <t>Precondition : Patients should exist in theResult Verification page
+Login to the URL</t>
+  </si>
+  <si>
+    <t>Click on Result Verification section</t>
+  </si>
+  <si>
+    <t>Result Verification  page should be displayed.</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on  Result Printing  section </t>
+  </si>
+  <si>
+    <t>Result Printing  page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether the selected patient result is displayed in  the Result Printing page </t>
+  </si>
+  <si>
+    <t>The selected patient result should be displayed</t>
+  </si>
+  <si>
+    <t>Patient # : NH00000088</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_070</t>
+  </si>
+  <si>
+    <t>Precondition : Patients should exist in the Result Printing  page
+Login to the URL</t>
+  </si>
+  <si>
+    <t>Click on the Result Printing  Section</t>
+  </si>
+  <si>
+    <t>Test to verify Summary Information in Result Printing</t>
+  </si>
+  <si>
+    <t>Result Printing page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_071</t>
+  </si>
+  <si>
+    <t>Precondition : Patients should exist in theResult Printing page
+Login to the URL</t>
+  </si>
+  <si>
+    <t>Test case to verify From and To date options in Result Printing</t>
+  </si>
+  <si>
+    <t>Test to verify Print option in Result Printing</t>
+  </si>
+  <si>
+    <t>Click on Print option</t>
+  </si>
+  <si>
+    <t>User should be able to print the result</t>
+  </si>
+  <si>
+    <t>Verify the patient result displayed in the Result Printing section</t>
+  </si>
+  <si>
+    <t>The patient results that have been printed should be displayed in  should  have printed result status (blue color)</t>
+  </si>
+  <si>
+    <t>Test to verify Print Preview option in Result Printing</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_072</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_073</t>
+  </si>
+  <si>
+    <t>Click on Print Preview option</t>
+  </si>
+  <si>
+    <t>User should be able to view the  structuring of the result before printing</t>
+  </si>
+  <si>
+    <t>Test to verify data filtering option in Result Printing</t>
+  </si>
+  <si>
+    <t>Verify the data filtering section in the Result Printing page</t>
+  </si>
+  <si>
+    <t>Data filtering section should be displayed :
+1.Type 
+2.Priority 
+ 3.Printed 
+4.Verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the required filtering data </t>
+  </si>
+  <si>
+    <t>User should be able to select the filtering criterias and only patients corresponding to the selected criterias should be displayed</t>
+  </si>
+  <si>
+    <t>Type   : IP
+Priority : All
+Printed :  Printed
+Verification : All</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_074</t>
+  </si>
+  <si>
+    <t>Test to verify Change Procedure Group option in Result Printing</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Change Procedure Group </t>
+  </si>
+  <si>
+    <t>Procedure group list should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the textbox of the required procedures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to select the required procedures </t>
+  </si>
+  <si>
+    <t>Click on OK</t>
+  </si>
+  <si>
+    <t>Only patients who opted for the selected procedure should be displayed</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_076</t>
+  </si>
+  <si>
+    <t>Test to verify patient result is moved from Result Verification to Result Printing</t>
+  </si>
+  <si>
+    <t>Test to verify patient result is moved from Result Printing to Result Delivery</t>
+  </si>
+  <si>
+    <t>Precondition : Patients should exist in the Result Entry  page
+Login to the URL</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +2081,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1608,6 +2176,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1939,11 +2519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9C3D31-C5E0-4697-A93F-78D6BCE0E40D}">
-  <dimension ref="A1:R732"/>
+  <dimension ref="A1:R938"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A597" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D602" sqref="D602"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A928" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F934" sqref="F934"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,14 +2579,14 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="38"/>
+      <c r="Q1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="35"/>
+      <c r="R1" s="39"/>
     </row>
     <row r="2" spans="1:18" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -2018,7 +2598,7 @@
       <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="40" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="7">
@@ -2042,7 +2622,7 @@
       </c>
       <c r="O2" s="13">
         <f>COUNTA(A:A)-1</f>
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>15</v>
@@ -2056,7 +2636,7 @@
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="37"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="7">
         <v>2</v>
       </c>
@@ -2092,7 +2672,7 @@
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="37"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="7">
         <v>3</v>
       </c>
@@ -2122,7 +2702,7 @@
     <row r="5" spans="1:18" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
-      <c r="D5" s="37"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="7">
         <v>4</v>
       </c>
@@ -2145,7 +2725,7 @@
     <row r="6" spans="1:18" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
-      <c r="D6" s="37"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="7">
         <v>5</v>
       </c>
@@ -2161,7 +2741,7 @@
     <row r="7" spans="1:18" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
-      <c r="D7" s="37"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="7">
         <v>6</v>
       </c>
@@ -2179,7 +2759,7 @@
     <row r="8" spans="1:18" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
-      <c r="D8" s="37"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="7">
         <v>7</v>
       </c>
@@ -2195,7 +2775,7 @@
     <row r="9" spans="1:18" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
-      <c r="D9" s="37"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="7">
         <v>8</v>
       </c>
@@ -2213,7 +2793,7 @@
     <row r="10" spans="1:18" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
-      <c r="D10" s="37"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="7">
         <v>9</v>
       </c>
@@ -2256,7 +2836,7 @@
       <c r="C13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="37" t="s">
         <v>68</v>
       </c>
       <c r="E13" s="7">
@@ -2276,7 +2856,7 @@
     <row r="14" spans="1:18" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="5"/>
-      <c r="D14" s="33"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="7">
         <v>2</v>
       </c>
@@ -2294,7 +2874,7 @@
     <row r="15" spans="1:18" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="5"/>
-      <c r="D15" s="33"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="7">
         <v>3</v>
       </c>
@@ -2310,7 +2890,7 @@
     <row r="16" spans="1:18" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="5"/>
-      <c r="D16" s="33"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="7">
         <v>4</v>
       </c>
@@ -2326,7 +2906,7 @@
     <row r="17" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="5"/>
-      <c r="D17" s="33"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="7">
         <v>5</v>
       </c>
@@ -2342,7 +2922,7 @@
     <row r="18" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="5"/>
-      <c r="D18" s="33"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="7">
         <v>6</v>
       </c>
@@ -2360,7 +2940,7 @@
     <row r="19" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="5"/>
-      <c r="D19" s="33"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="7">
         <v>7</v>
       </c>
@@ -2393,7 +2973,7 @@
       <c r="C21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="37" t="s">
         <v>71</v>
       </c>
       <c r="E21" s="7">
@@ -2413,7 +2993,7 @@
     <row r="22" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="5"/>
-      <c r="D22" s="33"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="7">
         <v>2</v>
       </c>
@@ -2431,7 +3011,7 @@
     <row r="23" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="5"/>
-      <c r="D23" s="33"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="7">
         <v>3</v>
       </c>
@@ -2447,7 +3027,7 @@
     <row r="24" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="5"/>
-      <c r="D24" s="33"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="7">
         <v>4</v>
       </c>
@@ -2463,7 +3043,7 @@
     <row r="25" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="5"/>
-      <c r="D25" s="33"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="7">
         <v>5</v>
       </c>
@@ -2479,7 +3059,7 @@
     <row r="26" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="5"/>
-      <c r="D26" s="33"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="7">
         <v>6</v>
       </c>
@@ -2497,7 +3077,7 @@
     <row r="27" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="5"/>
-      <c r="D27" s="33"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="7">
         <v>7</v>
       </c>
@@ -2513,7 +3093,7 @@
     <row r="28" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="5"/>
-      <c r="D28" s="33"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="7">
         <v>8</v>
       </c>
@@ -2529,7 +3109,7 @@
     <row r="29" spans="1:11" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="5"/>
-      <c r="D29" s="33"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="7">
         <v>9</v>
       </c>
@@ -2547,7 +3127,7 @@
     <row r="30" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="5"/>
-      <c r="D30" s="33"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="7">
         <v>10</v>
       </c>
@@ -2580,7 +3160,7 @@
       <c r="C32" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="37" t="s">
         <v>81</v>
       </c>
       <c r="E32" s="7">
@@ -2600,7 +3180,7 @@
     <row r="33" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="5"/>
-      <c r="D33" s="33"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="7">
         <v>2</v>
       </c>
@@ -2618,7 +3198,7 @@
     <row r="34" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="5"/>
-      <c r="D34" s="33"/>
+      <c r="D34" s="37"/>
       <c r="E34" s="7">
         <v>3</v>
       </c>
@@ -2634,7 +3214,7 @@
     <row r="35" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="5"/>
-      <c r="D35" s="33"/>
+      <c r="D35" s="37"/>
       <c r="E35" s="7">
         <v>4</v>
       </c>
@@ -2650,7 +3230,7 @@
     <row r="36" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="5"/>
-      <c r="D36" s="33"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="7">
         <v>5</v>
       </c>
@@ -2666,7 +3246,7 @@
     <row r="37" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="5"/>
-      <c r="D37" s="33"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="7">
         <v>6</v>
       </c>
@@ -2684,7 +3264,7 @@
     <row r="38" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="5"/>
-      <c r="D38" s="33"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="7">
         <v>7</v>
       </c>
@@ -2700,7 +3280,7 @@
     <row r="39" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="5"/>
-      <c r="D39" s="33"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="7">
         <v>8</v>
       </c>
@@ -2716,7 +3296,7 @@
     <row r="40" spans="1:11" s="6" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="5"/>
-      <c r="D40" s="33"/>
+      <c r="D40" s="37"/>
       <c r="E40" s="7">
         <v>9</v>
       </c>
@@ -2734,7 +3314,7 @@
     <row r="41" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="5"/>
-      <c r="D41" s="33"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="7">
         <v>10</v>
       </c>
@@ -2750,7 +3330,7 @@
     <row r="42" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="5"/>
-      <c r="D42" s="33"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="7">
         <v>11</v>
       </c>
@@ -2766,7 +3346,7 @@
     <row r="43" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="5"/>
-      <c r="D43" s="33"/>
+      <c r="D43" s="37"/>
       <c r="E43" s="7">
         <v>12</v>
       </c>
@@ -2782,7 +3362,7 @@
     <row r="44" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="5"/>
-      <c r="D44" s="33"/>
+      <c r="D44" s="37"/>
       <c r="E44" s="7">
         <v>13</v>
       </c>
@@ -2825,7 +3405,7 @@
       <c r="C47" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="37" t="s">
         <v>92</v>
       </c>
       <c r="E47" s="7">
@@ -2845,7 +3425,7 @@
     <row r="48" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="5"/>
-      <c r="D48" s="33"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="7">
         <v>2</v>
       </c>
@@ -2863,7 +3443,7 @@
     <row r="49" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
       <c r="B49" s="5"/>
-      <c r="D49" s="33"/>
+      <c r="D49" s="37"/>
       <c r="E49" s="7">
         <v>3</v>
       </c>
@@ -2879,7 +3459,7 @@
     <row r="50" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="5"/>
-      <c r="D50" s="33"/>
+      <c r="D50" s="37"/>
       <c r="E50" s="7">
         <v>4</v>
       </c>
@@ -2895,7 +3475,7 @@
     <row r="51" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
       <c r="B51" s="5"/>
-      <c r="D51" s="33"/>
+      <c r="D51" s="37"/>
       <c r="E51" s="7">
         <v>5</v>
       </c>
@@ -2911,7 +3491,7 @@
     <row r="52" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="5"/>
-      <c r="D52" s="33"/>
+      <c r="D52" s="37"/>
       <c r="E52" s="7">
         <v>6</v>
       </c>
@@ -2929,7 +3509,7 @@
     <row r="53" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
       <c r="B53" s="5"/>
-      <c r="D53" s="33"/>
+      <c r="D53" s="37"/>
       <c r="E53" s="7">
         <v>7</v>
       </c>
@@ -2945,7 +3525,7 @@
     <row r="54" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="B54" s="5"/>
-      <c r="D54" s="33"/>
+      <c r="D54" s="37"/>
       <c r="E54" s="7">
         <v>8</v>
       </c>
@@ -2961,7 +3541,7 @@
     <row r="55" spans="1:11" s="6" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="5"/>
-      <c r="D55" s="33"/>
+      <c r="D55" s="37"/>
       <c r="E55" s="7">
         <v>9</v>
       </c>
@@ -2979,7 +3559,7 @@
     <row r="56" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
       <c r="B56" s="5"/>
-      <c r="D56" s="33"/>
+      <c r="D56" s="37"/>
       <c r="E56" s="7">
         <v>10</v>
       </c>
@@ -2995,7 +3575,7 @@
     <row r="57" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="5"/>
-      <c r="D57" s="33"/>
+      <c r="D57" s="37"/>
       <c r="E57" s="7">
         <v>11</v>
       </c>
@@ -3013,7 +3593,7 @@
     <row r="58" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
       <c r="B58" s="5"/>
-      <c r="D58" s="33"/>
+      <c r="D58" s="37"/>
       <c r="E58" s="7">
         <v>12</v>
       </c>
@@ -3029,7 +3609,7 @@
     <row r="59" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="5"/>
-      <c r="D59" s="33"/>
+      <c r="D59" s="37"/>
       <c r="E59" s="7">
         <v>13</v>
       </c>
@@ -3045,7 +3625,7 @@
     <row r="60" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
       <c r="B60" s="5"/>
-      <c r="D60" s="33"/>
+      <c r="D60" s="37"/>
       <c r="E60" s="7">
         <v>14</v>
       </c>
@@ -3061,7 +3641,7 @@
     <row r="61" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
       <c r="B61" s="5"/>
-      <c r="D61" s="33"/>
+      <c r="D61" s="37"/>
       <c r="E61" s="7">
         <v>15</v>
       </c>
@@ -3077,7 +3657,7 @@
     <row r="62" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
       <c r="B62" s="5"/>
-      <c r="D62" s="33"/>
+      <c r="D62" s="37"/>
       <c r="E62" s="7">
         <v>16</v>
       </c>
@@ -3120,7 +3700,7 @@
       <c r="C65" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="33" t="s">
+      <c r="D65" s="37" t="s">
         <v>102</v>
       </c>
       <c r="E65" s="7">
@@ -3140,7 +3720,7 @@
     <row r="66" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
       <c r="B66" s="5"/>
-      <c r="D66" s="33"/>
+      <c r="D66" s="37"/>
       <c r="E66" s="7">
         <v>2</v>
       </c>
@@ -3158,7 +3738,7 @@
     <row r="67" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="20"/>
       <c r="B67" s="5"/>
-      <c r="D67" s="33"/>
+      <c r="D67" s="37"/>
       <c r="E67" s="7">
         <v>3</v>
       </c>
@@ -3174,7 +3754,7 @@
     <row r="68" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="20"/>
       <c r="B68" s="5"/>
-      <c r="D68" s="33"/>
+      <c r="D68" s="37"/>
       <c r="E68" s="7">
         <v>4</v>
       </c>
@@ -3190,7 +3770,7 @@
     <row r="69" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="20"/>
       <c r="B69" s="5"/>
-      <c r="D69" s="33"/>
+      <c r="D69" s="37"/>
       <c r="E69" s="7">
         <v>5</v>
       </c>
@@ -3206,7 +3786,7 @@
     <row r="70" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="20"/>
       <c r="B70" s="5"/>
-      <c r="D70" s="33"/>
+      <c r="D70" s="37"/>
       <c r="E70" s="7">
         <v>6</v>
       </c>
@@ -3224,7 +3804,7 @@
     <row r="71" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="20"/>
       <c r="B71" s="5"/>
-      <c r="D71" s="33"/>
+      <c r="D71" s="37"/>
       <c r="E71" s="7">
         <v>7</v>
       </c>
@@ -3240,7 +3820,7 @@
     <row r="72" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
       <c r="B72" s="5"/>
-      <c r="D72" s="33"/>
+      <c r="D72" s="37"/>
       <c r="E72" s="7">
         <v>8</v>
       </c>
@@ -3256,7 +3836,7 @@
     <row r="73" spans="1:11" s="6" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A73" s="20"/>
       <c r="B73" s="5"/>
-      <c r="D73" s="33"/>
+      <c r="D73" s="37"/>
       <c r="E73" s="7">
         <v>9</v>
       </c>
@@ -3274,7 +3854,7 @@
     <row r="74" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="20"/>
       <c r="B74" s="5"/>
-      <c r="D74" s="33"/>
+      <c r="D74" s="37"/>
       <c r="E74" s="7">
         <v>10</v>
       </c>
@@ -3290,7 +3870,7 @@
     <row r="75" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="20"/>
       <c r="B75" s="5"/>
-      <c r="D75" s="33"/>
+      <c r="D75" s="37"/>
       <c r="E75" s="7">
         <v>11</v>
       </c>
@@ -3308,7 +3888,7 @@
     <row r="76" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
       <c r="B76" s="5"/>
-      <c r="D76" s="33"/>
+      <c r="D76" s="37"/>
       <c r="E76" s="7">
         <v>12</v>
       </c>
@@ -3324,7 +3904,7 @@
     <row r="77" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="20"/>
       <c r="B77" s="5"/>
-      <c r="D77" s="33"/>
+      <c r="D77" s="37"/>
       <c r="E77" s="7">
         <v>13</v>
       </c>
@@ -3367,7 +3947,7 @@
       <c r="C80" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D80" s="33" t="s">
+      <c r="D80" s="37" t="s">
         <v>104</v>
       </c>
       <c r="E80" s="7">
@@ -3387,7 +3967,7 @@
     <row r="81" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
       <c r="B81" s="5"/>
-      <c r="D81" s="33"/>
+      <c r="D81" s="37"/>
       <c r="E81" s="7">
         <v>2</v>
       </c>
@@ -3405,7 +3985,7 @@
     <row r="82" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
       <c r="B82" s="5"/>
-      <c r="D82" s="33"/>
+      <c r="D82" s="37"/>
       <c r="E82" s="7">
         <v>3</v>
       </c>
@@ -3421,7 +4001,7 @@
     <row r="83" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
       <c r="B83" s="5"/>
-      <c r="D83" s="33"/>
+      <c r="D83" s="37"/>
       <c r="E83" s="7">
         <v>4</v>
       </c>
@@ -3437,7 +4017,7 @@
     <row r="84" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="20"/>
       <c r="B84" s="5"/>
-      <c r="D84" s="33"/>
+      <c r="D84" s="37"/>
       <c r="E84" s="7">
         <v>5</v>
       </c>
@@ -3453,7 +4033,7 @@
     <row r="85" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
       <c r="B85" s="5"/>
-      <c r="D85" s="33"/>
+      <c r="D85" s="37"/>
       <c r="E85" s="7">
         <v>6</v>
       </c>
@@ -3471,7 +4051,7 @@
     <row r="86" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
       <c r="B86" s="5"/>
-      <c r="D86" s="33"/>
+      <c r="D86" s="37"/>
       <c r="E86" s="7">
         <v>7</v>
       </c>
@@ -3487,7 +4067,7 @@
     <row r="87" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
       <c r="B87" s="5"/>
-      <c r="D87" s="33"/>
+      <c r="D87" s="37"/>
       <c r="E87" s="7">
         <v>8</v>
       </c>
@@ -3503,7 +4083,7 @@
     <row r="88" spans="1:11" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A88" s="20"/>
       <c r="B88" s="5"/>
-      <c r="D88" s="33"/>
+      <c r="D88" s="37"/>
       <c r="E88" s="7">
         <v>9</v>
       </c>
@@ -3521,7 +4101,7 @@
     <row r="89" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="20"/>
       <c r="B89" s="5"/>
-      <c r="D89" s="33"/>
+      <c r="D89" s="37"/>
       <c r="E89" s="7">
         <v>10</v>
       </c>
@@ -3537,7 +4117,7 @@
     <row r="90" spans="1:11" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A90" s="20"/>
       <c r="B90" s="5"/>
-      <c r="D90" s="33"/>
+      <c r="D90" s="37"/>
       <c r="E90" s="7">
         <v>11</v>
       </c>
@@ -3553,7 +4133,7 @@
     <row r="91" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
       <c r="B91" s="5"/>
-      <c r="D91" s="33"/>
+      <c r="D91" s="37"/>
       <c r="E91" s="7">
         <v>12</v>
       </c>
@@ -3569,7 +4149,7 @@
     <row r="92" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
       <c r="B92" s="5"/>
-      <c r="D92" s="33"/>
+      <c r="D92" s="37"/>
       <c r="E92" s="7">
         <v>13</v>
       </c>
@@ -3612,7 +4192,7 @@
       <c r="C95" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D95" s="33" t="s">
+      <c r="D95" s="37" t="s">
         <v>117</v>
       </c>
       <c r="E95" s="7">
@@ -3629,13 +4209,8 @@
     </row>
     <row r="96" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
-      <c r="B96" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D96" s="33"/>
+      <c r="B96" s="20"/>
+      <c r="D96" s="37"/>
       <c r="E96" s="7">
         <v>2</v>
       </c>
@@ -3653,7 +4228,7 @@
     <row r="97" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
       <c r="B97" s="5"/>
-      <c r="D97" s="33"/>
+      <c r="D97" s="37"/>
       <c r="E97" s="7">
         <v>3</v>
       </c>
@@ -3669,7 +4244,7 @@
     <row r="98" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="20"/>
       <c r="B98" s="5"/>
-      <c r="D98" s="33"/>
+      <c r="D98" s="37"/>
       <c r="E98" s="7">
         <v>4</v>
       </c>
@@ -3685,7 +4260,7 @@
     <row r="99" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="20"/>
       <c r="B99" s="5"/>
-      <c r="D99" s="33"/>
+      <c r="D99" s="37"/>
       <c r="E99" s="7">
         <v>5</v>
       </c>
@@ -3701,7 +4276,7 @@
     <row r="100" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="20"/>
       <c r="B100" s="5"/>
-      <c r="D100" s="33"/>
+      <c r="D100" s="37"/>
       <c r="E100" s="7">
         <v>6</v>
       </c>
@@ -3719,7 +4294,7 @@
     <row r="101" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="20"/>
       <c r="B101" s="5"/>
-      <c r="D101" s="33"/>
+      <c r="D101" s="37"/>
       <c r="E101" s="7">
         <v>7</v>
       </c>
@@ -3735,7 +4310,7 @@
     <row r="102" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="20"/>
       <c r="B102" s="5"/>
-      <c r="D102" s="33"/>
+      <c r="D102" s="37"/>
       <c r="E102" s="7">
         <v>8</v>
       </c>
@@ -3778,7 +4353,7 @@
       <c r="C105" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D105" s="33" t="s">
+      <c r="D105" s="37" t="s">
         <v>121</v>
       </c>
       <c r="E105" s="7">
@@ -3798,7 +4373,7 @@
     <row r="106" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="20"/>
       <c r="B106" s="5"/>
-      <c r="D106" s="33"/>
+      <c r="D106" s="37"/>
       <c r="E106" s="7">
         <v>2</v>
       </c>
@@ -3814,7 +4389,7 @@
     <row r="107" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="20"/>
       <c r="B107" s="5"/>
-      <c r="D107" s="33"/>
+      <c r="D107" s="37"/>
       <c r="E107" s="7">
         <v>3</v>
       </c>
@@ -3830,7 +4405,7 @@
     <row r="108" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="20"/>
       <c r="B108" s="5"/>
-      <c r="D108" s="33"/>
+      <c r="D108" s="37"/>
       <c r="E108" s="7">
         <v>4</v>
       </c>
@@ -3846,7 +4421,7 @@
     <row r="109" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="20"/>
       <c r="B109" s="5"/>
-      <c r="D109" s="33"/>
+      <c r="D109" s="37"/>
       <c r="E109" s="7">
         <v>5</v>
       </c>
@@ -3862,7 +4437,7 @@
     <row r="110" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="20"/>
       <c r="B110" s="5"/>
-      <c r="D110" s="33"/>
+      <c r="D110" s="37"/>
       <c r="E110" s="7">
         <v>6</v>
       </c>
@@ -3880,7 +4455,7 @@
     <row r="111" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="20"/>
       <c r="B111" s="5"/>
-      <c r="D111" s="33"/>
+      <c r="D111" s="37"/>
       <c r="E111" s="7">
         <v>7</v>
       </c>
@@ -3896,7 +4471,7 @@
     <row r="112" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="20"/>
       <c r="B112" s="5"/>
-      <c r="D112" s="33"/>
+      <c r="D112" s="37"/>
       <c r="E112" s="7">
         <v>8</v>
       </c>
@@ -3912,7 +4487,7 @@
     <row r="113" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="20"/>
       <c r="B113" s="5"/>
-      <c r="D113" s="33"/>
+      <c r="D113" s="37"/>
       <c r="E113" s="7">
         <v>9</v>
       </c>
@@ -3928,7 +4503,7 @@
     <row r="114" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="20"/>
       <c r="B114" s="5"/>
-      <c r="D114" s="33"/>
+      <c r="D114" s="37"/>
       <c r="E114" s="7">
         <v>10</v>
       </c>
@@ -3971,7 +4546,7 @@
       <c r="C117" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D117" s="33" t="s">
+      <c r="D117" s="37" t="s">
         <v>126</v>
       </c>
       <c r="E117" s="7">
@@ -3991,7 +4566,7 @@
     <row r="118" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="20"/>
       <c r="B118" s="5"/>
-      <c r="D118" s="33"/>
+      <c r="D118" s="37"/>
       <c r="E118" s="7">
         <v>2</v>
       </c>
@@ -4007,7 +4582,7 @@
     <row r="119" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="20"/>
       <c r="B119" s="5"/>
-      <c r="D119" s="33"/>
+      <c r="D119" s="37"/>
       <c r="E119" s="7">
         <v>3</v>
       </c>
@@ -4023,7 +4598,7 @@
     <row r="120" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="20"/>
       <c r="B120" s="5"/>
-      <c r="D120" s="33"/>
+      <c r="D120" s="37"/>
       <c r="E120" s="7">
         <v>4</v>
       </c>
@@ -4039,7 +4614,7 @@
     <row r="121" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="20"/>
       <c r="B121" s="5"/>
-      <c r="D121" s="33"/>
+      <c r="D121" s="37"/>
       <c r="E121" s="7">
         <v>5</v>
       </c>
@@ -4055,7 +4630,7 @@
     <row r="122" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="20"/>
       <c r="B122" s="5"/>
-      <c r="D122" s="33"/>
+      <c r="D122" s="37"/>
       <c r="E122" s="7">
         <v>6</v>
       </c>
@@ -4073,7 +4648,7 @@
     <row r="123" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A123" s="20"/>
       <c r="B123" s="5"/>
-      <c r="D123" s="33"/>
+      <c r="D123" s="37"/>
       <c r="E123" s="7">
         <v>7</v>
       </c>
@@ -4089,7 +4664,7 @@
     <row r="124" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="20"/>
       <c r="B124" s="5"/>
-      <c r="D124" s="33"/>
+      <c r="D124" s="37"/>
       <c r="E124" s="7">
         <v>8</v>
       </c>
@@ -4105,7 +4680,7 @@
     <row r="125" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="20"/>
       <c r="B125" s="5"/>
-      <c r="D125" s="33"/>
+      <c r="D125" s="37"/>
       <c r="E125" s="7">
         <v>9</v>
       </c>
@@ -4121,7 +4696,7 @@
     <row r="126" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="20"/>
       <c r="B126" s="5"/>
-      <c r="D126" s="33"/>
+      <c r="D126" s="37"/>
       <c r="E126" s="7">
         <v>10</v>
       </c>
@@ -4164,7 +4739,7 @@
       <c r="C129" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D129" s="33" t="s">
+      <c r="D129" s="37" t="s">
         <v>133</v>
       </c>
       <c r="E129" s="7">
@@ -4184,7 +4759,7 @@
     <row r="130" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="20"/>
       <c r="B130" s="5"/>
-      <c r="D130" s="33"/>
+      <c r="D130" s="37"/>
       <c r="E130" s="7">
         <v>2</v>
       </c>
@@ -4200,7 +4775,7 @@
     <row r="131" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="20"/>
       <c r="B131" s="5"/>
-      <c r="D131" s="33"/>
+      <c r="D131" s="37"/>
       <c r="E131" s="7">
         <v>3</v>
       </c>
@@ -4216,7 +4791,7 @@
     <row r="132" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="20"/>
       <c r="B132" s="5"/>
-      <c r="D132" s="33"/>
+      <c r="D132" s="37"/>
       <c r="E132" s="7">
         <v>4</v>
       </c>
@@ -4232,7 +4807,7 @@
     <row r="133" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="20"/>
       <c r="B133" s="5"/>
-      <c r="D133" s="33"/>
+      <c r="D133" s="37"/>
       <c r="E133" s="7">
         <v>5</v>
       </c>
@@ -4248,7 +4823,7 @@
     <row r="134" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="20"/>
       <c r="B134" s="5"/>
-      <c r="D134" s="33"/>
+      <c r="D134" s="37"/>
       <c r="E134" s="7">
         <v>6</v>
       </c>
@@ -4266,7 +4841,7 @@
     <row r="135" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A135" s="20"/>
       <c r="B135" s="5"/>
-      <c r="D135" s="33"/>
+      <c r="D135" s="37"/>
       <c r="E135" s="7">
         <v>7</v>
       </c>
@@ -4282,7 +4857,7 @@
     <row r="136" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="20"/>
       <c r="B136" s="5"/>
-      <c r="D136" s="33"/>
+      <c r="D136" s="37"/>
       <c r="E136" s="7">
         <v>8</v>
       </c>
@@ -4325,7 +4900,7 @@
       <c r="C139" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D139" s="33" t="s">
+      <c r="D139" s="37" t="s">
         <v>136</v>
       </c>
       <c r="E139" s="7">
@@ -4345,7 +4920,7 @@
     <row r="140" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="20"/>
       <c r="B140" s="5"/>
-      <c r="D140" s="33"/>
+      <c r="D140" s="37"/>
       <c r="E140" s="7">
         <v>2</v>
       </c>
@@ -4361,7 +4936,7 @@
     <row r="141" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="20"/>
       <c r="B141" s="5"/>
-      <c r="D141" s="33"/>
+      <c r="D141" s="37"/>
       <c r="E141" s="7">
         <v>3</v>
       </c>
@@ -4377,7 +4952,7 @@
     <row r="142" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="20"/>
       <c r="B142" s="5"/>
-      <c r="D142" s="33"/>
+      <c r="D142" s="37"/>
       <c r="E142" s="7">
         <v>4</v>
       </c>
@@ -4393,7 +4968,7 @@
     <row r="143" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="20"/>
       <c r="B143" s="5"/>
-      <c r="D143" s="33"/>
+      <c r="D143" s="37"/>
       <c r="E143" s="7">
         <v>5</v>
       </c>
@@ -4409,7 +4984,7 @@
     <row r="144" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="20"/>
       <c r="B144" s="5"/>
-      <c r="D144" s="33"/>
+      <c r="D144" s="37"/>
       <c r="E144" s="7">
         <v>6</v>
       </c>
@@ -4427,7 +5002,7 @@
     <row r="145" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A145" s="20"/>
       <c r="B145" s="5"/>
-      <c r="D145" s="33"/>
+      <c r="D145" s="37"/>
       <c r="E145" s="7">
         <v>7</v>
       </c>
@@ -4443,7 +5018,7 @@
     <row r="146" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A146" s="20"/>
       <c r="B146" s="5"/>
-      <c r="D146" s="33"/>
+      <c r="D146" s="37"/>
       <c r="E146" s="7">
         <v>8</v>
       </c>
@@ -4459,7 +5034,7 @@
     <row r="147" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="20"/>
       <c r="B147" s="5"/>
-      <c r="D147" s="33"/>
+      <c r="D147" s="37"/>
       <c r="E147" s="7">
         <v>9</v>
       </c>
@@ -4475,7 +5050,7 @@
     <row r="148" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="20"/>
       <c r="B148" s="5"/>
-      <c r="D148" s="33"/>
+      <c r="D148" s="37"/>
       <c r="E148" s="7">
         <v>10</v>
       </c>
@@ -4518,7 +5093,7 @@
       <c r="C151" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D151" s="33" t="s">
+      <c r="D151" s="37" t="s">
         <v>142</v>
       </c>
       <c r="E151" s="7">
@@ -4536,7 +5111,7 @@
     <row r="152" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="20"/>
       <c r="B152" s="5"/>
-      <c r="D152" s="33"/>
+      <c r="D152" s="37"/>
       <c r="E152" s="7">
         <v>2</v>
       </c>
@@ -4552,7 +5127,7 @@
     <row r="153" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="20"/>
       <c r="B153" s="5"/>
-      <c r="D153" s="33"/>
+      <c r="D153" s="37"/>
       <c r="E153" s="7">
         <v>3</v>
       </c>
@@ -4568,7 +5143,7 @@
     <row r="154" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="20"/>
       <c r="B154" s="5"/>
-      <c r="D154" s="33"/>
+      <c r="D154" s="37"/>
       <c r="E154" s="7">
         <v>4</v>
       </c>
@@ -4584,7 +5159,7 @@
     <row r="155" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="20"/>
       <c r="B155" s="5"/>
-      <c r="D155" s="33"/>
+      <c r="D155" s="37"/>
       <c r="E155" s="7">
         <v>5</v>
       </c>
@@ -4600,7 +5175,7 @@
     <row r="156" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="20"/>
       <c r="B156" s="5"/>
-      <c r="D156" s="33"/>
+      <c r="D156" s="37"/>
       <c r="E156" s="7">
         <v>6</v>
       </c>
@@ -4616,7 +5191,7 @@
     <row r="157" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A157" s="20"/>
       <c r="B157" s="5"/>
-      <c r="D157" s="33"/>
+      <c r="D157" s="37"/>
       <c r="E157" s="7">
         <v>7</v>
       </c>
@@ -4632,7 +5207,7 @@
     <row r="158" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="20"/>
       <c r="B158" s="5"/>
-      <c r="D158" s="33"/>
+      <c r="D158" s="37"/>
       <c r="E158" s="7">
         <v>8</v>
       </c>
@@ -4648,7 +5223,7 @@
     <row r="159" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="20"/>
       <c r="B159" s="5"/>
-      <c r="D159" s="33"/>
+      <c r="D159" s="37"/>
       <c r="E159" s="7">
         <v>9</v>
       </c>
@@ -4664,7 +5239,7 @@
     <row r="160" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="20"/>
       <c r="B160" s="5"/>
-      <c r="D160" s="33"/>
+      <c r="D160" s="37"/>
       <c r="E160" s="7">
         <v>10</v>
       </c>
@@ -4707,7 +5282,7 @@
       <c r="C163" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D163" s="33" t="s">
+      <c r="D163" s="37" t="s">
         <v>147</v>
       </c>
       <c r="E163" s="7">
@@ -4727,7 +5302,7 @@
     <row r="164" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="20"/>
       <c r="B164" s="5"/>
-      <c r="D164" s="33"/>
+      <c r="D164" s="37"/>
       <c r="E164" s="7">
         <v>2</v>
       </c>
@@ -4745,7 +5320,7 @@
     <row r="165" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="20"/>
       <c r="B165" s="5"/>
-      <c r="D165" s="33"/>
+      <c r="D165" s="37"/>
       <c r="E165" s="7">
         <v>3</v>
       </c>
@@ -4761,7 +5336,7 @@
     <row r="166" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="20"/>
       <c r="B166" s="5"/>
-      <c r="D166" s="33"/>
+      <c r="D166" s="37"/>
       <c r="E166" s="7">
         <v>4</v>
       </c>
@@ -4777,7 +5352,7 @@
     <row r="167" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="20"/>
       <c r="B167" s="5"/>
-      <c r="D167" s="33"/>
+      <c r="D167" s="37"/>
       <c r="E167" s="7">
         <v>5</v>
       </c>
@@ -4793,7 +5368,7 @@
     <row r="168" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="20"/>
       <c r="B168" s="5"/>
-      <c r="D168" s="33"/>
+      <c r="D168" s="37"/>
       <c r="E168" s="7">
         <v>6</v>
       </c>
@@ -4811,7 +5386,7 @@
     <row r="169" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A169" s="20"/>
       <c r="B169" s="5"/>
-      <c r="D169" s="33"/>
+      <c r="D169" s="37"/>
       <c r="E169" s="7">
         <v>7</v>
       </c>
@@ -4827,7 +5402,7 @@
     <row r="170" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="20"/>
       <c r="B170" s="5"/>
-      <c r="D170" s="33"/>
+      <c r="D170" s="37"/>
       <c r="E170" s="7">
         <v>8</v>
       </c>
@@ -4843,7 +5418,7 @@
     <row r="171" spans="1:11" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A171" s="20"/>
       <c r="B171" s="5"/>
-      <c r="D171" s="33"/>
+      <c r="D171" s="37"/>
       <c r="E171" s="7">
         <v>9</v>
       </c>
@@ -4861,7 +5436,7 @@
     <row r="172" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="20"/>
       <c r="B172" s="5"/>
-      <c r="D172" s="33"/>
+      <c r="D172" s="37"/>
       <c r="E172" s="7">
         <v>10</v>
       </c>
@@ -4877,7 +5452,7 @@
     <row r="173" spans="1:11" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A173" s="20"/>
       <c r="B173" s="5"/>
-      <c r="D173" s="33"/>
+      <c r="D173" s="37"/>
       <c r="E173" s="7">
         <v>11</v>
       </c>
@@ -4893,7 +5468,7 @@
     <row r="174" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="20"/>
       <c r="B174" s="5"/>
-      <c r="D174" s="33"/>
+      <c r="D174" s="37"/>
       <c r="E174" s="7">
         <v>12</v>
       </c>
@@ -4909,7 +5484,7 @@
     <row r="175" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="20"/>
       <c r="B175" s="5"/>
-      <c r="D175" s="33"/>
+      <c r="D175" s="37"/>
       <c r="E175" s="7">
         <v>13</v>
       </c>
@@ -4925,7 +5500,7 @@
     <row r="176" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="20"/>
       <c r="B176" s="5"/>
-      <c r="D176" s="33"/>
+      <c r="D176" s="37"/>
       <c r="E176" s="7">
         <v>14</v>
       </c>
@@ -4941,7 +5516,7 @@
     <row r="177" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A177" s="20"/>
       <c r="B177" s="5"/>
-      <c r="D177" s="33"/>
+      <c r="D177" s="37"/>
       <c r="E177" s="7">
         <v>15</v>
       </c>
@@ -4959,7 +5534,7 @@
     <row r="178" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="20"/>
       <c r="B178" s="5"/>
-      <c r="D178" s="33"/>
+      <c r="D178" s="37"/>
       <c r="E178" s="7">
         <v>16</v>
       </c>
@@ -4975,7 +5550,7 @@
     <row r="179" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="20"/>
       <c r="B179" s="5"/>
-      <c r="D179" s="33"/>
+      <c r="D179" s="37"/>
       <c r="E179" s="7">
         <v>17</v>
       </c>
@@ -4993,7 +5568,7 @@
     <row r="180" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="20"/>
       <c r="B180" s="5"/>
-      <c r="D180" s="33"/>
+      <c r="D180" s="37"/>
       <c r="E180" s="7">
         <v>18</v>
       </c>
@@ -5011,7 +5586,7 @@
     <row r="181" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="20"/>
       <c r="B181" s="5"/>
-      <c r="D181" s="33"/>
+      <c r="D181" s="37"/>
       <c r="E181" s="7">
         <v>19</v>
       </c>
@@ -5027,7 +5602,7 @@
     <row r="182" spans="1:11" s="6" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A182" s="20"/>
       <c r="B182" s="5"/>
-      <c r="D182" s="33"/>
+      <c r="D182" s="37"/>
       <c r="E182" s="7">
         <v>20</v>
       </c>
@@ -5045,7 +5620,7 @@
     <row r="183" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="20"/>
       <c r="B183" s="5"/>
-      <c r="D183" s="33"/>
+      <c r="D183" s="37"/>
       <c r="E183" s="7">
         <v>21</v>
       </c>
@@ -5061,7 +5636,7 @@
     <row r="184" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="20"/>
       <c r="B184" s="5"/>
-      <c r="D184" s="33"/>
+      <c r="D184" s="37"/>
       <c r="E184" s="7">
         <v>22</v>
       </c>
@@ -5077,7 +5652,7 @@
     <row r="185" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="20"/>
       <c r="B185" s="5"/>
-      <c r="D185" s="33"/>
+      <c r="D185" s="37"/>
       <c r="E185" s="7">
         <v>23</v>
       </c>
@@ -5093,7 +5668,7 @@
     <row r="186" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="20"/>
       <c r="B186" s="31"/>
-      <c r="D186" s="33"/>
+      <c r="D186" s="37"/>
       <c r="E186" s="7">
         <v>24</v>
       </c>
@@ -5109,7 +5684,7 @@
     <row r="187" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="20"/>
       <c r="B187" s="31"/>
-      <c r="D187" s="33"/>
+      <c r="D187" s="37"/>
       <c r="E187" s="7">
         <v>25</v>
       </c>
@@ -5125,7 +5700,7 @@
     <row r="188" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="20"/>
       <c r="B188" s="5"/>
-      <c r="D188" s="33"/>
+      <c r="D188" s="37"/>
       <c r="E188" s="7">
         <v>26</v>
       </c>
@@ -5141,7 +5716,7 @@
     <row r="189" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="20"/>
       <c r="B189" s="5"/>
-      <c r="D189" s="33"/>
+      <c r="D189" s="37"/>
       <c r="E189" s="7">
         <v>27</v>
       </c>
@@ -5157,7 +5732,7 @@
     <row r="190" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="20"/>
       <c r="B190" s="5"/>
-      <c r="D190" s="33"/>
+      <c r="D190" s="37"/>
       <c r="E190" s="7">
         <v>28</v>
       </c>
@@ -5173,7 +5748,7 @@
     <row r="191" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="20"/>
       <c r="B191" s="5"/>
-      <c r="D191" s="33"/>
+      <c r="D191" s="37"/>
       <c r="E191" s="7">
         <v>29</v>
       </c>
@@ -5189,7 +5764,7 @@
     <row r="192" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="20"/>
       <c r="B192" s="5"/>
-      <c r="D192" s="33"/>
+      <c r="D192" s="37"/>
       <c r="E192" s="7">
         <v>30</v>
       </c>
@@ -5205,7 +5780,7 @@
     <row r="193" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="20"/>
       <c r="B193" s="5"/>
-      <c r="D193" s="33"/>
+      <c r="D193" s="37"/>
       <c r="E193" s="7">
         <v>31</v>
       </c>
@@ -5221,7 +5796,7 @@
     <row r="194" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="20"/>
       <c r="B194" s="5"/>
-      <c r="D194" s="33"/>
+      <c r="D194" s="37"/>
       <c r="E194" s="7">
         <v>32</v>
       </c>
@@ -5264,7 +5839,7 @@
       <c r="C197" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D197" s="33" t="s">
+      <c r="D197" s="37" t="s">
         <v>180</v>
       </c>
       <c r="E197" s="7">
@@ -5284,7 +5859,7 @@
     <row r="198" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="20"/>
       <c r="B198" s="5"/>
-      <c r="D198" s="33"/>
+      <c r="D198" s="37"/>
       <c r="E198" s="7">
         <v>2</v>
       </c>
@@ -5302,7 +5877,7 @@
     <row r="199" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="20"/>
       <c r="B199" s="5"/>
-      <c r="D199" s="33"/>
+      <c r="D199" s="37"/>
       <c r="E199" s="7">
         <v>3</v>
       </c>
@@ -5318,7 +5893,7 @@
     <row r="200" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="20"/>
       <c r="B200" s="5"/>
-      <c r="D200" s="33"/>
+      <c r="D200" s="37"/>
       <c r="E200" s="7">
         <v>4</v>
       </c>
@@ -5334,7 +5909,7 @@
     <row r="201" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="20"/>
       <c r="B201" s="5"/>
-      <c r="D201" s="33"/>
+      <c r="D201" s="37"/>
       <c r="E201" s="7">
         <v>5</v>
       </c>
@@ -5350,7 +5925,7 @@
     <row r="202" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="20"/>
       <c r="B202" s="5"/>
-      <c r="D202" s="33"/>
+      <c r="D202" s="37"/>
       <c r="E202" s="7">
         <v>6</v>
       </c>
@@ -5366,7 +5941,7 @@
     <row r="203" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="20"/>
       <c r="B203" s="5"/>
-      <c r="D203" s="33"/>
+      <c r="D203" s="37"/>
       <c r="E203" s="7">
         <v>7</v>
       </c>
@@ -5382,7 +5957,7 @@
     <row r="204" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="20"/>
       <c r="B204" s="5"/>
-      <c r="D204" s="33"/>
+      <c r="D204" s="37"/>
       <c r="E204" s="7">
         <v>8</v>
       </c>
@@ -5398,7 +5973,7 @@
     <row r="205" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="20"/>
       <c r="B205" s="5"/>
-      <c r="D205" s="33"/>
+      <c r="D205" s="37"/>
       <c r="E205" s="7">
         <v>9</v>
       </c>
@@ -5451,7 +6026,7 @@
       <c r="C209" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D209" s="33" t="s">
+      <c r="D209" s="37" t="s">
         <v>190</v>
       </c>
       <c r="E209" s="7">
@@ -5471,7 +6046,7 @@
     <row r="210" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="20"/>
       <c r="B210" s="5"/>
-      <c r="D210" s="33"/>
+      <c r="D210" s="37"/>
       <c r="E210" s="7">
         <v>2</v>
       </c>
@@ -5489,7 +6064,7 @@
     <row r="211" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="20"/>
       <c r="B211" s="5"/>
-      <c r="D211" s="33"/>
+      <c r="D211" s="37"/>
       <c r="E211" s="7">
         <v>3</v>
       </c>
@@ -5505,7 +6080,7 @@
     <row r="212" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="20"/>
       <c r="B212" s="5"/>
-      <c r="D212" s="33"/>
+      <c r="D212" s="37"/>
       <c r="E212" s="7">
         <v>4</v>
       </c>
@@ -5521,7 +6096,7 @@
     <row r="213" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="20"/>
       <c r="B213" s="5"/>
-      <c r="D213" s="33"/>
+      <c r="D213" s="37"/>
       <c r="E213" s="7">
         <v>5</v>
       </c>
@@ -5537,7 +6112,7 @@
     <row r="214" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="20"/>
       <c r="B214" s="5"/>
-      <c r="D214" s="33"/>
+      <c r="D214" s="37"/>
       <c r="E214" s="7">
         <v>6</v>
       </c>
@@ -5555,7 +6130,7 @@
     <row r="215" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A215" s="20"/>
       <c r="B215" s="5"/>
-      <c r="D215" s="33"/>
+      <c r="D215" s="37"/>
       <c r="E215" s="7">
         <v>7</v>
       </c>
@@ -5571,7 +6146,7 @@
     <row r="216" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="20"/>
       <c r="B216" s="5"/>
-      <c r="D216" s="33"/>
+      <c r="D216" s="37"/>
       <c r="E216" s="7">
         <v>8</v>
       </c>
@@ -5587,7 +6162,7 @@
     <row r="217" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="20"/>
       <c r="B217" s="5"/>
-      <c r="D217" s="33"/>
+      <c r="D217" s="37"/>
       <c r="E217" s="7">
         <v>9</v>
       </c>
@@ -5603,7 +6178,7 @@
     <row r="218" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="20"/>
       <c r="B218" s="5"/>
-      <c r="D218" s="33"/>
+      <c r="D218" s="37"/>
       <c r="E218" s="7">
         <v>10</v>
       </c>
@@ -5658,7 +6233,7 @@
       <c r="C222" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D222" s="33" t="s">
+      <c r="D222" s="37" t="s">
         <v>198</v>
       </c>
       <c r="E222" s="7">
@@ -5678,7 +6253,7 @@
     <row r="223" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="20"/>
       <c r="B223" s="5"/>
-      <c r="D223" s="33"/>
+      <c r="D223" s="37"/>
       <c r="E223" s="7">
         <v>2</v>
       </c>
@@ -5696,7 +6271,7 @@
     <row r="224" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="20"/>
       <c r="B224" s="5"/>
-      <c r="D224" s="33"/>
+      <c r="D224" s="37"/>
       <c r="E224" s="7">
         <v>3</v>
       </c>
@@ -5712,7 +6287,7 @@
     <row r="225" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="20"/>
       <c r="B225" s="5"/>
-      <c r="D225" s="33"/>
+      <c r="D225" s="37"/>
       <c r="E225" s="7">
         <v>4</v>
       </c>
@@ -5728,7 +6303,7 @@
     <row r="226" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="20"/>
       <c r="B226" s="5"/>
-      <c r="D226" s="33"/>
+      <c r="D226" s="37"/>
       <c r="E226" s="7">
         <v>5</v>
       </c>
@@ -5744,7 +6319,7 @@
     <row r="227" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="20"/>
       <c r="B227" s="5"/>
-      <c r="D227" s="33"/>
+      <c r="D227" s="37"/>
       <c r="E227" s="7">
         <v>6</v>
       </c>
@@ -5762,7 +6337,7 @@
     <row r="228" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A228" s="20"/>
       <c r="B228" s="5"/>
-      <c r="D228" s="33"/>
+      <c r="D228" s="37"/>
       <c r="E228" s="7">
         <v>7</v>
       </c>
@@ -5778,7 +6353,7 @@
     <row r="229" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="20"/>
       <c r="B229" s="5"/>
-      <c r="D229" s="33"/>
+      <c r="D229" s="37"/>
       <c r="E229" s="7">
         <v>8</v>
       </c>
@@ -5794,7 +6369,7 @@
     <row r="230" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="20"/>
       <c r="B230" s="5"/>
-      <c r="D230" s="33"/>
+      <c r="D230" s="37"/>
       <c r="E230" s="7">
         <v>9</v>
       </c>
@@ -5810,7 +6385,7 @@
     <row r="231" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="20"/>
       <c r="B231" s="5"/>
-      <c r="D231" s="33"/>
+      <c r="D231" s="37"/>
       <c r="E231" s="7">
         <v>10</v>
       </c>
@@ -5853,7 +6428,7 @@
       <c r="C234" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D234" s="33" t="s">
+      <c r="D234" s="37" t="s">
         <v>203</v>
       </c>
       <c r="E234" s="7">
@@ -5873,7 +6448,7 @@
     <row r="235" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="20"/>
       <c r="B235" s="5"/>
-      <c r="D235" s="33"/>
+      <c r="D235" s="37"/>
       <c r="E235" s="7">
         <v>2</v>
       </c>
@@ -5891,7 +6466,7 @@
     <row r="236" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="20"/>
       <c r="B236" s="5"/>
-      <c r="D236" s="33"/>
+      <c r="D236" s="37"/>
       <c r="E236" s="7">
         <v>3</v>
       </c>
@@ -5907,7 +6482,7 @@
     <row r="237" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="20"/>
       <c r="B237" s="5"/>
-      <c r="D237" s="33"/>
+      <c r="D237" s="37"/>
       <c r="E237" s="7">
         <v>4</v>
       </c>
@@ -5923,7 +6498,7 @@
     <row r="238" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="20"/>
       <c r="B238" s="5"/>
-      <c r="D238" s="33"/>
+      <c r="D238" s="37"/>
       <c r="E238" s="7">
         <v>5</v>
       </c>
@@ -5939,7 +6514,7 @@
     <row r="239" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="20"/>
       <c r="B239" s="5"/>
-      <c r="D239" s="33"/>
+      <c r="D239" s="37"/>
       <c r="E239" s="7">
         <v>6</v>
       </c>
@@ -5957,7 +6532,7 @@
     <row r="240" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A240" s="20"/>
       <c r="B240" s="5"/>
-      <c r="D240" s="33"/>
+      <c r="D240" s="37"/>
       <c r="E240" s="7">
         <v>7</v>
       </c>
@@ -5973,7 +6548,7 @@
     <row r="241" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="20"/>
       <c r="B241" s="5"/>
-      <c r="D241" s="33"/>
+      <c r="D241" s="37"/>
       <c r="E241" s="7">
         <v>8</v>
       </c>
@@ -5989,7 +6564,7 @@
     <row r="242" spans="1:11" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A242" s="20"/>
       <c r="B242" s="5"/>
-      <c r="D242" s="33"/>
+      <c r="D242" s="37"/>
       <c r="E242" s="7">
         <v>9</v>
       </c>
@@ -6007,7 +6582,7 @@
     <row r="243" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="20"/>
       <c r="B243" s="5"/>
-      <c r="D243" s="33"/>
+      <c r="D243" s="37"/>
       <c r="E243" s="7">
         <v>10</v>
       </c>
@@ -6023,7 +6598,7 @@
     <row r="244" spans="1:11" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A244" s="20"/>
       <c r="B244" s="5"/>
-      <c r="D244" s="33"/>
+      <c r="D244" s="37"/>
       <c r="E244" s="7">
         <v>11</v>
       </c>
@@ -6039,7 +6614,7 @@
     <row r="245" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="20"/>
       <c r="B245" s="5"/>
-      <c r="D245" s="33"/>
+      <c r="D245" s="37"/>
       <c r="E245" s="7">
         <v>12</v>
       </c>
@@ -6055,7 +6630,7 @@
     <row r="246" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="20"/>
       <c r="B246" s="5"/>
-      <c r="D246" s="33"/>
+      <c r="D246" s="37"/>
       <c r="E246" s="7">
         <v>13</v>
       </c>
@@ -6071,7 +6646,7 @@
     <row r="247" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="20"/>
       <c r="B247" s="5"/>
-      <c r="D247" s="33"/>
+      <c r="D247" s="37"/>
       <c r="E247" s="7">
         <v>14</v>
       </c>
@@ -6087,7 +6662,7 @@
     <row r="248" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="20"/>
       <c r="B248" s="5"/>
-      <c r="D248" s="33"/>
+      <c r="D248" s="37"/>
       <c r="E248" s="7">
         <v>15</v>
       </c>
@@ -6103,7 +6678,7 @@
     <row r="249" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A249" s="20"/>
       <c r="B249" s="5"/>
-      <c r="D249" s="33"/>
+      <c r="D249" s="37"/>
       <c r="E249" s="7">
         <v>16</v>
       </c>
@@ -6146,7 +6721,7 @@
       <c r="C252" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D252" s="33" t="s">
+      <c r="D252" s="37" t="s">
         <v>204</v>
       </c>
       <c r="E252" s="7">
@@ -6166,7 +6741,7 @@
     <row r="253" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="20"/>
       <c r="B253" s="5"/>
-      <c r="D253" s="33"/>
+      <c r="D253" s="37"/>
       <c r="E253" s="7">
         <v>2</v>
       </c>
@@ -6184,7 +6759,7 @@
     <row r="254" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="20"/>
       <c r="B254" s="5"/>
-      <c r="D254" s="33"/>
+      <c r="D254" s="37"/>
       <c r="E254" s="7">
         <v>3</v>
       </c>
@@ -6200,7 +6775,7 @@
     <row r="255" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="20"/>
       <c r="B255" s="5"/>
-      <c r="D255" s="33"/>
+      <c r="D255" s="37"/>
       <c r="E255" s="7">
         <v>4</v>
       </c>
@@ -6216,7 +6791,7 @@
     <row r="256" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="20"/>
       <c r="B256" s="5"/>
-      <c r="D256" s="33"/>
+      <c r="D256" s="37"/>
       <c r="E256" s="7">
         <v>5</v>
       </c>
@@ -6232,7 +6807,7 @@
     <row r="257" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="20"/>
       <c r="B257" s="5"/>
-      <c r="D257" s="33"/>
+      <c r="D257" s="37"/>
       <c r="E257" s="7">
         <v>6</v>
       </c>
@@ -6250,7 +6825,7 @@
     <row r="258" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A258" s="20"/>
       <c r="B258" s="5"/>
-      <c r="D258" s="33"/>
+      <c r="D258" s="37"/>
       <c r="E258" s="7">
         <v>7</v>
       </c>
@@ -6266,7 +6841,7 @@
     <row r="259" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A259" s="20"/>
       <c r="B259" s="5"/>
-      <c r="D259" s="33"/>
+      <c r="D259" s="37"/>
       <c r="E259" s="7">
         <v>8</v>
       </c>
@@ -6282,7 +6857,7 @@
     <row r="260" spans="1:11" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A260" s="20"/>
       <c r="B260" s="5"/>
-      <c r="D260" s="33"/>
+      <c r="D260" s="37"/>
       <c r="E260" s="7">
         <v>9</v>
       </c>
@@ -6300,7 +6875,7 @@
     <row r="261" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="20"/>
       <c r="B261" s="5"/>
-      <c r="D261" s="33"/>
+      <c r="D261" s="37"/>
       <c r="E261" s="7">
         <v>10</v>
       </c>
@@ -6316,7 +6891,7 @@
     <row r="262" spans="1:11" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A262" s="20"/>
       <c r="B262" s="5"/>
-      <c r="D262" s="33"/>
+      <c r="D262" s="37"/>
       <c r="E262" s="7">
         <v>11</v>
       </c>
@@ -6332,7 +6907,7 @@
     <row r="263" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="20"/>
       <c r="B263" s="5"/>
-      <c r="D263" s="33"/>
+      <c r="D263" s="37"/>
       <c r="E263" s="7">
         <v>12</v>
       </c>
@@ -6348,7 +6923,7 @@
     <row r="264" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="20"/>
       <c r="B264" s="5"/>
-      <c r="D264" s="33"/>
+      <c r="D264" s="37"/>
       <c r="E264" s="7">
         <v>13</v>
       </c>
@@ -6364,7 +6939,7 @@
     <row r="265" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="20"/>
       <c r="B265" s="5"/>
-      <c r="D265" s="33"/>
+      <c r="D265" s="37"/>
       <c r="E265" s="7">
         <v>14</v>
       </c>
@@ -6382,7 +6957,7 @@
     <row r="266" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="20"/>
       <c r="B266" s="5"/>
-      <c r="D266" s="33"/>
+      <c r="D266" s="37"/>
       <c r="E266" s="7">
         <v>15</v>
       </c>
@@ -6398,7 +6973,7 @@
     <row r="267" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="20"/>
       <c r="B267" s="5"/>
-      <c r="D267" s="33"/>
+      <c r="D267" s="37"/>
       <c r="E267" s="7">
         <v>16</v>
       </c>
@@ -6414,7 +6989,7 @@
     <row r="268" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="20"/>
       <c r="B268" s="5"/>
-      <c r="D268" s="33"/>
+      <c r="D268" s="37"/>
       <c r="E268" s="7">
         <v>17</v>
       </c>
@@ -6430,7 +7005,7 @@
     <row r="269" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A269" s="20"/>
       <c r="B269" s="5"/>
-      <c r="D269" s="33"/>
+      <c r="D269" s="37"/>
       <c r="E269" s="7">
         <v>18</v>
       </c>
@@ -6446,7 +7021,7 @@
     <row r="270" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="20"/>
       <c r="B270" s="5"/>
-      <c r="D270" s="33"/>
+      <c r="D270" s="37"/>
       <c r="E270" s="7">
         <v>19</v>
       </c>
@@ -6489,7 +7064,7 @@
       <c r="C273" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D273" s="33" t="s">
+      <c r="D273" s="37" t="s">
         <v>205</v>
       </c>
       <c r="E273" s="7">
@@ -6509,7 +7084,7 @@
     <row r="274" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="20"/>
       <c r="B274" s="5"/>
-      <c r="D274" s="33"/>
+      <c r="D274" s="37"/>
       <c r="E274" s="7">
         <v>2</v>
       </c>
@@ -6527,7 +7102,7 @@
     <row r="275" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="20"/>
       <c r="B275" s="5"/>
-      <c r="D275" s="33"/>
+      <c r="D275" s="37"/>
       <c r="E275" s="7">
         <v>3</v>
       </c>
@@ -6543,7 +7118,7 @@
     <row r="276" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="20"/>
       <c r="B276" s="5"/>
-      <c r="D276" s="33"/>
+      <c r="D276" s="37"/>
       <c r="E276" s="7">
         <v>4</v>
       </c>
@@ -6559,7 +7134,7 @@
     <row r="277" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="20"/>
       <c r="B277" s="5"/>
-      <c r="D277" s="33"/>
+      <c r="D277" s="37"/>
       <c r="E277" s="7">
         <v>5</v>
       </c>
@@ -6575,7 +7150,7 @@
     <row r="278" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="20"/>
       <c r="B278" s="5"/>
-      <c r="D278" s="33"/>
+      <c r="D278" s="37"/>
       <c r="E278" s="7">
         <v>6</v>
       </c>
@@ -6593,7 +7168,7 @@
     <row r="279" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A279" s="20"/>
       <c r="B279" s="5"/>
-      <c r="D279" s="33"/>
+      <c r="D279" s="37"/>
       <c r="E279" s="7">
         <v>7</v>
       </c>
@@ -6609,7 +7184,7 @@
     <row r="280" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A280" s="20"/>
       <c r="B280" s="5"/>
-      <c r="D280" s="33"/>
+      <c r="D280" s="37"/>
       <c r="E280" s="7">
         <v>8</v>
       </c>
@@ -6625,7 +7200,7 @@
     <row r="281" spans="1:11" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A281" s="20"/>
       <c r="B281" s="5"/>
-      <c r="D281" s="33"/>
+      <c r="D281" s="37"/>
       <c r="E281" s="7">
         <v>9</v>
       </c>
@@ -6643,7 +7218,7 @@
     <row r="282" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="20"/>
       <c r="B282" s="5"/>
-      <c r="D282" s="33"/>
+      <c r="D282" s="37"/>
       <c r="E282" s="7">
         <v>10</v>
       </c>
@@ -6659,7 +7234,7 @@
     <row r="283" spans="1:11" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A283" s="20"/>
       <c r="B283" s="5"/>
-      <c r="D283" s="33"/>
+      <c r="D283" s="37"/>
       <c r="E283" s="7">
         <v>11</v>
       </c>
@@ -6675,7 +7250,7 @@
     <row r="284" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A284" s="20"/>
       <c r="B284" s="5"/>
-      <c r="D284" s="33"/>
+      <c r="D284" s="37"/>
       <c r="E284" s="7">
         <v>12</v>
       </c>
@@ -6691,7 +7266,7 @@
     <row r="285" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="20"/>
       <c r="B285" s="5"/>
-      <c r="D285" s="33"/>
+      <c r="D285" s="37"/>
       <c r="E285" s="7">
         <v>13</v>
       </c>
@@ -6707,7 +7282,7 @@
     <row r="286" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="20"/>
       <c r="B286" s="5"/>
-      <c r="D286" s="33"/>
+      <c r="D286" s="37"/>
       <c r="E286" s="7">
         <v>14</v>
       </c>
@@ -6725,7 +7300,7 @@
     <row r="287" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="20"/>
       <c r="B287" s="5"/>
-      <c r="D287" s="33"/>
+      <c r="D287" s="37"/>
       <c r="E287" s="7">
         <v>15</v>
       </c>
@@ -6741,7 +7316,7 @@
     <row r="288" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="20"/>
       <c r="B288" s="5"/>
-      <c r="D288" s="33"/>
+      <c r="D288" s="37"/>
       <c r="E288" s="7">
         <v>16</v>
       </c>
@@ -6794,7 +7369,7 @@
       <c r="C292" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D292" s="33" t="s">
+      <c r="D292" s="37" t="s">
         <v>210</v>
       </c>
       <c r="E292" s="7">
@@ -6814,7 +7389,7 @@
     <row r="293" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="20"/>
       <c r="B293" s="5"/>
-      <c r="D293" s="33"/>
+      <c r="D293" s="37"/>
       <c r="E293" s="7">
         <v>2</v>
       </c>
@@ -6832,7 +7407,7 @@
     <row r="294" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="20"/>
       <c r="B294" s="5"/>
-      <c r="D294" s="33"/>
+      <c r="D294" s="37"/>
       <c r="E294" s="7">
         <v>3</v>
       </c>
@@ -6848,7 +7423,7 @@
     <row r="295" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="20"/>
       <c r="B295" s="5"/>
-      <c r="D295" s="33"/>
+      <c r="D295" s="37"/>
       <c r="E295" s="7">
         <v>4</v>
       </c>
@@ -6864,7 +7439,7 @@
     <row r="296" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="20"/>
       <c r="B296" s="5"/>
-      <c r="D296" s="33"/>
+      <c r="D296" s="37"/>
       <c r="E296" s="7">
         <v>5</v>
       </c>
@@ -6880,7 +7455,7 @@
     <row r="297" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="20"/>
       <c r="B297" s="5"/>
-      <c r="D297" s="33"/>
+      <c r="D297" s="37"/>
       <c r="E297" s="7">
         <v>6</v>
       </c>
@@ -6898,7 +7473,7 @@
     <row r="298" spans="1:11" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A298" s="20"/>
       <c r="B298" s="5"/>
-      <c r="D298" s="33"/>
+      <c r="D298" s="37"/>
       <c r="E298" s="7">
         <v>7</v>
       </c>
@@ -6914,7 +7489,7 @@
     <row r="299" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A299" s="20"/>
       <c r="B299" s="5"/>
-      <c r="D299" s="33"/>
+      <c r="D299" s="37"/>
       <c r="E299" s="7">
         <v>8</v>
       </c>
@@ -6930,7 +7505,7 @@
     <row r="300" spans="1:11" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A300" s="20"/>
       <c r="B300" s="5"/>
-      <c r="D300" s="33"/>
+      <c r="D300" s="37"/>
       <c r="E300" s="7">
         <v>9</v>
       </c>
@@ -6948,7 +7523,7 @@
     <row r="301" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="20"/>
       <c r="B301" s="5"/>
-      <c r="D301" s="33"/>
+      <c r="D301" s="37"/>
       <c r="E301" s="7">
         <v>10</v>
       </c>
@@ -6964,7 +7539,7 @@
     <row r="302" spans="1:11" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A302" s="20"/>
       <c r="B302" s="5"/>
-      <c r="D302" s="33"/>
+      <c r="D302" s="37"/>
       <c r="E302" s="7">
         <v>11</v>
       </c>
@@ -6980,7 +7555,7 @@
     <row r="303" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" s="20"/>
       <c r="B303" s="5"/>
-      <c r="D303" s="33"/>
+      <c r="D303" s="37"/>
       <c r="E303" s="7">
         <v>12</v>
       </c>
@@ -6996,7 +7571,7 @@
     <row r="304" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A304" s="20"/>
       <c r="B304" s="5"/>
-      <c r="D304" s="33"/>
+      <c r="D304" s="37"/>
       <c r="E304" s="7">
         <v>13</v>
       </c>
@@ -7039,7 +7614,7 @@
       <c r="C307" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D307" s="33" t="s">
+      <c r="D307" s="37" t="s">
         <v>261</v>
       </c>
       <c r="E307" s="7">
@@ -7059,7 +7634,7 @@
     <row r="308" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="20"/>
       <c r="B308" s="5"/>
-      <c r="D308" s="33"/>
+      <c r="D308" s="37"/>
       <c r="E308" s="7">
         <v>2</v>
       </c>
@@ -7077,7 +7652,7 @@
     <row r="309" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="20"/>
       <c r="B309" s="5"/>
-      <c r="D309" s="33"/>
+      <c r="D309" s="37"/>
       <c r="E309" s="7">
         <v>3</v>
       </c>
@@ -7093,7 +7668,7 @@
     <row r="310" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="20"/>
       <c r="B310" s="5"/>
-      <c r="D310" s="33"/>
+      <c r="D310" s="37"/>
       <c r="E310" s="7">
         <v>4</v>
       </c>
@@ -7109,7 +7684,7 @@
     <row r="311" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="20"/>
       <c r="B311" s="5"/>
-      <c r="D311" s="33"/>
+      <c r="D311" s="37"/>
       <c r="E311" s="7">
         <v>5</v>
       </c>
@@ -7125,7 +7700,7 @@
     <row r="312" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="20"/>
       <c r="B312" s="5"/>
-      <c r="D312" s="33"/>
+      <c r="D312" s="37"/>
       <c r="E312" s="7">
         <v>6</v>
       </c>
@@ -7143,7 +7718,7 @@
     <row r="313" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A313" s="20"/>
       <c r="B313" s="5"/>
-      <c r="D313" s="33"/>
+      <c r="D313" s="37"/>
       <c r="E313" s="7">
         <v>7</v>
       </c>
@@ -7159,7 +7734,7 @@
     <row r="314" spans="1:11" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A314" s="20"/>
       <c r="B314" s="5"/>
-      <c r="D314" s="33"/>
+      <c r="D314" s="37"/>
       <c r="E314" s="7">
         <v>8</v>
       </c>
@@ -7175,7 +7750,7 @@
     <row r="315" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="20"/>
       <c r="B315" s="5"/>
-      <c r="D315" s="33"/>
+      <c r="D315" s="37"/>
       <c r="E315" s="7">
         <v>9</v>
       </c>
@@ -7191,7 +7766,7 @@
     <row r="316" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="20"/>
       <c r="B316" s="5"/>
-      <c r="D316" s="33"/>
+      <c r="D316" s="37"/>
       <c r="E316" s="7">
         <v>10</v>
       </c>
@@ -7207,7 +7782,7 @@
     <row r="317" spans="1:11" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A317" s="20"/>
       <c r="B317" s="5"/>
-      <c r="D317" s="33"/>
+      <c r="D317" s="37"/>
       <c r="E317" s="7">
         <v>11</v>
       </c>
@@ -7223,7 +7798,7 @@
     <row r="318" spans="1:11" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A318" s="20"/>
       <c r="B318" s="5"/>
-      <c r="D318" s="33"/>
+      <c r="D318" s="37"/>
       <c r="E318" s="7">
         <v>12</v>
       </c>
@@ -7262,11 +7837,13 @@
       <c r="A321" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="B321" s="5"/>
+      <c r="B321" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="C321" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D321" s="33" t="s">
+      <c r="D321" s="37" t="s">
         <v>260</v>
       </c>
       <c r="E321" s="7">
@@ -7286,7 +7863,7 @@
     <row r="322" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="20"/>
       <c r="B322" s="5"/>
-      <c r="D322" s="33"/>
+      <c r="D322" s="37"/>
       <c r="E322" s="7">
         <v>2</v>
       </c>
@@ -7304,7 +7881,7 @@
     <row r="323" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="20"/>
       <c r="B323" s="5"/>
-      <c r="D323" s="33"/>
+      <c r="D323" s="37"/>
       <c r="E323" s="7">
         <v>3</v>
       </c>
@@ -7320,7 +7897,7 @@
     <row r="324" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="20"/>
       <c r="B324" s="5"/>
-      <c r="D324" s="33"/>
+      <c r="D324" s="37"/>
       <c r="E324" s="7">
         <v>4</v>
       </c>
@@ -7336,7 +7913,7 @@
     <row r="325" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="20"/>
       <c r="B325" s="5"/>
-      <c r="D325" s="33"/>
+      <c r="D325" s="37"/>
       <c r="E325" s="7">
         <v>5</v>
       </c>
@@ -7352,7 +7929,7 @@
     <row r="326" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="20"/>
       <c r="B326" s="5"/>
-      <c r="D326" s="33"/>
+      <c r="D326" s="37"/>
       <c r="E326" s="7">
         <v>6</v>
       </c>
@@ -7370,7 +7947,7 @@
     <row r="327" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="20"/>
       <c r="B327" s="5"/>
-      <c r="D327" s="33"/>
+      <c r="D327" s="37"/>
       <c r="E327" s="7">
         <v>7</v>
       </c>
@@ -7386,7 +7963,7 @@
     <row r="328" spans="1:11" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A328" s="20"/>
       <c r="B328" s="5"/>
-      <c r="D328" s="33"/>
+      <c r="D328" s="37"/>
       <c r="E328" s="7">
         <v>8</v>
       </c>
@@ -7402,7 +7979,7 @@
     <row r="329" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="20"/>
       <c r="B329" s="5"/>
-      <c r="D329" s="33"/>
+      <c r="D329" s="37"/>
       <c r="E329" s="7">
         <v>9</v>
       </c>
@@ -7418,7 +7995,7 @@
     <row r="330" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" s="20"/>
       <c r="B330" s="5"/>
-      <c r="D330" s="33"/>
+      <c r="D330" s="37"/>
       <c r="E330" s="7">
         <v>10</v>
       </c>
@@ -7434,7 +8011,7 @@
     <row r="331" spans="1:11" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A331" s="20"/>
       <c r="B331" s="5"/>
-      <c r="D331" s="33"/>
+      <c r="D331" s="37"/>
       <c r="E331" s="7">
         <v>11</v>
       </c>
@@ -7450,7 +8027,7 @@
     <row r="332" spans="1:11" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A332" s="20"/>
       <c r="B332" s="5"/>
-      <c r="D332" s="33"/>
+      <c r="D332" s="37"/>
       <c r="E332" s="7">
         <v>12</v>
       </c>
@@ -7466,7 +8043,7 @@
     <row r="333" spans="1:11" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A333" s="20"/>
       <c r="B333" s="5"/>
-      <c r="D333" s="33"/>
+      <c r="D333" s="37"/>
       <c r="E333" s="7">
         <v>13</v>
       </c>
@@ -7513,8 +8090,13 @@
       <c r="A337" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="B337" s="5"/>
-      <c r="D337" s="33" t="s">
+      <c r="B337" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D337" s="37" t="s">
         <v>259</v>
       </c>
       <c r="E337" s="7">
@@ -7533,7 +8115,7 @@
     </row>
     <row r="338" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B338" s="5"/>
-      <c r="D338" s="33"/>
+      <c r="D338" s="37"/>
       <c r="E338" s="7">
         <v>2</v>
       </c>
@@ -7551,7 +8133,7 @@
     </row>
     <row r="339" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B339" s="5"/>
-      <c r="D339" s="33"/>
+      <c r="D339" s="37"/>
       <c r="E339" s="7">
         <v>3</v>
       </c>
@@ -7566,7 +8148,7 @@
     </row>
     <row r="340" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B340" s="5"/>
-      <c r="D340" s="33"/>
+      <c r="D340" s="37"/>
       <c r="E340" s="7">
         <v>4</v>
       </c>
@@ -7581,7 +8163,7 @@
     </row>
     <row r="341" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B341" s="5"/>
-      <c r="D341" s="33"/>
+      <c r="D341" s="37"/>
       <c r="E341" s="7">
         <v>5</v>
       </c>
@@ -7596,7 +8178,7 @@
     </row>
     <row r="342" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B342" s="5"/>
-      <c r="D342" s="33"/>
+      <c r="D342" s="37"/>
       <c r="E342" s="7">
         <v>6</v>
       </c>
@@ -7614,7 +8196,7 @@
     </row>
     <row r="343" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B343" s="5"/>
-      <c r="D343" s="33"/>
+      <c r="D343" s="37"/>
       <c r="E343" s="7">
         <v>7</v>
       </c>
@@ -7629,7 +8211,7 @@
     </row>
     <row r="344" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B344" s="5"/>
-      <c r="D344" s="33"/>
+      <c r="D344" s="37"/>
       <c r="E344" s="7">
         <v>8</v>
       </c>
@@ -7644,7 +8226,7 @@
     </row>
     <row r="345" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B345" s="5"/>
-      <c r="D345" s="33"/>
+      <c r="D345" s="37"/>
       <c r="E345" s="7">
         <v>9</v>
       </c>
@@ -7659,7 +8241,7 @@
     </row>
     <row r="346" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B346" s="5"/>
-      <c r="D346" s="33"/>
+      <c r="D346" s="37"/>
       <c r="E346" s="7">
         <v>10</v>
       </c>
@@ -7674,7 +8256,7 @@
     </row>
     <row r="347" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B347" s="5"/>
-      <c r="D347" s="33"/>
+      <c r="D347" s="37"/>
       <c r="E347" s="7">
         <v>11</v>
       </c>
@@ -7689,7 +8271,7 @@
     </row>
     <row r="348" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B348" s="29"/>
-      <c r="D348" s="33"/>
+      <c r="D348" s="37"/>
       <c r="E348" s="7">
         <v>12</v>
       </c>
@@ -7704,7 +8286,7 @@
     </row>
     <row r="349" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B349" s="5"/>
-      <c r="D349" s="33"/>
+      <c r="D349" s="37"/>
       <c r="E349" s="7">
         <v>13</v>
       </c>
@@ -7719,7 +8301,7 @@
     </row>
     <row r="350" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B350" s="5"/>
-      <c r="D350" s="33"/>
+      <c r="D350" s="37"/>
       <c r="E350" s="7">
         <v>14</v>
       </c>
@@ -7734,7 +8316,7 @@
     </row>
     <row r="351" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="B351" s="5"/>
-      <c r="D351" s="33"/>
+      <c r="D351" s="37"/>
       <c r="E351" s="7">
         <v>15</v>
       </c>
@@ -7749,7 +8331,7 @@
     </row>
     <row r="352" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B352" s="5"/>
-      <c r="D352" s="33"/>
+      <c r="D352" s="37"/>
       <c r="E352" s="7">
         <v>16</v>
       </c>
@@ -7776,8 +8358,13 @@
       <c r="A355" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B355" s="5"/>
-      <c r="D355" s="33" t="s">
+      <c r="B355" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C355" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D355" s="37" t="s">
         <v>258</v>
       </c>
       <c r="E355" s="7">
@@ -7797,7 +8384,7 @@
     </row>
     <row r="356" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B356" s="5"/>
-      <c r="D356" s="33"/>
+      <c r="D356" s="37"/>
       <c r="E356" s="7">
         <v>2</v>
       </c>
@@ -7815,7 +8402,7 @@
     </row>
     <row r="357" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B357" s="5"/>
-      <c r="D357" s="33"/>
+      <c r="D357" s="37"/>
       <c r="E357" s="7">
         <v>3</v>
       </c>
@@ -7830,7 +8417,7 @@
     </row>
     <row r="358" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B358" s="5"/>
-      <c r="D358" s="33"/>
+      <c r="D358" s="37"/>
       <c r="E358" s="7">
         <v>4</v>
       </c>
@@ -7845,7 +8432,7 @@
     </row>
     <row r="359" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B359" s="5"/>
-      <c r="D359" s="33"/>
+      <c r="D359" s="37"/>
       <c r="E359" s="7">
         <v>5</v>
       </c>
@@ -7860,7 +8447,7 @@
     </row>
     <row r="360" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B360" s="5"/>
-      <c r="D360" s="33"/>
+      <c r="D360" s="37"/>
       <c r="E360" s="7">
         <v>6</v>
       </c>
@@ -7878,7 +8465,7 @@
     </row>
     <row r="361" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B361" s="5"/>
-      <c r="D361" s="33"/>
+      <c r="D361" s="37"/>
       <c r="E361" s="7">
         <v>7</v>
       </c>
@@ -7893,7 +8480,7 @@
     </row>
     <row r="362" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B362" s="5"/>
-      <c r="D362" s="33"/>
+      <c r="D362" s="37"/>
       <c r="E362" s="7">
         <v>8</v>
       </c>
@@ -7908,7 +8495,7 @@
     </row>
     <row r="363" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B363" s="5"/>
-      <c r="D363" s="33"/>
+      <c r="D363" s="37"/>
       <c r="E363" s="7">
         <v>9</v>
       </c>
@@ -7923,7 +8510,7 @@
     </row>
     <row r="364" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B364" s="5"/>
-      <c r="D364" s="33"/>
+      <c r="D364" s="37"/>
       <c r="E364" s="7">
         <v>10</v>
       </c>
@@ -7938,7 +8525,7 @@
     </row>
     <row r="365" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B365" s="5"/>
-      <c r="D365" s="33"/>
+      <c r="D365" s="37"/>
       <c r="E365" s="7">
         <v>11</v>
       </c>
@@ -7953,7 +8540,7 @@
     </row>
     <row r="366" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B366" s="5"/>
-      <c r="D366" s="33"/>
+      <c r="D366" s="37"/>
       <c r="E366" s="7">
         <v>12</v>
       </c>
@@ -7968,7 +8555,7 @@
     </row>
     <row r="367" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B367" s="5"/>
-      <c r="D367" s="33"/>
+      <c r="D367" s="37"/>
       <c r="E367" s="7">
         <v>13</v>
       </c>
@@ -7983,7 +8570,7 @@
     </row>
     <row r="368" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B368" s="5"/>
-      <c r="D368" s="33"/>
+      <c r="D368" s="37"/>
       <c r="E368" s="7">
         <v>14</v>
       </c>
@@ -7998,7 +8585,7 @@
     </row>
     <row r="369" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B369" s="5"/>
-      <c r="D369" s="33"/>
+      <c r="D369" s="37"/>
       <c r="E369" s="7">
         <v>15</v>
       </c>
@@ -8013,7 +8600,7 @@
     </row>
     <row r="370" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B370" s="5"/>
-      <c r="D370" s="33"/>
+      <c r="D370" s="37"/>
       <c r="E370" s="7">
         <v>16</v>
       </c>
@@ -8028,7 +8615,7 @@
     </row>
     <row r="371" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B371" s="5"/>
-      <c r="D371" s="33"/>
+      <c r="D371" s="37"/>
       <c r="E371" s="7">
         <v>17</v>
       </c>
@@ -8043,7 +8630,7 @@
     </row>
     <row r="372" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B372" s="5"/>
-      <c r="D372" s="33"/>
+      <c r="D372" s="37"/>
       <c r="E372" s="7">
         <v>18</v>
       </c>
@@ -8058,7 +8645,7 @@
     </row>
     <row r="373" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="B373" s="30"/>
-      <c r="D373" s="33"/>
+      <c r="D373" s="37"/>
       <c r="E373" s="7">
         <v>19</v>
       </c>
@@ -8073,7 +8660,7 @@
     </row>
     <row r="374" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B374" s="5"/>
-      <c r="D374" s="33"/>
+      <c r="D374" s="37"/>
       <c r="E374" s="7">
         <v>20</v>
       </c>
@@ -8088,7 +8675,7 @@
     </row>
     <row r="375" spans="1:11" ht="210" x14ac:dyDescent="0.25">
       <c r="B375" s="5"/>
-      <c r="D375" s="33"/>
+      <c r="D375" s="37"/>
       <c r="E375" s="7">
         <v>21</v>
       </c>
@@ -8115,8 +8702,13 @@
       <c r="A378" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B378" s="5"/>
-      <c r="D378" s="33" t="s">
+      <c r="B378" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C378" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D378" s="37" t="s">
         <v>262</v>
       </c>
       <c r="E378" s="7">
@@ -8136,7 +8728,7 @@
     </row>
     <row r="379" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B379" s="5"/>
-      <c r="D379" s="33"/>
+      <c r="D379" s="37"/>
       <c r="E379" s="7">
         <v>2</v>
       </c>
@@ -8154,7 +8746,7 @@
     </row>
     <row r="380" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B380" s="5"/>
-      <c r="D380" s="33"/>
+      <c r="D380" s="37"/>
       <c r="E380" s="7">
         <v>3</v>
       </c>
@@ -8169,7 +8761,7 @@
     </row>
     <row r="381" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B381" s="5"/>
-      <c r="D381" s="33"/>
+      <c r="D381" s="37"/>
       <c r="E381" s="7">
         <v>4</v>
       </c>
@@ -8184,7 +8776,7 @@
     </row>
     <row r="382" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B382" s="5"/>
-      <c r="D382" s="33"/>
+      <c r="D382" s="37"/>
       <c r="E382" s="7">
         <v>5</v>
       </c>
@@ -8199,7 +8791,7 @@
     </row>
     <row r="383" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B383" s="5"/>
-      <c r="D383" s="33"/>
+      <c r="D383" s="37"/>
       <c r="E383" s="7">
         <v>6</v>
       </c>
@@ -8217,7 +8809,7 @@
     </row>
     <row r="384" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B384" s="5"/>
-      <c r="D384" s="33"/>
+      <c r="D384" s="37"/>
       <c r="E384" s="7">
         <v>7</v>
       </c>
@@ -8232,7 +8824,7 @@
     </row>
     <row r="385" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B385" s="5"/>
-      <c r="D385" s="33"/>
+      <c r="D385" s="37"/>
       <c r="E385" s="7">
         <v>8</v>
       </c>
@@ -8247,7 +8839,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B386" s="5"/>
-      <c r="D386" s="33"/>
+      <c r="D386" s="37"/>
       <c r="E386" s="7">
         <v>9</v>
       </c>
@@ -8262,7 +8854,7 @@
     </row>
     <row r="387" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B387" s="5"/>
-      <c r="D387" s="33"/>
+      <c r="D387" s="37"/>
       <c r="E387" s="7">
         <v>10</v>
       </c>
@@ -8277,7 +8869,7 @@
     </row>
     <row r="388" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B388" s="5"/>
-      <c r="D388" s="33"/>
+      <c r="D388" s="37"/>
       <c r="E388" s="7">
         <v>11</v>
       </c>
@@ -8304,8 +8896,13 @@
       <c r="A391" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="B391" s="5"/>
-      <c r="D391" s="33" t="s">
+      <c r="B391" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C391" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D391" s="37" t="s">
         <v>272</v>
       </c>
       <c r="E391" s="7">
@@ -8325,7 +8922,7 @@
     </row>
     <row r="392" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B392" s="5"/>
-      <c r="D392" s="33"/>
+      <c r="D392" s="37"/>
       <c r="E392" s="7">
         <v>2</v>
       </c>
@@ -8343,7 +8940,7 @@
     </row>
     <row r="393" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B393" s="5"/>
-      <c r="D393" s="33"/>
+      <c r="D393" s="37"/>
       <c r="E393" s="7">
         <v>3</v>
       </c>
@@ -8358,7 +8955,7 @@
     </row>
     <row r="394" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B394" s="5"/>
-      <c r="D394" s="33"/>
+      <c r="D394" s="37"/>
       <c r="E394" s="7">
         <v>4</v>
       </c>
@@ -8373,7 +8970,7 @@
     </row>
     <row r="395" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B395" s="5"/>
-      <c r="D395" s="33"/>
+      <c r="D395" s="37"/>
       <c r="E395" s="7">
         <v>5</v>
       </c>
@@ -8388,7 +8985,7 @@
     </row>
     <row r="396" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B396" s="5"/>
-      <c r="D396" s="33"/>
+      <c r="D396" s="37"/>
       <c r="E396" s="7">
         <v>6</v>
       </c>
@@ -8406,7 +9003,7 @@
     </row>
     <row r="397" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B397" s="5"/>
-      <c r="D397" s="33"/>
+      <c r="D397" s="37"/>
       <c r="E397" s="7">
         <v>7</v>
       </c>
@@ -8421,7 +9018,7 @@
     </row>
     <row r="398" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B398" s="5"/>
-      <c r="D398" s="33"/>
+      <c r="D398" s="37"/>
       <c r="E398" s="7">
         <v>8</v>
       </c>
@@ -8436,7 +9033,7 @@
     </row>
     <row r="399" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B399" s="5"/>
-      <c r="D399" s="33"/>
+      <c r="D399" s="37"/>
       <c r="E399" s="7">
         <v>9</v>
       </c>
@@ -8451,7 +9048,7 @@
     </row>
     <row r="400" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B400" s="5"/>
-      <c r="D400" s="33"/>
+      <c r="D400" s="37"/>
       <c r="E400" s="7">
         <v>10</v>
       </c>
@@ -8466,7 +9063,7 @@
     </row>
     <row r="401" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B401" s="5"/>
-      <c r="D401" s="33"/>
+      <c r="D401" s="37"/>
       <c r="E401" s="7">
         <v>11</v>
       </c>
@@ -8481,7 +9078,7 @@
     </row>
     <row r="402" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B402" s="5"/>
-      <c r="D402" s="33"/>
+      <c r="D402" s="37"/>
       <c r="E402" s="7">
         <v>12</v>
       </c>
@@ -8496,7 +9093,7 @@
     </row>
     <row r="403" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B403" s="5"/>
-      <c r="D403" s="33"/>
+      <c r="D403" s="37"/>
       <c r="E403" s="7">
         <v>13</v>
       </c>
@@ -8511,7 +9108,7 @@
     </row>
     <row r="404" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B404" s="5"/>
-      <c r="D404" s="33"/>
+      <c r="D404" s="37"/>
       <c r="E404" s="7">
         <v>14</v>
       </c>
@@ -8526,7 +9123,7 @@
     </row>
     <row r="405" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B405" s="5"/>
-      <c r="D405" s="33"/>
+      <c r="D405" s="37"/>
       <c r="E405" s="7">
         <v>15</v>
       </c>
@@ -8541,7 +9138,7 @@
     </row>
     <row r="406" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B406" s="5"/>
-      <c r="D406" s="33"/>
+      <c r="D406" s="37"/>
       <c r="E406" s="7">
         <v>16</v>
       </c>
@@ -8556,7 +9153,7 @@
     </row>
     <row r="407" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B407" s="5"/>
-      <c r="D407" s="33"/>
+      <c r="D407" s="37"/>
       <c r="E407" s="7">
         <v>17</v>
       </c>
@@ -8571,7 +9168,7 @@
     </row>
     <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B408" s="5"/>
-      <c r="D408" s="33"/>
+      <c r="D408" s="37"/>
       <c r="E408" s="7">
         <v>18</v>
       </c>
@@ -8586,7 +9183,7 @@
     </row>
     <row r="409" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B409" s="5"/>
-      <c r="D409" s="33"/>
+      <c r="D409" s="37"/>
       <c r="E409" s="7">
         <v>19</v>
       </c>
@@ -8618,8 +9215,13 @@
       <c r="A413" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B413" s="5"/>
-      <c r="D413" s="33" t="s">
+      <c r="B413" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C413" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D413" s="37" t="s">
         <v>285</v>
       </c>
       <c r="E413" s="7">
@@ -8639,7 +9241,7 @@
     </row>
     <row r="414" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B414" s="5"/>
-      <c r="D414" s="33"/>
+      <c r="D414" s="37"/>
       <c r="E414" s="7">
         <v>2</v>
       </c>
@@ -8657,7 +9259,7 @@
     </row>
     <row r="415" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B415" s="5"/>
-      <c r="D415" s="33"/>
+      <c r="D415" s="37"/>
       <c r="E415" s="7">
         <v>3</v>
       </c>
@@ -8672,7 +9274,7 @@
     </row>
     <row r="416" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B416" s="5"/>
-      <c r="D416" s="33"/>
+      <c r="D416" s="37"/>
       <c r="E416" s="7">
         <v>4</v>
       </c>
@@ -8687,7 +9289,7 @@
     </row>
     <row r="417" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B417" s="5"/>
-      <c r="D417" s="33"/>
+      <c r="D417" s="37"/>
       <c r="E417" s="7">
         <v>5</v>
       </c>
@@ -8702,7 +9304,7 @@
     </row>
     <row r="418" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B418" s="5"/>
-      <c r="D418" s="33"/>
+      <c r="D418" s="37"/>
       <c r="E418" s="7">
         <v>6</v>
       </c>
@@ -8717,7 +9319,7 @@
     </row>
     <row r="419" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B419" s="5"/>
-      <c r="D419" s="33"/>
+      <c r="D419" s="37"/>
       <c r="E419" s="7">
         <v>7</v>
       </c>
@@ -8735,7 +9337,7 @@
     </row>
     <row r="420" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="B420" s="5"/>
-      <c r="D420" s="33"/>
+      <c r="D420" s="37"/>
       <c r="E420" s="7">
         <v>8</v>
       </c>
@@ -8762,8 +9364,13 @@
       <c r="A423" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="B423" s="5"/>
-      <c r="D423" s="33" t="s">
+      <c r="B423" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C423" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D423" s="37" t="s">
         <v>362</v>
       </c>
       <c r="E423" s="7">
@@ -8783,7 +9390,7 @@
     </row>
     <row r="424" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B424" s="5"/>
-      <c r="D424" s="33"/>
+      <c r="D424" s="37"/>
       <c r="E424" s="7">
         <v>2</v>
       </c>
@@ -8801,7 +9408,7 @@
     </row>
     <row r="425" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B425" s="5"/>
-      <c r="D425" s="33"/>
+      <c r="D425" s="37"/>
       <c r="E425" s="7">
         <v>3</v>
       </c>
@@ -8816,7 +9423,7 @@
     </row>
     <row r="426" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B426" s="5"/>
-      <c r="D426" s="33"/>
+      <c r="D426" s="37"/>
       <c r="E426" s="7">
         <v>4</v>
       </c>
@@ -8831,7 +9438,7 @@
     </row>
     <row r="427" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B427" s="5"/>
-      <c r="D427" s="33"/>
+      <c r="D427" s="37"/>
       <c r="E427" s="7">
         <v>5</v>
       </c>
@@ -8846,7 +9453,7 @@
     </row>
     <row r="428" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B428" s="5"/>
-      <c r="D428" s="33"/>
+      <c r="D428" s="37"/>
       <c r="E428" s="7">
         <v>6</v>
       </c>
@@ -8861,7 +9468,7 @@
     </row>
     <row r="429" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B429" s="5"/>
-      <c r="D429" s="33"/>
+      <c r="D429" s="37"/>
       <c r="E429" s="7">
         <v>7</v>
       </c>
@@ -8876,7 +9483,7 @@
     </row>
     <row r="430" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B430" s="5"/>
-      <c r="D430" s="33"/>
+      <c r="D430" s="37"/>
       <c r="E430" s="7">
         <v>8</v>
       </c>
@@ -8906,8 +9513,13 @@
       <c r="A433" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B433" s="5"/>
-      <c r="D433" s="33" t="s">
+      <c r="B433" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C433" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D433" s="37" t="s">
         <v>361</v>
       </c>
       <c r="E433" s="7">
@@ -8927,7 +9539,7 @@
     </row>
     <row r="434" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B434" s="5"/>
-      <c r="D434" s="33"/>
+      <c r="D434" s="37"/>
       <c r="E434" s="7">
         <v>2</v>
       </c>
@@ -8945,7 +9557,7 @@
     </row>
     <row r="435" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B435" s="5"/>
-      <c r="D435" s="33"/>
+      <c r="D435" s="37"/>
       <c r="E435" s="7">
         <v>3</v>
       </c>
@@ -8960,7 +9572,7 @@
     </row>
     <row r="436" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B436" s="5"/>
-      <c r="D436" s="33"/>
+      <c r="D436" s="37"/>
       <c r="E436" s="7">
         <v>4</v>
       </c>
@@ -8975,7 +9587,7 @@
     </row>
     <row r="437" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B437" s="5"/>
-      <c r="D437" s="33"/>
+      <c r="D437" s="37"/>
       <c r="E437" s="7">
         <v>5</v>
       </c>
@@ -8990,7 +9602,7 @@
     </row>
     <row r="438" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B438" s="5"/>
-      <c r="D438" s="33"/>
+      <c r="D438" s="37"/>
       <c r="E438" s="7">
         <v>6</v>
       </c>
@@ -9005,7 +9617,7 @@
     </row>
     <row r="439" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B439" s="5"/>
-      <c r="D439" s="33"/>
+      <c r="D439" s="37"/>
       <c r="E439" s="7">
         <v>7</v>
       </c>
@@ -9020,7 +9632,7 @@
     </row>
     <row r="440" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B440" s="5"/>
-      <c r="D440" s="33"/>
+      <c r="D440" s="37"/>
       <c r="E440" s="7">
         <v>8</v>
       </c>
@@ -9050,8 +9662,13 @@
       <c r="A443" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B443" s="5"/>
-      <c r="D443" s="33" t="s">
+      <c r="B443" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C443" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D443" s="37" t="s">
         <v>329</v>
       </c>
       <c r="E443" s="7">
@@ -9071,7 +9688,7 @@
     </row>
     <row r="444" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B444" s="5"/>
-      <c r="D444" s="33"/>
+      <c r="D444" s="37"/>
       <c r="E444" s="7">
         <v>2</v>
       </c>
@@ -9089,7 +9706,7 @@
     </row>
     <row r="445" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B445" s="5"/>
-      <c r="D445" s="33"/>
+      <c r="D445" s="37"/>
       <c r="E445" s="7">
         <v>3</v>
       </c>
@@ -9104,7 +9721,7 @@
     </row>
     <row r="446" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B446" s="5"/>
-      <c r="D446" s="33"/>
+      <c r="D446" s="37"/>
       <c r="E446" s="7">
         <v>4</v>
       </c>
@@ -9119,7 +9736,7 @@
     </row>
     <row r="447" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B447" s="5"/>
-      <c r="D447" s="33"/>
+      <c r="D447" s="37"/>
       <c r="E447" s="7">
         <v>5</v>
       </c>
@@ -9134,7 +9751,7 @@
     </row>
     <row r="448" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B448" s="5"/>
-      <c r="D448" s="33"/>
+      <c r="D448" s="37"/>
       <c r="E448" s="7">
         <v>6</v>
       </c>
@@ -9149,7 +9766,7 @@
     </row>
     <row r="449" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B449" s="5"/>
-      <c r="D449" s="33"/>
+      <c r="D449" s="37"/>
       <c r="E449" s="7">
         <v>7</v>
       </c>
@@ -9164,7 +9781,7 @@
     </row>
     <row r="450" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B450" s="5"/>
-      <c r="D450" s="33"/>
+      <c r="D450" s="37"/>
       <c r="E450" s="7">
         <v>8</v>
       </c>
@@ -9179,7 +9796,7 @@
     </row>
     <row r="451" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B451" s="5"/>
-      <c r="D451" s="33"/>
+      <c r="D451" s="37"/>
       <c r="E451" s="7">
         <v>9</v>
       </c>
@@ -9194,7 +9811,7 @@
     </row>
     <row r="452" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B452" s="5"/>
-      <c r="D452" s="33"/>
+      <c r="D452" s="37"/>
       <c r="E452" s="7">
         <v>10</v>
       </c>
@@ -9209,7 +9826,7 @@
     </row>
     <row r="453" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B453" s="5"/>
-      <c r="D453" s="33"/>
+      <c r="D453" s="37"/>
       <c r="E453" s="7">
         <v>11</v>
       </c>
@@ -9224,7 +9841,7 @@
     </row>
     <row r="454" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B454" s="5"/>
-      <c r="D454" s="33"/>
+      <c r="D454" s="37"/>
       <c r="E454" s="7">
         <v>12</v>
       </c>
@@ -9239,7 +9856,7 @@
     </row>
     <row r="455" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B455" s="5"/>
-      <c r="D455" s="33"/>
+      <c r="D455" s="37"/>
       <c r="E455" s="7">
         <v>13</v>
       </c>
@@ -9254,7 +9871,7 @@
     </row>
     <row r="456" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B456" s="5"/>
-      <c r="D456" s="33"/>
+      <c r="D456" s="37"/>
       <c r="E456" s="7">
         <v>14</v>
       </c>
@@ -9272,7 +9889,7 @@
     </row>
     <row r="457" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B457" s="5"/>
-      <c r="D457" s="33"/>
+      <c r="D457" s="37"/>
       <c r="E457" s="7">
         <v>15</v>
       </c>
@@ -9287,7 +9904,7 @@
     </row>
     <row r="458" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B458" s="5"/>
-      <c r="D458" s="33"/>
+      <c r="D458" s="37"/>
       <c r="E458" s="7">
         <v>16</v>
       </c>
@@ -9305,7 +9922,7 @@
     </row>
     <row r="459" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B459" s="5"/>
-      <c r="D459" s="33"/>
+      <c r="D459" s="37"/>
       <c r="E459" s="7">
         <v>17</v>
       </c>
@@ -9323,7 +9940,7 @@
     </row>
     <row r="460" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B460" s="5"/>
-      <c r="D460" s="33"/>
+      <c r="D460" s="37"/>
       <c r="E460" s="7">
         <v>18</v>
       </c>
@@ -9338,7 +9955,7 @@
     </row>
     <row r="461" spans="2:11" ht="240" x14ac:dyDescent="0.25">
       <c r="B461" s="5"/>
-      <c r="D461" s="33"/>
+      <c r="D461" s="37"/>
       <c r="E461" s="7">
         <v>19</v>
       </c>
@@ -9356,7 +9973,7 @@
     </row>
     <row r="462" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B462" s="5"/>
-      <c r="D462" s="33"/>
+      <c r="D462" s="37"/>
       <c r="E462" s="7">
         <v>20</v>
       </c>
@@ -9371,7 +9988,7 @@
     </row>
     <row r="463" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B463" s="5"/>
-      <c r="D463" s="33"/>
+      <c r="D463" s="37"/>
       <c r="E463" s="7">
         <v>21</v>
       </c>
@@ -9386,7 +10003,7 @@
     </row>
     <row r="464" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B464" s="5"/>
-      <c r="D464" s="33"/>
+      <c r="D464" s="37"/>
       <c r="E464" s="7">
         <v>22</v>
       </c>
@@ -9401,7 +10018,7 @@
     </row>
     <row r="465" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B465" s="5"/>
-      <c r="D465" s="33"/>
+      <c r="D465" s="37"/>
       <c r="E465" s="7">
         <v>23</v>
       </c>
@@ -9416,7 +10033,7 @@
     </row>
     <row r="466" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B466" s="5"/>
-      <c r="D466" s="33"/>
+      <c r="D466" s="37"/>
       <c r="E466" s="7">
         <v>24</v>
       </c>
@@ -9431,7 +10048,7 @@
     </row>
     <row r="467" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B467" s="5"/>
-      <c r="D467" s="33"/>
+      <c r="D467" s="37"/>
       <c r="E467" s="7">
         <v>25</v>
       </c>
@@ -9446,7 +10063,7 @@
     </row>
     <row r="468" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B468" s="5"/>
-      <c r="D468" s="33"/>
+      <c r="D468" s="37"/>
       <c r="E468" s="7">
         <v>26</v>
       </c>
@@ -9461,7 +10078,7 @@
     </row>
     <row r="469" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B469" s="5"/>
-      <c r="D469" s="33"/>
+      <c r="D469" s="37"/>
       <c r="E469" s="7">
         <v>27</v>
       </c>
@@ -9476,7 +10093,7 @@
     </row>
     <row r="470" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B470" s="5"/>
-      <c r="D470" s="33"/>
+      <c r="D470" s="37"/>
       <c r="E470" s="7">
         <v>28</v>
       </c>
@@ -9491,7 +10108,7 @@
     </row>
     <row r="471" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B471" s="5"/>
-      <c r="D471" s="33"/>
+      <c r="D471" s="37"/>
       <c r="E471" s="7">
         <v>29</v>
       </c>
@@ -9506,7 +10123,7 @@
     </row>
     <row r="472" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B472" s="5"/>
-      <c r="D472" s="33"/>
+      <c r="D472" s="37"/>
       <c r="E472" s="7">
         <v>30</v>
       </c>
@@ -9524,7 +10141,7 @@
     </row>
     <row r="473" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B473" s="5"/>
-      <c r="D473" s="33"/>
+      <c r="D473" s="37"/>
       <c r="E473" s="7">
         <v>31</v>
       </c>
@@ -9539,7 +10156,7 @@
     </row>
     <row r="474" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B474" s="5"/>
-      <c r="D474" s="33"/>
+      <c r="D474" s="37"/>
       <c r="E474" s="7">
         <v>32</v>
       </c>
@@ -9554,7 +10171,7 @@
     </row>
     <row r="475" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B475" s="5"/>
-      <c r="D475" s="33"/>
+      <c r="D475" s="37"/>
       <c r="E475" s="7">
         <v>33</v>
       </c>
@@ -9581,8 +10198,13 @@
       <c r="A478" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="B478" s="5"/>
-      <c r="D478" s="33" t="s">
+      <c r="B478" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C478" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D478" s="37" t="s">
         <v>330</v>
       </c>
       <c r="E478" s="7">
@@ -9602,7 +10224,7 @@
     </row>
     <row r="479" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B479" s="5"/>
-      <c r="D479" s="33"/>
+      <c r="D479" s="37"/>
       <c r="E479" s="7">
         <v>2</v>
       </c>
@@ -9620,7 +10242,7 @@
     </row>
     <row r="480" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B480" s="5"/>
-      <c r="D480" s="33"/>
+      <c r="D480" s="37"/>
       <c r="E480" s="7">
         <v>3</v>
       </c>
@@ -9635,7 +10257,7 @@
     </row>
     <row r="481" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B481" s="5"/>
-      <c r="D481" s="33"/>
+      <c r="D481" s="37"/>
       <c r="E481" s="7">
         <v>4</v>
       </c>
@@ -9650,7 +10272,7 @@
     </row>
     <row r="482" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B482" s="5"/>
-      <c r="D482" s="33"/>
+      <c r="D482" s="37"/>
       <c r="E482" s="7">
         <v>5</v>
       </c>
@@ -9665,7 +10287,7 @@
     </row>
     <row r="483" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B483" s="5"/>
-      <c r="D483" s="33"/>
+      <c r="D483" s="37"/>
       <c r="E483" s="7">
         <v>6</v>
       </c>
@@ -9680,7 +10302,7 @@
     </row>
     <row r="484" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B484" s="5"/>
-      <c r="D484" s="33"/>
+      <c r="D484" s="37"/>
       <c r="E484" s="7">
         <v>7</v>
       </c>
@@ -9695,7 +10317,7 @@
     </row>
     <row r="485" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B485" s="5"/>
-      <c r="D485" s="33"/>
+      <c r="D485" s="37"/>
       <c r="E485" s="7">
         <v>8</v>
       </c>
@@ -9713,7 +10335,7 @@
     </row>
     <row r="486" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B486" s="5"/>
-      <c r="D486" s="33"/>
+      <c r="D486" s="37"/>
       <c r="E486" s="7">
         <v>9</v>
       </c>
@@ -9728,7 +10350,7 @@
     </row>
     <row r="487" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B487" s="5"/>
-      <c r="D487" s="33"/>
+      <c r="D487" s="37"/>
       <c r="E487" s="7">
         <v>10</v>
       </c>
@@ -9755,8 +10377,13 @@
       <c r="A490" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B490" s="5"/>
-      <c r="D490" s="33" t="s">
+      <c r="B490" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C490" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D490" s="37" t="s">
         <v>348</v>
       </c>
       <c r="E490" s="7">
@@ -9776,7 +10403,7 @@
     </row>
     <row r="491" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B491" s="5"/>
-      <c r="D491" s="33"/>
+      <c r="D491" s="37"/>
       <c r="E491" s="7">
         <v>2</v>
       </c>
@@ -9794,7 +10421,7 @@
     </row>
     <row r="492" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B492" s="5"/>
-      <c r="D492" s="33"/>
+      <c r="D492" s="37"/>
       <c r="E492" s="7">
         <v>3</v>
       </c>
@@ -9809,7 +10436,7 @@
     </row>
     <row r="493" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B493" s="5"/>
-      <c r="D493" s="33"/>
+      <c r="D493" s="37"/>
       <c r="E493" s="7">
         <v>4</v>
       </c>
@@ -9824,7 +10451,7 @@
     </row>
     <row r="494" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B494" s="5"/>
-      <c r="D494" s="33"/>
+      <c r="D494" s="37"/>
       <c r="E494" s="7">
         <v>5</v>
       </c>
@@ -9839,7 +10466,7 @@
     </row>
     <row r="495" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B495" s="5"/>
-      <c r="D495" s="33"/>
+      <c r="D495" s="37"/>
       <c r="E495" s="7">
         <v>6</v>
       </c>
@@ -9854,7 +10481,7 @@
     </row>
     <row r="496" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B496" s="5"/>
-      <c r="D496" s="33"/>
+      <c r="D496" s="37"/>
       <c r="E496" s="7">
         <v>7</v>
       </c>
@@ -9869,7 +10496,7 @@
     </row>
     <row r="497" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B497" s="5"/>
-      <c r="D497" s="33"/>
+      <c r="D497" s="37"/>
       <c r="E497" s="7">
         <v>8</v>
       </c>
@@ -9887,7 +10514,7 @@
     </row>
     <row r="498" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B498" s="5"/>
-      <c r="D498" s="33"/>
+      <c r="D498" s="37"/>
       <c r="E498" s="7">
         <v>9</v>
       </c>
@@ -9902,7 +10529,7 @@
     </row>
     <row r="499" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B499" s="5"/>
-      <c r="D499" s="33"/>
+      <c r="D499" s="37"/>
       <c r="E499" s="7">
         <v>10</v>
       </c>
@@ -9917,7 +10544,7 @@
     </row>
     <row r="500" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B500" s="5"/>
-      <c r="D500" s="33"/>
+      <c r="D500" s="37"/>
       <c r="E500" s="7">
         <v>11</v>
       </c>
@@ -9944,8 +10571,13 @@
       <c r="A503" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B503" s="5"/>
-      <c r="D503" s="33" t="s">
+      <c r="B503" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C503" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D503" s="37" t="s">
         <v>341</v>
       </c>
       <c r="E503" s="7">
@@ -9965,7 +10597,7 @@
     </row>
     <row r="504" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B504" s="5"/>
-      <c r="D504" s="33"/>
+      <c r="D504" s="37"/>
       <c r="E504" s="7">
         <v>2</v>
       </c>
@@ -9983,7 +10615,7 @@
     </row>
     <row r="505" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B505" s="5"/>
-      <c r="D505" s="33"/>
+      <c r="D505" s="37"/>
       <c r="E505" s="7">
         <v>3</v>
       </c>
@@ -9998,7 +10630,7 @@
     </row>
     <row r="506" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B506" s="5"/>
-      <c r="D506" s="33"/>
+      <c r="D506" s="37"/>
       <c r="E506" s="7">
         <v>4</v>
       </c>
@@ -10013,7 +10645,7 @@
     </row>
     <row r="507" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B507" s="5"/>
-      <c r="D507" s="33"/>
+      <c r="D507" s="37"/>
       <c r="E507" s="7">
         <v>5</v>
       </c>
@@ -10028,7 +10660,7 @@
     </row>
     <row r="508" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B508" s="5"/>
-      <c r="D508" s="33"/>
+      <c r="D508" s="37"/>
       <c r="E508" s="7">
         <v>6</v>
       </c>
@@ -10043,7 +10675,7 @@
     </row>
     <row r="509" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B509" s="5"/>
-      <c r="D509" s="33"/>
+      <c r="D509" s="37"/>
       <c r="E509" s="7">
         <v>7</v>
       </c>
@@ -10058,7 +10690,7 @@
     </row>
     <row r="510" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B510" s="5"/>
-      <c r="D510" s="33"/>
+      <c r="D510" s="37"/>
       <c r="E510" s="7">
         <v>8</v>
       </c>
@@ -10076,7 +10708,7 @@
     </row>
     <row r="511" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B511" s="5"/>
-      <c r="D511" s="33"/>
+      <c r="D511" s="37"/>
       <c r="E511" s="7">
         <v>9</v>
       </c>
@@ -10091,7 +10723,7 @@
     </row>
     <row r="512" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B512" s="5"/>
-      <c r="D512" s="33"/>
+      <c r="D512" s="37"/>
       <c r="E512" s="7">
         <v>10</v>
       </c>
@@ -10113,8 +10745,13 @@
       <c r="A514" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B514" s="5"/>
-      <c r="D514" s="33" t="s">
+      <c r="B514" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C514" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D514" s="37" t="s">
         <v>349</v>
       </c>
       <c r="E514" s="7">
@@ -10134,7 +10771,7 @@
     </row>
     <row r="515" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B515" s="5"/>
-      <c r="D515" s="33"/>
+      <c r="D515" s="37"/>
       <c r="E515" s="7">
         <v>2</v>
       </c>
@@ -10152,7 +10789,7 @@
     </row>
     <row r="516" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B516" s="5"/>
-      <c r="D516" s="33"/>
+      <c r="D516" s="37"/>
       <c r="E516" s="7">
         <v>3</v>
       </c>
@@ -10167,7 +10804,7 @@
     </row>
     <row r="517" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B517" s="5"/>
-      <c r="D517" s="33"/>
+      <c r="D517" s="37"/>
       <c r="E517" s="7">
         <v>4</v>
       </c>
@@ -10182,7 +10819,7 @@
     </row>
     <row r="518" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B518" s="5"/>
-      <c r="D518" s="33"/>
+      <c r="D518" s="37"/>
       <c r="E518" s="7">
         <v>5</v>
       </c>
@@ -10197,7 +10834,7 @@
     </row>
     <row r="519" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B519" s="5"/>
-      <c r="D519" s="33"/>
+      <c r="D519" s="37"/>
       <c r="E519" s="7">
         <v>6</v>
       </c>
@@ -10212,7 +10849,7 @@
     </row>
     <row r="520" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B520" s="5"/>
-      <c r="D520" s="33"/>
+      <c r="D520" s="37"/>
       <c r="E520" s="7">
         <v>7</v>
       </c>
@@ -10227,7 +10864,7 @@
     </row>
     <row r="521" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B521" s="5"/>
-      <c r="D521" s="33"/>
+      <c r="D521" s="37"/>
       <c r="E521" s="7">
         <v>8</v>
       </c>
@@ -10245,7 +10882,7 @@
     </row>
     <row r="522" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B522" s="5"/>
-      <c r="D522" s="33"/>
+      <c r="D522" s="37"/>
       <c r="E522" s="7">
         <v>9</v>
       </c>
@@ -10260,7 +10897,7 @@
     </row>
     <row r="523" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B523" s="5"/>
-      <c r="D523" s="33"/>
+      <c r="D523" s="37"/>
       <c r="E523" s="7">
         <v>10</v>
       </c>
@@ -10275,7 +10912,7 @@
     </row>
     <row r="524" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B524" s="5"/>
-      <c r="D524" s="33"/>
+      <c r="D524" s="37"/>
       <c r="E524" s="7">
         <v>11</v>
       </c>
@@ -10302,8 +10939,13 @@
       <c r="A527" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B527" s="5"/>
-      <c r="D527" s="33" t="s">
+      <c r="B527" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C527" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D527" s="37" t="s">
         <v>350</v>
       </c>
       <c r="E527" s="7">
@@ -10323,7 +10965,7 @@
     </row>
     <row r="528" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B528" s="5"/>
-      <c r="D528" s="33"/>
+      <c r="D528" s="37"/>
       <c r="E528" s="7">
         <v>2</v>
       </c>
@@ -10341,7 +10983,7 @@
     </row>
     <row r="529" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B529" s="5"/>
-      <c r="D529" s="33"/>
+      <c r="D529" s="37"/>
       <c r="E529" s="7">
         <v>3</v>
       </c>
@@ -10356,7 +10998,7 @@
     </row>
     <row r="530" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B530" s="5"/>
-      <c r="D530" s="33"/>
+      <c r="D530" s="37"/>
       <c r="E530" s="7">
         <v>4</v>
       </c>
@@ -10371,7 +11013,7 @@
     </row>
     <row r="531" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B531" s="5"/>
-      <c r="D531" s="33"/>
+      <c r="D531" s="37"/>
       <c r="E531" s="7">
         <v>5</v>
       </c>
@@ -10386,7 +11028,7 @@
     </row>
     <row r="532" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B532" s="5"/>
-      <c r="D532" s="33"/>
+      <c r="D532" s="37"/>
       <c r="E532" s="7">
         <v>6</v>
       </c>
@@ -10401,7 +11043,7 @@
     </row>
     <row r="533" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B533" s="5"/>
-      <c r="D533" s="33"/>
+      <c r="D533" s="37"/>
       <c r="E533" s="7">
         <v>7</v>
       </c>
@@ -10416,7 +11058,7 @@
     </row>
     <row r="534" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B534" s="5"/>
-      <c r="D534" s="33"/>
+      <c r="D534" s="37"/>
       <c r="E534" s="7">
         <v>8</v>
       </c>
@@ -10443,8 +11085,13 @@
       <c r="A537" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B537" s="5"/>
-      <c r="D537" s="33" t="s">
+      <c r="B537" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C537" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D537" s="37" t="s">
         <v>355</v>
       </c>
       <c r="E537" s="7">
@@ -10464,7 +11111,7 @@
     </row>
     <row r="538" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B538" s="5"/>
-      <c r="D538" s="33"/>
+      <c r="D538" s="37"/>
       <c r="E538" s="7">
         <v>2</v>
       </c>
@@ -10482,7 +11129,7 @@
     </row>
     <row r="539" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B539" s="5"/>
-      <c r="D539" s="33"/>
+      <c r="D539" s="37"/>
       <c r="E539" s="7">
         <v>3</v>
       </c>
@@ -10497,7 +11144,7 @@
     </row>
     <row r="540" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B540" s="5"/>
-      <c r="D540" s="33"/>
+      <c r="D540" s="37"/>
       <c r="E540" s="7">
         <v>4</v>
       </c>
@@ -10512,7 +11159,7 @@
     </row>
     <row r="541" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B541" s="5"/>
-      <c r="D541" s="33"/>
+      <c r="D541" s="37"/>
       <c r="E541" s="7">
         <v>5</v>
       </c>
@@ -10527,7 +11174,7 @@
     </row>
     <row r="542" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B542" s="5"/>
-      <c r="D542" s="33"/>
+      <c r="D542" s="37"/>
       <c r="E542" s="7">
         <v>6</v>
       </c>
@@ -10542,7 +11189,7 @@
     </row>
     <row r="543" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B543" s="5"/>
-      <c r="D543" s="33"/>
+      <c r="D543" s="37"/>
       <c r="E543" s="7">
         <v>7</v>
       </c>
@@ -10557,7 +11204,7 @@
     </row>
     <row r="544" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B544" s="5"/>
-      <c r="D544" s="33"/>
+      <c r="D544" s="37"/>
       <c r="E544" s="7">
         <v>8</v>
       </c>
@@ -10584,8 +11231,13 @@
       <c r="A547" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B547" s="5"/>
-      <c r="D547" s="33" t="s">
+      <c r="B547" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C547" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D547" s="37" t="s">
         <v>367</v>
       </c>
       <c r="E547" s="7">
@@ -10605,7 +11257,7 @@
     </row>
     <row r="548" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B548" s="5"/>
-      <c r="D548" s="33"/>
+      <c r="D548" s="37"/>
       <c r="E548" s="7">
         <v>2</v>
       </c>
@@ -10623,7 +11275,7 @@
     </row>
     <row r="549" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B549" s="5"/>
-      <c r="D549" s="33"/>
+      <c r="D549" s="37"/>
       <c r="E549" s="7">
         <v>3</v>
       </c>
@@ -10638,7 +11290,7 @@
     </row>
     <row r="550" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B550" s="5"/>
-      <c r="D550" s="33"/>
+      <c r="D550" s="37"/>
       <c r="E550" s="7">
         <v>4</v>
       </c>
@@ -10653,7 +11305,7 @@
     </row>
     <row r="551" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B551" s="5"/>
-      <c r="D551" s="33"/>
+      <c r="D551" s="37"/>
       <c r="E551" s="7">
         <v>5</v>
       </c>
@@ -10668,7 +11320,7 @@
     </row>
     <row r="552" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B552" s="5"/>
-      <c r="D552" s="33"/>
+      <c r="D552" s="37"/>
       <c r="E552" s="7">
         <v>6</v>
       </c>
@@ -10698,8 +11350,13 @@
       <c r="A555" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B555" s="5"/>
-      <c r="D555" s="33" t="s">
+      <c r="B555" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C555" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D555" s="37" t="s">
         <v>367</v>
       </c>
       <c r="E555" s="7">
@@ -10719,7 +11376,7 @@
     </row>
     <row r="556" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B556" s="5"/>
-      <c r="D556" s="33"/>
+      <c r="D556" s="37"/>
       <c r="E556" s="7">
         <v>2</v>
       </c>
@@ -10737,7 +11394,7 @@
     </row>
     <row r="557" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B557" s="5"/>
-      <c r="D557" s="33"/>
+      <c r="D557" s="37"/>
       <c r="E557" s="7">
         <v>3</v>
       </c>
@@ -10752,7 +11409,7 @@
     </row>
     <row r="558" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B558" s="5"/>
-      <c r="D558" s="33"/>
+      <c r="D558" s="37"/>
       <c r="E558" s="7">
         <v>4</v>
       </c>
@@ -10767,7 +11424,7 @@
     </row>
     <row r="559" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B559" s="5"/>
-      <c r="D559" s="33"/>
+      <c r="D559" s="37"/>
       <c r="E559" s="7">
         <v>5</v>
       </c>
@@ -10782,7 +11439,7 @@
     </row>
     <row r="560" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B560" s="5"/>
-      <c r="D560" s="33"/>
+      <c r="D560" s="37"/>
       <c r="E560" s="7">
         <v>6</v>
       </c>
@@ -10812,8 +11469,13 @@
       <c r="A563" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="B563" s="5"/>
-      <c r="D563" s="33" t="s">
+      <c r="B563" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C563" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D563" s="37" t="s">
         <v>376</v>
       </c>
       <c r="E563" s="7">
@@ -10833,7 +11495,7 @@
     </row>
     <row r="564" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B564" s="5"/>
-      <c r="D564" s="33"/>
+      <c r="D564" s="37"/>
       <c r="E564" s="7">
         <v>2</v>
       </c>
@@ -10851,7 +11513,7 @@
     </row>
     <row r="565" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B565" s="5"/>
-      <c r="D565" s="33"/>
+      <c r="D565" s="37"/>
       <c r="E565" s="7">
         <v>3</v>
       </c>
@@ -10866,7 +11528,7 @@
     </row>
     <row r="566" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B566" s="5"/>
-      <c r="D566" s="33"/>
+      <c r="D566" s="37"/>
       <c r="E566" s="7">
         <v>4</v>
       </c>
@@ -10881,7 +11543,7 @@
     </row>
     <row r="567" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B567" s="5"/>
-      <c r="D567" s="33"/>
+      <c r="D567" s="37"/>
       <c r="E567" s="7">
         <v>5</v>
       </c>
@@ -10896,7 +11558,7 @@
     </row>
     <row r="568" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B568" s="5"/>
-      <c r="D568" s="33"/>
+      <c r="D568" s="37"/>
       <c r="E568" s="7">
         <v>6</v>
       </c>
@@ -10928,8 +11590,13 @@
       <c r="A572" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="B572" s="5"/>
-      <c r="D572" s="33" t="s">
+      <c r="B572" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C572" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D572" s="37" t="s">
         <v>378</v>
       </c>
       <c r="E572" s="7">
@@ -10946,7 +11613,7 @@
     </row>
     <row r="573" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B573" s="5"/>
-      <c r="D573" s="33"/>
+      <c r="D573" s="37"/>
       <c r="E573" s="7">
         <v>2</v>
       </c>
@@ -10961,7 +11628,7 @@
     </row>
     <row r="574" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B574" s="5"/>
-      <c r="D574" s="33"/>
+      <c r="D574" s="37"/>
       <c r="E574" s="7">
         <v>3</v>
       </c>
@@ -10976,7 +11643,7 @@
     </row>
     <row r="575" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B575" s="5"/>
-      <c r="D575" s="33"/>
+      <c r="D575" s="37"/>
       <c r="E575" s="7">
         <v>4</v>
       </c>
@@ -10991,7 +11658,7 @@
     </row>
     <row r="576" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B576" s="5"/>
-      <c r="D576" s="33"/>
+      <c r="D576" s="37"/>
       <c r="E576" s="7">
         <v>5</v>
       </c>
@@ -11006,7 +11673,7 @@
     </row>
     <row r="577" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B577" s="5"/>
-      <c r="D577" s="33"/>
+      <c r="D577" s="37"/>
       <c r="E577" s="7">
         <v>6</v>
       </c>
@@ -11033,8 +11700,13 @@
       <c r="A580" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="B580" s="5"/>
-      <c r="D580" s="33" t="s">
+      <c r="B580" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C580" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D580" s="37" t="s">
         <v>372</v>
       </c>
       <c r="E580" s="7">
@@ -11051,7 +11723,7 @@
     </row>
     <row r="581" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B581" s="5"/>
-      <c r="D581" s="33"/>
+      <c r="D581" s="37"/>
       <c r="E581" s="7">
         <v>2</v>
       </c>
@@ -11066,7 +11738,7 @@
     </row>
     <row r="582" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B582" s="5"/>
-      <c r="D582" s="33"/>
+      <c r="D582" s="37"/>
       <c r="E582" s="7">
         <v>3</v>
       </c>
@@ -11081,7 +11753,7 @@
     </row>
     <row r="583" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B583" s="5"/>
-      <c r="D583" s="33"/>
+      <c r="D583" s="37"/>
       <c r="E583" s="7">
         <v>4</v>
       </c>
@@ -11096,7 +11768,7 @@
     </row>
     <row r="584" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B584" s="5"/>
-      <c r="D584" s="33"/>
+      <c r="D584" s="37"/>
       <c r="E584" s="7">
         <v>5</v>
       </c>
@@ -11111,7 +11783,7 @@
     </row>
     <row r="585" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B585" s="5"/>
-      <c r="D585" s="33"/>
+      <c r="D585" s="37"/>
       <c r="E585" s="7">
         <v>6</v>
       </c>
@@ -11138,8 +11810,13 @@
       <c r="A588" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B588" s="5"/>
-      <c r="D588" s="33" t="s">
+      <c r="B588" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C588" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D588" s="37" t="s">
         <v>385</v>
       </c>
       <c r="E588" s="7">
@@ -11159,7 +11836,7 @@
     </row>
     <row r="589" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B589" s="5"/>
-      <c r="D589" s="33"/>
+      <c r="D589" s="37"/>
       <c r="E589" s="7">
         <v>2</v>
       </c>
@@ -11177,7 +11854,7 @@
     </row>
     <row r="590" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B590" s="5"/>
-      <c r="D590" s="33"/>
+      <c r="D590" s="37"/>
       <c r="E590" s="7">
         <v>3</v>
       </c>
@@ -11192,7 +11869,7 @@
     </row>
     <row r="591" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B591" s="5"/>
-      <c r="D591" s="33"/>
+      <c r="D591" s="37"/>
       <c r="E591" s="7">
         <v>4</v>
       </c>
@@ -11207,7 +11884,7 @@
     </row>
     <row r="592" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B592" s="5"/>
-      <c r="D592" s="33"/>
+      <c r="D592" s="37"/>
       <c r="E592" s="7">
         <v>5</v>
       </c>
@@ -11222,7 +11899,7 @@
     </row>
     <row r="593" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B593" s="5"/>
-      <c r="D593" s="33"/>
+      <c r="D593" s="37"/>
       <c r="E593" s="7">
         <v>6</v>
       </c>
@@ -11235,104 +11912,114 @@
       <c r="J593" s="10"/>
       <c r="K593" s="10"/>
     </row>
-    <row r="594" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B594" s="5"/>
-      <c r="D594" s="33"/>
+    <row r="594" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B594" s="33"/>
+      <c r="D594" s="37"/>
       <c r="E594" s="7">
         <v>7</v>
       </c>
       <c r="F594" s="8" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="G594" s="8" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="J594" s="10"/>
       <c r="K594" s="10"/>
     </row>
-    <row r="595" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B595" s="32"/>
-      <c r="D595" s="33"/>
+    <row r="595" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B595" s="5"/>
+      <c r="D595" s="37"/>
       <c r="E595" s="7">
         <v>8</v>
       </c>
       <c r="F595" s="8" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G595" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="H595" s="8" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J595" s="10"/>
       <c r="K595" s="10"/>
     </row>
     <row r="596" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B596" s="32"/>
-      <c r="D596" s="33"/>
+      <c r="D596" s="37"/>
       <c r="E596" s="7">
         <v>9</v>
       </c>
       <c r="F596" s="8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G596" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="H596" s="8">
-        <v>3</v>
+        <v>394</v>
+      </c>
+      <c r="H596" s="8" t="s">
+        <v>395</v>
       </c>
       <c r="J596" s="10"/>
       <c r="K596" s="10"/>
     </row>
-    <row r="597" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B597" s="5"/>
-      <c r="D597" s="33"/>
+    <row r="597" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B597" s="32"/>
+      <c r="D597" s="37"/>
       <c r="E597" s="7">
         <v>10</v>
       </c>
       <c r="F597" s="8" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="G597" s="8" t="s">
-        <v>390</v>
+        <v>397</v>
+      </c>
+      <c r="H597" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="J597" s="10"/>
       <c r="K597" s="10"/>
     </row>
-    <row r="598" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B598" s="5"/>
-      <c r="D598" s="33"/>
+      <c r="D598" s="37"/>
       <c r="E598" s="7">
         <v>11</v>
       </c>
       <c r="F598" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G598" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J598" s="10"/>
       <c r="K598" s="10"/>
     </row>
-    <row r="599" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B599" s="5"/>
-      <c r="D599" s="33"/>
+      <c r="D599" s="37"/>
       <c r="E599" s="7">
         <v>12</v>
       </c>
       <c r="F599" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G599" s="8" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="J599" s="10"/>
       <c r="K599" s="10"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B600" s="5"/>
+      <c r="D600" s="37"/>
+      <c r="E600" s="7">
+        <v>13</v>
+      </c>
+      <c r="F600" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="G600" s="8" t="s">
+        <v>398</v>
+      </c>
       <c r="J600" s="10"/>
       <c r="K600" s="10"/>
     </row>
@@ -11341,511 +12028,4212 @@
       <c r="J601" s="10"/>
       <c r="K601" s="10"/>
     </row>
-    <row r="602" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A602" s="8" t="s">
-        <v>399</v>
-      </c>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B602" s="5"/>
-      <c r="D602" s="8" t="s">
-        <v>385</v>
-      </c>
       <c r="J602" s="10"/>
       <c r="K602" s="10"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B603" s="5"/>
+    <row r="603" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A603" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B603" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C603" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D603" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="E603" s="7">
+        <v>1</v>
+      </c>
+      <c r="F603" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="G603" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H603" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="J603" s="10"/>
       <c r="K603" s="10"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B604" s="5"/>
+      <c r="D604" s="37"/>
+      <c r="E604" s="7">
+        <v>2</v>
+      </c>
+      <c r="F604" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G604" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H604" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="J604" s="10"/>
       <c r="K604" s="10"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B605" s="5"/>
+      <c r="D605" s="37"/>
+      <c r="E605" s="7">
+        <v>3</v>
+      </c>
+      <c r="F605" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G605" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="J605" s="10"/>
       <c r="K605" s="10"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B606" s="5"/>
+      <c r="D606" s="37"/>
+      <c r="E606" s="7">
+        <v>4</v>
+      </c>
+      <c r="F606" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G606" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="J606" s="10"/>
       <c r="K606" s="10"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B607" s="5"/>
+      <c r="D607" s="37"/>
+      <c r="E607" s="7">
+        <v>5</v>
+      </c>
+      <c r="F607" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="G607" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="J607" s="10"/>
       <c r="K607" s="10"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B608" s="5"/>
+      <c r="D608" s="37"/>
+      <c r="E608" s="7">
+        <v>6</v>
+      </c>
+      <c r="F608" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="G608" s="8" t="s">
+        <v>404</v>
+      </c>
       <c r="J608" s="10"/>
       <c r="K608" s="10"/>
     </row>
-    <row r="609" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B609" s="5"/>
+      <c r="D609" s="37"/>
+      <c r="E609" s="7">
+        <v>7</v>
+      </c>
+      <c r="F609" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G609" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H609" s="8" t="s">
+        <v>406</v>
+      </c>
       <c r="J609" s="10"/>
       <c r="K609" s="10"/>
     </row>
-    <row r="610" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B610" s="5"/>
+      <c r="E610" s="7">
+        <v>8</v>
+      </c>
+      <c r="F610" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G610" s="8" t="s">
+        <v>433</v>
+      </c>
       <c r="J610" s="10"/>
       <c r="K610" s="10"/>
     </row>
-    <row r="611" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B611" s="5"/>
       <c r="J611" s="10"/>
       <c r="K611" s="10"/>
     </row>
-    <row r="612" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A612" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B612" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C612" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D612" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="E612" s="7">
+        <v>1</v>
+      </c>
+      <c r="F612" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="G612" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H612" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="J612" s="10"/>
       <c r="K612" s="10"/>
     </row>
-    <row r="613" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D613" s="37"/>
+      <c r="E613" s="7">
+        <v>2</v>
+      </c>
+      <c r="F613" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G613" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H613" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="J613" s="10"/>
       <c r="K613" s="10"/>
     </row>
-    <row r="614" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D614" s="37"/>
+      <c r="E614" s="7">
+        <v>3</v>
+      </c>
+      <c r="F614" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G614" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="J614" s="10"/>
       <c r="K614" s="10"/>
     </row>
-    <row r="615" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D615" s="37"/>
+      <c r="E615" s="7">
+        <v>4</v>
+      </c>
+      <c r="F615" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G615" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="J615" s="10"/>
       <c r="K615" s="10"/>
     </row>
-    <row r="616" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D616" s="37"/>
+      <c r="E616" s="7">
+        <v>5</v>
+      </c>
+      <c r="F616" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="G616" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="J616" s="10"/>
       <c r="K616" s="10"/>
     </row>
-    <row r="617" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="D617" s="37"/>
+      <c r="E617" s="7">
+        <v>6</v>
+      </c>
+      <c r="F617" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="G617" s="8" t="s">
+        <v>414</v>
+      </c>
       <c r="J617" s="10"/>
       <c r="K617" s="10"/>
     </row>
-    <row r="618" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D618" s="37"/>
+      <c r="E618" s="7">
+        <v>7</v>
+      </c>
+      <c r="F618" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G618" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H618" s="8" t="s">
+        <v>415</v>
+      </c>
       <c r="J618" s="10"/>
       <c r="K618" s="10"/>
     </row>
-    <row r="619" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D619" s="37"/>
+      <c r="E619" s="7">
+        <v>8</v>
+      </c>
+      <c r="F619" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G619" s="8" t="s">
+        <v>433</v>
+      </c>
       <c r="J619" s="10"/>
       <c r="K619" s="10"/>
     </row>
-    <row r="620" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J620" s="10"/>
       <c r="K620" s="10"/>
     </row>
-    <row r="621" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J621" s="10"/>
       <c r="K621" s="10"/>
     </row>
-    <row r="622" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A622" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B622" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C622" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D622" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="E622" s="7">
+        <v>1</v>
+      </c>
+      <c r="F622" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="G622" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H622" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="J622" s="10"/>
       <c r="K622" s="10"/>
     </row>
-    <row r="623" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D623" s="37"/>
+      <c r="E623" s="7">
+        <v>2</v>
+      </c>
+      <c r="F623" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G623" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H623" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="J623" s="10"/>
       <c r="K623" s="10"/>
     </row>
-    <row r="624" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D624" s="37"/>
+      <c r="E624" s="7">
+        <v>3</v>
+      </c>
+      <c r="F624" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G624" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="J624" s="10"/>
       <c r="K624" s="10"/>
     </row>
-    <row r="625" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D625" s="37"/>
+      <c r="E625" s="7">
+        <v>4</v>
+      </c>
+      <c r="F625" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G625" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="J625" s="10"/>
       <c r="K625" s="10"/>
     </row>
-    <row r="626" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D626" s="37"/>
+      <c r="E626" s="7">
+        <v>5</v>
+      </c>
+      <c r="F626" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="G626" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="J626" s="10"/>
       <c r="K626" s="10"/>
     </row>
-    <row r="627" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="D627" s="37"/>
+      <c r="E627" s="7">
+        <v>6</v>
+      </c>
+      <c r="F627" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="G627" s="8" t="s">
+        <v>418</v>
+      </c>
       <c r="J627" s="10"/>
       <c r="K627" s="10"/>
     </row>
-    <row r="628" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D628" s="37"/>
+      <c r="E628" s="7">
+        <v>7</v>
+      </c>
+      <c r="F628" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G628" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H628" s="8" t="s">
+        <v>415</v>
+      </c>
       <c r="J628" s="10"/>
       <c r="K628" s="10"/>
     </row>
-    <row r="629" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D629" s="37"/>
+      <c r="E629" s="7">
+        <v>8</v>
+      </c>
+      <c r="F629" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G629" s="8" t="s">
+        <v>433</v>
+      </c>
       <c r="J629" s="10"/>
       <c r="K629" s="10"/>
     </row>
-    <row r="630" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D630" s="34"/>
       <c r="J630" s="10"/>
       <c r="K630" s="10"/>
     </row>
-    <row r="631" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D631" s="34"/>
       <c r="J631" s="10"/>
       <c r="K631" s="10"/>
     </row>
-    <row r="632" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A632" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B632" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C632" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D632" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="E632" s="7">
+        <v>1</v>
+      </c>
+      <c r="F632" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="G632" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H632" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="J632" s="10"/>
       <c r="K632" s="10"/>
     </row>
-    <row r="633" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D633" s="37"/>
+      <c r="E633" s="7">
+        <v>2</v>
+      </c>
+      <c r="F633" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G633" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H633" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="J633" s="10"/>
       <c r="K633" s="10"/>
     </row>
-    <row r="634" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D634" s="37"/>
+      <c r="E634" s="7">
+        <v>3</v>
+      </c>
+      <c r="F634" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G634" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="J634" s="10"/>
       <c r="K634" s="10"/>
     </row>
-    <row r="635" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D635" s="37"/>
+      <c r="E635" s="7">
+        <v>4</v>
+      </c>
+      <c r="F635" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G635" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="J635" s="10"/>
       <c r="K635" s="10"/>
     </row>
-    <row r="636" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D636" s="37"/>
+      <c r="E636" s="7">
+        <v>5</v>
+      </c>
+      <c r="F636" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="G636" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="J636" s="10"/>
       <c r="K636" s="10"/>
     </row>
-    <row r="637" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="D637" s="37"/>
+      <c r="E637" s="7">
+        <v>6</v>
+      </c>
+      <c r="F637" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="G637" s="8" t="s">
+        <v>404</v>
+      </c>
       <c r="J637" s="10"/>
       <c r="K637" s="10"/>
     </row>
-    <row r="638" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D638" s="37"/>
+      <c r="E638" s="7">
+        <v>7</v>
+      </c>
+      <c r="F638" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G638" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H638" s="8" t="s">
+        <v>456</v>
+      </c>
       <c r="J638" s="10"/>
       <c r="K638" s="10"/>
     </row>
-    <row r="639" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D639" s="37"/>
+      <c r="E639" s="7">
+        <v>8</v>
+      </c>
+      <c r="F639" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G639" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="H639" s="7"/>
       <c r="J639" s="10"/>
       <c r="K639" s="10"/>
     </row>
-    <row r="640" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J640" s="10"/>
       <c r="K640" s="10"/>
     </row>
-    <row r="641" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J641" s="10"/>
       <c r="K641" s="10"/>
     </row>
-    <row r="642" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J642" s="10"/>
       <c r="K642" s="10"/>
     </row>
-    <row r="643" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A643" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B643" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C643" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D643" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="E643" s="7">
+        <v>1</v>
+      </c>
+      <c r="F643" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="G643" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H643" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="J643" s="10"/>
       <c r="K643" s="10"/>
     </row>
-    <row r="644" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D644" s="37"/>
+      <c r="E644" s="7">
+        <v>2</v>
+      </c>
+      <c r="F644" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G644" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H644" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="J644" s="10"/>
       <c r="K644" s="10"/>
     </row>
-    <row r="645" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D645" s="37"/>
+      <c r="E645" s="7">
+        <v>3</v>
+      </c>
+      <c r="F645" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G645" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="J645" s="10"/>
       <c r="K645" s="10"/>
     </row>
-    <row r="646" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D646" s="37"/>
+      <c r="E646" s="7">
+        <v>4</v>
+      </c>
+      <c r="F646" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G646" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="J646" s="10"/>
       <c r="K646" s="10"/>
     </row>
-    <row r="647" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D647" s="37"/>
+      <c r="E647" s="7">
+        <v>5</v>
+      </c>
+      <c r="F647" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="G647" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="J647" s="10"/>
       <c r="K647" s="10"/>
     </row>
-    <row r="648" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="D648" s="37"/>
+      <c r="E648" s="7">
+        <v>6</v>
+      </c>
+      <c r="F648" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G648" s="8" t="s">
+        <v>423</v>
+      </c>
       <c r="J648" s="10"/>
       <c r="K648" s="10"/>
     </row>
-    <row r="649" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D649" s="37"/>
+      <c r="E649" s="7">
+        <v>7</v>
+      </c>
+      <c r="F649" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="G649" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="H649" s="8" t="s">
+        <v>425</v>
+      </c>
       <c r="J649" s="10"/>
       <c r="K649" s="10"/>
     </row>
-    <row r="650" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D650" s="37"/>
+      <c r="E650" s="7">
+        <v>8</v>
+      </c>
+      <c r="F650" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G650" s="8" t="s">
+        <v>434</v>
+      </c>
       <c r="J650" s="10"/>
       <c r="K650" s="10"/>
     </row>
-    <row r="651" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J651" s="10"/>
       <c r="K651" s="10"/>
     </row>
-    <row r="652" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J652" s="10"/>
       <c r="K652" s="10"/>
     </row>
-    <row r="653" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A653" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B653" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C653" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D653" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="E653" s="7">
+        <v>1</v>
+      </c>
+      <c r="F653" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="G653" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H653" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="J653" s="10"/>
       <c r="K653" s="10"/>
     </row>
-    <row r="654" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D654" s="37"/>
+      <c r="E654" s="7">
+        <v>2</v>
+      </c>
+      <c r="F654" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G654" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H654" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="J654" s="10"/>
       <c r="K654" s="10"/>
     </row>
-    <row r="655" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D655" s="37"/>
+      <c r="E655" s="7">
+        <v>3</v>
+      </c>
+      <c r="F655" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G655" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="J655" s="10"/>
       <c r="K655" s="10"/>
     </row>
-    <row r="656" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D656" s="37"/>
+      <c r="E656" s="7">
+        <v>4</v>
+      </c>
+      <c r="F656" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G656" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="J656" s="10"/>
       <c r="K656" s="10"/>
     </row>
-    <row r="657" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D657" s="37"/>
+      <c r="E657" s="7">
+        <v>5</v>
+      </c>
+      <c r="F657" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="G657" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="J657" s="10"/>
       <c r="K657" s="10"/>
     </row>
-    <row r="658" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D658" s="37"/>
+      <c r="E658" s="7">
+        <v>6</v>
+      </c>
+      <c r="F658" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="G658" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="H658" s="8" t="s">
+        <v>435</v>
+      </c>
       <c r="J658" s="10"/>
       <c r="K658" s="10"/>
     </row>
-    <row r="659" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="D659" s="37"/>
+      <c r="E659" s="7">
+        <v>7</v>
+      </c>
+      <c r="F659" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="G659" s="8" t="s">
+        <v>463</v>
+      </c>
       <c r="J659" s="10"/>
       <c r="K659" s="10"/>
     </row>
-    <row r="660" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J660" s="10"/>
       <c r="K660" s="10"/>
     </row>
-    <row r="661" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J661" s="10"/>
       <c r="K661" s="10"/>
     </row>
-    <row r="662" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A662" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B662" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C662" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D662" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="E662" s="7">
+        <v>1</v>
+      </c>
+      <c r="F662" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G662" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H662" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="J662" s="10"/>
       <c r="K662" s="10"/>
     </row>
-    <row r="663" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D663" s="37"/>
+      <c r="E663" s="7">
+        <v>2</v>
+      </c>
+      <c r="F663" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G663" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H663" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="J663" s="10"/>
       <c r="K663" s="10"/>
     </row>
-    <row r="664" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D664" s="37"/>
+      <c r="E664" s="7">
+        <v>3</v>
+      </c>
+      <c r="F664" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G664" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="J664" s="10"/>
       <c r="K664" s="10"/>
     </row>
-    <row r="665" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D665" s="37"/>
+      <c r="E665" s="7">
+        <v>4</v>
+      </c>
+      <c r="F665" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G665" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="J665" s="10"/>
       <c r="K665" s="10"/>
     </row>
-    <row r="666" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D666" s="37"/>
+      <c r="E666" s="7">
+        <v>5</v>
+      </c>
+      <c r="F666" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="G666" s="8" t="s">
+        <v>373</v>
+      </c>
       <c r="J666" s="10"/>
       <c r="K666" s="10"/>
     </row>
-    <row r="667" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="D667" s="37"/>
+      <c r="E667" s="7">
+        <v>6</v>
+      </c>
+      <c r="F667" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="G667" s="8" t="s">
+        <v>375</v>
+      </c>
       <c r="J667" s="10"/>
       <c r="K667" s="10"/>
     </row>
-    <row r="668" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D668" s="37"/>
+      <c r="E668" s="7">
+        <v>7</v>
+      </c>
+      <c r="F668" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="G668" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="J668" s="10"/>
       <c r="K668" s="10"/>
     </row>
-    <row r="669" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="D669" s="37"/>
+      <c r="E669" s="7">
+        <v>8</v>
+      </c>
+      <c r="F669" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="G669" s="8" t="s">
+        <v>387</v>
+      </c>
       <c r="J669" s="10"/>
       <c r="K669" s="10"/>
     </row>
-    <row r="670" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D670" s="37"/>
+      <c r="E670" s="7">
+        <v>9</v>
+      </c>
+      <c r="F670" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G670" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="H670" s="8" t="s">
+        <v>395</v>
+      </c>
       <c r="J670" s="10"/>
       <c r="K670" s="10"/>
     </row>
-    <row r="671" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D671" s="37"/>
+      <c r="E671" s="7">
+        <v>10</v>
+      </c>
+      <c r="F671" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="G671" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="H671" s="8" t="s">
+        <v>438</v>
+      </c>
       <c r="J671" s="10"/>
       <c r="K671" s="10"/>
     </row>
-    <row r="672" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D672" s="37"/>
+      <c r="E672" s="7">
+        <v>11</v>
+      </c>
+      <c r="F672" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="G672" s="8" t="s">
+        <v>390</v>
+      </c>
       <c r="J672" s="10"/>
       <c r="K672" s="10"/>
     </row>
-    <row r="673" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D673" s="37"/>
+      <c r="E673" s="7">
+        <v>12</v>
+      </c>
+      <c r="F673" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="G673" s="8" t="s">
+        <v>391</v>
+      </c>
       <c r="J673" s="10"/>
       <c r="K673" s="10"/>
     </row>
-    <row r="674" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D674" s="37"/>
+      <c r="E674" s="7">
+        <v>13</v>
+      </c>
+      <c r="F674" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="G674" s="8" t="s">
+        <v>398</v>
+      </c>
       <c r="J674" s="10"/>
       <c r="K674" s="10"/>
     </row>
-    <row r="675" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D675" s="37"/>
+      <c r="E675" s="7">
+        <v>14</v>
+      </c>
+      <c r="F675" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G675" s="8" t="s">
+        <v>440</v>
+      </c>
       <c r="J675" s="10"/>
       <c r="K675" s="10"/>
     </row>
-    <row r="676" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="D676" s="37"/>
+      <c r="E676" s="7">
+        <v>15</v>
+      </c>
+      <c r="F676" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="G676" s="8" t="s">
+        <v>445</v>
+      </c>
       <c r="J676" s="10"/>
       <c r="K676" s="10"/>
     </row>
-    <row r="677" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J677" s="10"/>
       <c r="K677" s="10"/>
     </row>
-    <row r="678" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J678" s="10"/>
       <c r="K678" s="10"/>
     </row>
-    <row r="679" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J679" s="10"/>
       <c r="K679" s="10"/>
     </row>
-    <row r="680" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A680" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B680" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C680" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D680" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="E680" s="7">
+        <v>1</v>
+      </c>
+      <c r="F680" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="G680" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H680" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="J680" s="10"/>
       <c r="K680" s="10"/>
     </row>
-    <row r="681" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D681" s="37"/>
+      <c r="E681" s="7">
+        <v>2</v>
+      </c>
+      <c r="F681" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G681" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H681" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="J681" s="10"/>
       <c r="K681" s="10"/>
     </row>
-    <row r="682" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D682" s="37"/>
+      <c r="E682" s="7">
+        <v>3</v>
+      </c>
+      <c r="F682" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G682" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="J682" s="10"/>
       <c r="K682" s="10"/>
     </row>
-    <row r="683" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D683" s="37"/>
+      <c r="E683" s="7">
+        <v>4</v>
+      </c>
+      <c r="F683" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G683" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="J683" s="10"/>
       <c r="K683" s="10"/>
     </row>
-    <row r="684" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D684" s="37"/>
+      <c r="E684" s="7">
+        <v>5</v>
+      </c>
+      <c r="F684" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="G684" s="8" t="s">
+        <v>447</v>
+      </c>
       <c r="J684" s="10"/>
       <c r="K684" s="10"/>
     </row>
-    <row r="685" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="D685" s="37"/>
+      <c r="E685" s="7">
+        <v>6</v>
+      </c>
+      <c r="F685" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="G685" s="8" t="s">
+        <v>404</v>
+      </c>
       <c r="J685" s="10"/>
       <c r="K685" s="10"/>
     </row>
-    <row r="686" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D686" s="37"/>
+      <c r="E686" s="7">
+        <v>7</v>
+      </c>
+      <c r="F686" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G686" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H686" s="8" t="s">
+        <v>406</v>
+      </c>
       <c r="J686" s="10"/>
       <c r="K686" s="10"/>
     </row>
-    <row r="687" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D687" s="37"/>
+      <c r="E687" s="7">
+        <v>8</v>
+      </c>
+      <c r="F687" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G687" s="8" t="s">
+        <v>433</v>
+      </c>
       <c r="J687" s="10"/>
       <c r="K687" s="10"/>
     </row>
-    <row r="688" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J688" s="10"/>
       <c r="K688" s="10"/>
     </row>
-    <row r="689" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J689" s="10"/>
       <c r="K689" s="10"/>
     </row>
-    <row r="690" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A690" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B690" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C690" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D690" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="E690" s="7">
+        <v>1</v>
+      </c>
+      <c r="F690" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="G690" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H690" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="K690" s="10"/>
     </row>
-    <row r="691" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D691" s="37"/>
+      <c r="E691" s="7">
+        <v>2</v>
+      </c>
+      <c r="F691" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G691" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H691" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="K691" s="10"/>
     </row>
-    <row r="692" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D692" s="37"/>
+      <c r="E692" s="7">
+        <v>3</v>
+      </c>
+      <c r="F692" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G692" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="K692" s="10"/>
     </row>
-    <row r="693" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D693" s="37"/>
+      <c r="E693" s="7">
+        <v>4</v>
+      </c>
+      <c r="F693" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G693" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="K693" s="10"/>
     </row>
-    <row r="694" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D694" s="37"/>
+      <c r="E694" s="7">
+        <v>5</v>
+      </c>
+      <c r="F694" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="G694" s="8" t="s">
+        <v>451</v>
+      </c>
       <c r="K694" s="10"/>
     </row>
-    <row r="695" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="D695" s="37"/>
+      <c r="E695" s="7">
+        <v>6</v>
+      </c>
+      <c r="F695" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="G695" s="8" t="s">
+        <v>414</v>
+      </c>
       <c r="K695" s="10"/>
     </row>
-    <row r="696" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D696" s="37"/>
+      <c r="E696" s="7">
+        <v>7</v>
+      </c>
+      <c r="F696" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G696" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H696" s="8" t="s">
+        <v>415</v>
+      </c>
       <c r="K696" s="10"/>
     </row>
-    <row r="697" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E697" s="7">
+        <v>8</v>
+      </c>
+      <c r="F697" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G697" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="J697" s="10"/>
       <c r="K697" s="10"/>
     </row>
-    <row r="698" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J698" s="10"/>
       <c r="K698" s="10"/>
     </row>
-    <row r="699" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A699" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B699" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C699" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D699" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="E699" s="7">
+        <v>1</v>
+      </c>
+      <c r="F699" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="G699" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H699" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="K699" s="10"/>
     </row>
-    <row r="700" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D700" s="37"/>
+      <c r="E700" s="7">
+        <v>2</v>
+      </c>
+      <c r="F700" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G700" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H700" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="K700" s="10"/>
     </row>
-    <row r="701" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D701" s="37"/>
+      <c r="E701" s="7">
+        <v>3</v>
+      </c>
+      <c r="F701" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G701" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="K701" s="10"/>
     </row>
-    <row r="702" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D702" s="37"/>
+      <c r="E702" s="7">
+        <v>4</v>
+      </c>
+      <c r="F702" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G702" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="K702" s="10"/>
     </row>
-    <row r="703" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D703" s="37"/>
+      <c r="E703" s="7">
+        <v>5</v>
+      </c>
+      <c r="F703" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="G703" s="8" t="s">
+        <v>440</v>
+      </c>
       <c r="K703" s="10"/>
     </row>
-    <row r="704" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="D704" s="37"/>
+      <c r="E704" s="7">
+        <v>6</v>
+      </c>
+      <c r="F704" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="G704" s="8" t="s">
+        <v>418</v>
+      </c>
       <c r="K704" s="10"/>
     </row>
-    <row r="705" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D705" s="37"/>
+      <c r="E705" s="7">
+        <v>7</v>
+      </c>
+      <c r="F705" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G705" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H705" s="8" t="s">
+        <v>415</v>
+      </c>
       <c r="K705" s="10"/>
     </row>
-    <row r="706" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D706" s="37"/>
+      <c r="E706" s="7">
+        <v>8</v>
+      </c>
+      <c r="F706" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G706" s="8" t="s">
+        <v>433</v>
+      </c>
       <c r="K706" s="10"/>
     </row>
-    <row r="707" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D707" s="34"/>
       <c r="K707" s="10"/>
     </row>
-    <row r="708" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K708" s="10"/>
     </row>
-    <row r="709" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A709" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B709" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C709" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D709" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="E709" s="7">
+        <v>1</v>
+      </c>
+      <c r="F709" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="G709" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H709" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="K709" s="10"/>
     </row>
-    <row r="710" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D710" s="37"/>
+      <c r="E710" s="7">
+        <v>2</v>
+      </c>
+      <c r="F710" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G710" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H710" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="K710" s="10"/>
     </row>
-    <row r="711" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D711" s="37"/>
+      <c r="E711" s="7">
+        <v>3</v>
+      </c>
+      <c r="F711" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G711" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="K711" s="10"/>
     </row>
-    <row r="712" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B712" s="20"/>
+      <c r="D712" s="37"/>
+      <c r="E712" s="7">
+        <v>4</v>
+      </c>
+      <c r="F712" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G712" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="K712" s="10"/>
     </row>
-    <row r="713" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D713" s="37"/>
+      <c r="E713" s="7">
+        <v>5</v>
+      </c>
+      <c r="F713" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="G713" s="8" t="s">
+        <v>440</v>
+      </c>
       <c r="K713" s="10"/>
     </row>
-    <row r="714" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="D714" s="37"/>
+      <c r="E714" s="7">
+        <v>6</v>
+      </c>
+      <c r="F714" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="G714" s="8" t="s">
+        <v>404</v>
+      </c>
       <c r="K714" s="10"/>
     </row>
-    <row r="715" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D715" s="37"/>
+      <c r="E715" s="7">
+        <v>7</v>
+      </c>
+      <c r="F715" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G715" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H715" s="8" t="s">
+        <v>456</v>
+      </c>
       <c r="K715" s="10"/>
     </row>
-    <row r="716" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D716" s="37"/>
+      <c r="E716" s="7">
+        <v>8</v>
+      </c>
+      <c r="F716" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G716" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="H716" s="7"/>
       <c r="K716" s="10"/>
     </row>
-    <row r="717" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D717" s="7"/>
+      <c r="F717" s="7"/>
+      <c r="G717" s="7"/>
+      <c r="H717" s="7"/>
       <c r="K717" s="10"/>
     </row>
-    <row r="718" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K718" s="10"/>
     </row>
-    <row r="719" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A719" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B719" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C719" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D719" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="E719" s="7">
+        <v>1</v>
+      </c>
+      <c r="F719" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="G719" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H719" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="K719" s="10"/>
     </row>
-    <row r="720" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D720" s="37"/>
+      <c r="E720" s="7">
+        <v>2</v>
+      </c>
+      <c r="F720" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G720" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H720" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="K720" s="10"/>
     </row>
-    <row r="721" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D721" s="37"/>
+      <c r="E721" s="7">
+        <v>3</v>
+      </c>
+      <c r="F721" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G721" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="K721" s="10"/>
     </row>
-    <row r="722" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D722" s="37"/>
+      <c r="E722" s="7">
+        <v>4</v>
+      </c>
+      <c r="F722" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G722" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="K722" s="10"/>
     </row>
-    <row r="723" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D723" s="37"/>
+      <c r="E723" s="7">
+        <v>5</v>
+      </c>
+      <c r="F723" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="G723" s="8" t="s">
+        <v>440</v>
+      </c>
       <c r="K723" s="10"/>
     </row>
-    <row r="724" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="D724" s="37"/>
+      <c r="E724" s="7">
+        <v>6</v>
+      </c>
+      <c r="F724" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G724" s="8" t="s">
+        <v>423</v>
+      </c>
       <c r="K724" s="10"/>
     </row>
-    <row r="725" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D725" s="37"/>
+      <c r="E725" s="7">
+        <v>7</v>
+      </c>
+      <c r="F725" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="G725" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="H725" s="8" t="s">
+        <v>425</v>
+      </c>
       <c r="K725" s="10"/>
     </row>
-    <row r="726" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D726" s="37"/>
+      <c r="E726" s="7">
+        <v>8</v>
+      </c>
+      <c r="F726" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G726" s="8" t="s">
+        <v>434</v>
+      </c>
       <c r="K726" s="10"/>
     </row>
-    <row r="727" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K727" s="10"/>
     </row>
-    <row r="728" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K728" s="10"/>
     </row>
-    <row r="729" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K729" s="10"/>
     </row>
-    <row r="730" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A730" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="B730" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C730" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D730" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="E730" s="7">
+        <v>1</v>
+      </c>
+      <c r="F730" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="G730" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H730" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="K730" s="10"/>
     </row>
-    <row r="731" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D731" s="37"/>
+      <c r="E731" s="7">
+        <v>2</v>
+      </c>
+      <c r="F731" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G731" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H731" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="K731" s="10"/>
     </row>
-    <row r="732" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D732" s="37"/>
+      <c r="E732" s="7">
+        <v>3</v>
+      </c>
+      <c r="F732" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G732" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="K732" s="10"/>
     </row>
+    <row r="733" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D733" s="37"/>
+      <c r="E733" s="7">
+        <v>4</v>
+      </c>
+      <c r="F733" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G733" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="K733" s="10"/>
+    </row>
+    <row r="734" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D734" s="37"/>
+      <c r="E734" s="7">
+        <v>5</v>
+      </c>
+      <c r="F734" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="G734" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="735" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D735" s="37"/>
+      <c r="E735" s="7">
+        <v>6</v>
+      </c>
+      <c r="F735" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="G735" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="H735" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="736" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="D736" s="37"/>
+      <c r="E736" s="7">
+        <v>7</v>
+      </c>
+      <c r="F736" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="G736" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A739" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B739" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C739" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D739" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="E739" s="7">
+        <v>1</v>
+      </c>
+      <c r="F739" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="G739" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H739" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D740" s="37"/>
+      <c r="E740" s="7">
+        <v>2</v>
+      </c>
+      <c r="F740" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G740" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H740" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D741" s="37"/>
+      <c r="E741" s="7">
+        <v>3</v>
+      </c>
+      <c r="F741" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G741" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D742" s="37"/>
+      <c r="E742" s="7">
+        <v>4</v>
+      </c>
+      <c r="F742" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G742" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D743" s="37"/>
+      <c r="E743" s="7">
+        <v>5</v>
+      </c>
+      <c r="F743" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="G743" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D744" s="37"/>
+      <c r="E744" s="7">
+        <v>6</v>
+      </c>
+      <c r="F744" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G744" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A747" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="B747" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C747" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D747" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="E747" s="7">
+        <v>1</v>
+      </c>
+      <c r="F747" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="G747" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H747" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D748" s="37"/>
+      <c r="E748" s="7">
+        <v>2</v>
+      </c>
+      <c r="F748" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G748" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H748" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D749" s="37"/>
+      <c r="E749" s="7">
+        <v>3</v>
+      </c>
+      <c r="F749" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G749" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D750" s="37"/>
+      <c r="E750" s="7">
+        <v>4</v>
+      </c>
+      <c r="F750" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G750" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D751" s="37"/>
+      <c r="E751" s="7">
+        <v>5</v>
+      </c>
+      <c r="F751" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="G751" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D752" s="37"/>
+      <c r="E752" s="7">
+        <v>6</v>
+      </c>
+      <c r="F752" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="G752" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="H752" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D753" s="37"/>
+      <c r="E753" s="7">
+        <v>7</v>
+      </c>
+      <c r="F753" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="G753" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="H753" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D754" s="37"/>
+      <c r="E754" s="7">
+        <v>8</v>
+      </c>
+      <c r="F754" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G754" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D755" s="37"/>
+      <c r="E755" s="7">
+        <v>9</v>
+      </c>
+      <c r="F755" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="G755" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="H755" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D756" s="37"/>
+      <c r="E756" s="7">
+        <v>10</v>
+      </c>
+      <c r="F756" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="G756" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H756" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D757" s="37"/>
+      <c r="E757" s="7">
+        <v>11</v>
+      </c>
+      <c r="F757" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G757" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A760" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="B760" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C760" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D760" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="E760" s="7">
+        <v>1</v>
+      </c>
+      <c r="F760" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="G760" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H760" s="36" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D761" s="37"/>
+      <c r="E761" s="7">
+        <v>2</v>
+      </c>
+      <c r="F761" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G761" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H761" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D762" s="37"/>
+      <c r="E762" s="7">
+        <v>3</v>
+      </c>
+      <c r="F762" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G762" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D763" s="37"/>
+      <c r="E763" s="7">
+        <v>4</v>
+      </c>
+      <c r="F763" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G763" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D764" s="37"/>
+      <c r="E764" s="7">
+        <v>5</v>
+      </c>
+      <c r="F764" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="G764" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D765" s="37"/>
+      <c r="E765" s="7">
+        <v>6</v>
+      </c>
+      <c r="F765" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="G765" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="H765" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D766" s="37"/>
+      <c r="E766" s="7">
+        <v>7</v>
+      </c>
+      <c r="F766" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="G766" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="H766" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D767" s="37"/>
+      <c r="E767" s="7">
+        <v>8</v>
+      </c>
+      <c r="F767" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G767" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D768" s="37"/>
+      <c r="E768" s="7">
+        <v>9</v>
+      </c>
+      <c r="F768" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="G768" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="H768" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D769" s="37"/>
+      <c r="E769" s="7">
+        <v>10</v>
+      </c>
+      <c r="F769" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="G769" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H769" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D770" s="37"/>
+      <c r="E770" s="7">
+        <v>11</v>
+      </c>
+      <c r="F770" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G770" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D771" s="37"/>
+      <c r="E771" s="7">
+        <v>12</v>
+      </c>
+      <c r="F771" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="G771" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D772" s="37"/>
+      <c r="E772" s="7">
+        <v>13</v>
+      </c>
+      <c r="F772" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="G772" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A775" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="B775" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C775" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D775" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="E775" s="7">
+        <v>1</v>
+      </c>
+      <c r="F775" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="G775" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H775" s="36" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D776" s="37"/>
+      <c r="E776" s="7">
+        <v>2</v>
+      </c>
+      <c r="F776" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G776" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H776" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D777" s="37"/>
+      <c r="E777" s="7">
+        <v>3</v>
+      </c>
+      <c r="F777" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G777" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D778" s="37"/>
+      <c r="E778" s="7">
+        <v>4</v>
+      </c>
+      <c r="F778" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G778" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D779" s="37"/>
+      <c r="E779" s="7">
+        <v>5</v>
+      </c>
+      <c r="F779" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="G779" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D780" s="37"/>
+      <c r="E780" s="7">
+        <v>6</v>
+      </c>
+      <c r="F780" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="G780" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D781" s="37"/>
+      <c r="E781" s="7">
+        <v>7</v>
+      </c>
+      <c r="F781" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="G781" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E782" s="7">
+        <v>8</v>
+      </c>
+      <c r="F782" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G782" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A786" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="B786" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C786" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D786" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="E786" s="7">
+        <v>1</v>
+      </c>
+      <c r="F786" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="G786" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H786" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D787" s="37"/>
+      <c r="E787" s="7">
+        <v>2</v>
+      </c>
+      <c r="F787" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G787" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H787" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D788" s="37"/>
+      <c r="E788" s="7">
+        <v>3</v>
+      </c>
+      <c r="F788" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G788" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D789" s="37"/>
+      <c r="E789" s="7">
+        <v>4</v>
+      </c>
+      <c r="F789" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G789" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D790" s="37"/>
+      <c r="E790" s="7">
+        <v>5</v>
+      </c>
+      <c r="F790" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="G790" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="D791" s="37"/>
+      <c r="E791" s="7">
+        <v>6</v>
+      </c>
+      <c r="F791" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="G791" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D792" s="37"/>
+      <c r="E792" s="7">
+        <v>7</v>
+      </c>
+      <c r="F792" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G792" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H792" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D793" s="37"/>
+      <c r="E793" s="7">
+        <v>8</v>
+      </c>
+      <c r="F793" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G793" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A796" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="B796" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C796" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D796" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="E796" s="7">
+        <v>1</v>
+      </c>
+      <c r="F796" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="G796" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H796" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D797" s="37"/>
+      <c r="E797" s="7">
+        <v>2</v>
+      </c>
+      <c r="F797" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G797" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H797" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D798" s="37"/>
+      <c r="E798" s="7">
+        <v>3</v>
+      </c>
+      <c r="F798" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G798" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D799" s="37"/>
+      <c r="E799" s="7">
+        <v>4</v>
+      </c>
+      <c r="F799" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G799" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D800" s="37"/>
+      <c r="E800" s="7">
+        <v>5</v>
+      </c>
+      <c r="F800" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="G800" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="D801" s="37"/>
+      <c r="E801" s="7">
+        <v>6</v>
+      </c>
+      <c r="F801" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="G801" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D802" s="37"/>
+      <c r="E802" s="7">
+        <v>7</v>
+      </c>
+      <c r="F802" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G802" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H802" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E803" s="7">
+        <v>8</v>
+      </c>
+      <c r="F803" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G803" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A806" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B806" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C806" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D806" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="E806" s="7">
+        <v>1</v>
+      </c>
+      <c r="F806" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="G806" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H806" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="807" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D807" s="37"/>
+      <c r="E807" s="7">
+        <v>2</v>
+      </c>
+      <c r="F807" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G807" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H807" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D808" s="37"/>
+      <c r="E808" s="7">
+        <v>3</v>
+      </c>
+      <c r="F808" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G808" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D809" s="37"/>
+      <c r="E809" s="7">
+        <v>4</v>
+      </c>
+      <c r="F809" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G809" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="810" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D810" s="37"/>
+      <c r="E810" s="7">
+        <v>5</v>
+      </c>
+      <c r="F810" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="G810" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="D811" s="37"/>
+      <c r="E811" s="7">
+        <v>6</v>
+      </c>
+      <c r="F811" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="G811" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D812" s="37"/>
+      <c r="E812" s="7">
+        <v>7</v>
+      </c>
+      <c r="F812" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G812" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H812" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D813" s="37"/>
+      <c r="E813" s="7">
+        <v>8</v>
+      </c>
+      <c r="F813" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G813" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="816" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A816" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B816" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C816" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D816" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="E816" s="7">
+        <v>1</v>
+      </c>
+      <c r="F816" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="G816" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H816" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D817" s="37"/>
+      <c r="E817" s="7">
+        <v>2</v>
+      </c>
+      <c r="F817" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G817" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H817" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D818" s="37"/>
+      <c r="E818" s="7">
+        <v>3</v>
+      </c>
+      <c r="F818" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G818" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D819" s="37"/>
+      <c r="E819" s="7">
+        <v>4</v>
+      </c>
+      <c r="F819" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G819" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D820" s="37"/>
+      <c r="E820" s="7">
+        <v>5</v>
+      </c>
+      <c r="F820" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="G820" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="D821" s="37"/>
+      <c r="E821" s="7">
+        <v>6</v>
+      </c>
+      <c r="F821" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="G821" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D822" s="37"/>
+      <c r="E822" s="7">
+        <v>7</v>
+      </c>
+      <c r="F822" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G822" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H822" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="823" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D823" s="37"/>
+      <c r="E823" s="7">
+        <v>8</v>
+      </c>
+      <c r="F823" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G823" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="H823" s="7"/>
+    </row>
+    <row r="826" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A826" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B826" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C826" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D826" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="E826" s="7">
+        <v>1</v>
+      </c>
+      <c r="F826" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="G826" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H826" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="827" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D827" s="37"/>
+      <c r="E827" s="7">
+        <v>2</v>
+      </c>
+      <c r="F827" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G827" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H827" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="828" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D828" s="37"/>
+      <c r="E828" s="7">
+        <v>3</v>
+      </c>
+      <c r="F828" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G828" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D829" s="37"/>
+      <c r="E829" s="7">
+        <v>4</v>
+      </c>
+      <c r="F829" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G829" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="830" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D830" s="37"/>
+      <c r="E830" s="7">
+        <v>5</v>
+      </c>
+      <c r="F830" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="G830" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D831" s="37"/>
+      <c r="E831" s="7">
+        <v>6</v>
+      </c>
+      <c r="F831" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="G831" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="H831" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="832" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D832" s="37"/>
+      <c r="E832" s="7">
+        <v>7</v>
+      </c>
+      <c r="F832" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="G832" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="835" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A835" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B835" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C835" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D835" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="E835" s="7">
+        <v>1</v>
+      </c>
+      <c r="F835" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="G835" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H835" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="836" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D836" s="37"/>
+      <c r="E836" s="7">
+        <v>2</v>
+      </c>
+      <c r="F836" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G836" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H836" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="837" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D837" s="37"/>
+      <c r="E837" s="7">
+        <v>3</v>
+      </c>
+      <c r="F837" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G837" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="838" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D838" s="37"/>
+      <c r="E838" s="7">
+        <v>4</v>
+      </c>
+      <c r="F838" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G838" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="839" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D839" s="37"/>
+      <c r="E839" s="7">
+        <v>5</v>
+      </c>
+      <c r="F839" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="G839" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="840" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="D840" s="37"/>
+      <c r="E840" s="7">
+        <v>6</v>
+      </c>
+      <c r="F840" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G840" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="841" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D841" s="37"/>
+      <c r="E841" s="7">
+        <v>7</v>
+      </c>
+      <c r="F841" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="G841" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="H841" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="842" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D842" s="37"/>
+      <c r="E842" s="7">
+        <v>8</v>
+      </c>
+      <c r="F842" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G842" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B844" s="20"/>
+    </row>
+    <row r="845" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A845" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="B845" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C845" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D845" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="E845" s="7">
+        <v>1</v>
+      </c>
+      <c r="F845" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="G845" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H845" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="846" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D846" s="37"/>
+      <c r="E846" s="7">
+        <v>2</v>
+      </c>
+      <c r="F846" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G846" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H846" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="847" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D847" s="37"/>
+      <c r="E847" s="7">
+        <v>3</v>
+      </c>
+      <c r="F847" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G847" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="848" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D848" s="37"/>
+      <c r="E848" s="7">
+        <v>4</v>
+      </c>
+      <c r="F848" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G848" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="849" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D849" s="37"/>
+      <c r="E849" s="7">
+        <v>5</v>
+      </c>
+      <c r="F849" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="G849" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="850" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D850" s="37"/>
+      <c r="E850" s="7">
+        <v>6</v>
+      </c>
+      <c r="F850" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="G850" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="851" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D851" s="37"/>
+      <c r="E851" s="7">
+        <v>7</v>
+      </c>
+      <c r="F851" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G851" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="854" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A854" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="B854" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C854" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D854" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="E854" s="7">
+        <v>1</v>
+      </c>
+      <c r="F854" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="G854" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H854" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="855" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D855" s="37"/>
+      <c r="E855" s="7">
+        <v>2</v>
+      </c>
+      <c r="F855" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G855" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H855" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="856" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D856" s="37"/>
+      <c r="E856" s="7">
+        <v>3</v>
+      </c>
+      <c r="F856" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G856" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="857" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D857" s="37"/>
+      <c r="E857" s="7">
+        <v>4</v>
+      </c>
+      <c r="F857" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G857" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="858" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D858" s="37"/>
+      <c r="E858" s="7">
+        <v>5</v>
+      </c>
+      <c r="F858" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="G858" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="859" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D859" s="37"/>
+      <c r="E859" s="7">
+        <v>6</v>
+      </c>
+      <c r="F859" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G859" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="862" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A862" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B862" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C862" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D862" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="E862" s="7">
+        <v>1</v>
+      </c>
+      <c r="F862" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="G862" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H862" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="863" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D863" s="37"/>
+      <c r="E863" s="7">
+        <v>2</v>
+      </c>
+      <c r="F863" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G863" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H863" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="864" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D864" s="37"/>
+      <c r="E864" s="7">
+        <v>3</v>
+      </c>
+      <c r="F864" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G864" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="865" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D865" s="37"/>
+      <c r="E865" s="7">
+        <v>4</v>
+      </c>
+      <c r="F865" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G865" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="866" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D866" s="37"/>
+      <c r="E866" s="7">
+        <v>5</v>
+      </c>
+      <c r="F866" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="G866" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="867" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D867" s="37"/>
+      <c r="E867" s="7">
+        <v>6</v>
+      </c>
+      <c r="F867" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="G867" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="H867" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="868" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D868" s="37"/>
+      <c r="E868" s="7">
+        <v>7</v>
+      </c>
+      <c r="F868" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G868" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="869" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D869" s="37"/>
+      <c r="E869" s="7">
+        <v>8</v>
+      </c>
+      <c r="F869" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="G869" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="870" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E870" s="7">
+        <v>9</v>
+      </c>
+      <c r="F870" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="G870" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="873" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A873" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B873" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C873" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D873" s="37" t="s">
+        <v>541</v>
+      </c>
+      <c r="E873" s="7">
+        <v>1</v>
+      </c>
+      <c r="F873" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="G873" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H873" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="874" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D874" s="37"/>
+      <c r="E874" s="7">
+        <v>2</v>
+      </c>
+      <c r="F874" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G874" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H874" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="875" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D875" s="37"/>
+      <c r="E875" s="7">
+        <v>3</v>
+      </c>
+      <c r="F875" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G875" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="876" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D876" s="37"/>
+      <c r="E876" s="7">
+        <v>4</v>
+      </c>
+      <c r="F876" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G876" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="877" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D877" s="37"/>
+      <c r="E877" s="7">
+        <v>5</v>
+      </c>
+      <c r="F877" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="G877" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="878" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="D878" s="37"/>
+      <c r="E878" s="7">
+        <v>6</v>
+      </c>
+      <c r="F878" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G878" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="879" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D879" s="37"/>
+      <c r="E879" s="7">
+        <v>7</v>
+      </c>
+      <c r="F879" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="G879" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="H879" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="880" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D880" s="37"/>
+      <c r="E880" s="7">
+        <v>8</v>
+      </c>
+      <c r="F880" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G880" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="883" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A883" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="B883" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C883" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D883" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="E883" s="7">
+        <v>1</v>
+      </c>
+      <c r="F883" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="G883" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H883" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="884" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D884" s="37"/>
+      <c r="E884" s="7">
+        <v>2</v>
+      </c>
+      <c r="F884" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G884" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H884" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="885" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D885" s="37"/>
+      <c r="E885" s="7">
+        <v>3</v>
+      </c>
+      <c r="F885" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G885" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="886" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D886" s="37"/>
+      <c r="E886" s="7">
+        <v>4</v>
+      </c>
+      <c r="F886" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G886" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="887" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D887" s="37"/>
+      <c r="E887" s="7">
+        <v>5</v>
+      </c>
+      <c r="F887" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="G887" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="888" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D888" s="37"/>
+      <c r="E888" s="7">
+        <v>6</v>
+      </c>
+      <c r="F888" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="G888" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="H888" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="889" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D889" s="37"/>
+      <c r="E889" s="7">
+        <v>7</v>
+      </c>
+      <c r="F889" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="G889" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="892" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A892" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B892" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C892" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D892" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="E892" s="7">
+        <v>1</v>
+      </c>
+      <c r="F892" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="G892" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H892" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="893" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D893" s="37"/>
+      <c r="E893" s="7">
+        <v>2</v>
+      </c>
+      <c r="F893" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G893" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H893" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="894" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D894" s="37"/>
+      <c r="E894" s="7">
+        <v>3</v>
+      </c>
+      <c r="F894" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G894" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="895" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D895" s="37"/>
+      <c r="E895" s="7">
+        <v>4</v>
+      </c>
+      <c r="F895" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G895" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="896" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D896" s="37"/>
+      <c r="E896" s="7">
+        <v>5</v>
+      </c>
+      <c r="F896" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="G896" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="897" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D897" s="37"/>
+      <c r="E897" s="7">
+        <v>6</v>
+      </c>
+      <c r="F897" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="G897" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="H897" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="898" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D898" s="37"/>
+      <c r="E898" s="7">
+        <v>7</v>
+      </c>
+      <c r="F898" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="G898" s="8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="899" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D899" s="37"/>
+      <c r="E899" s="7">
+        <v>8</v>
+      </c>
+      <c r="F899" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="G899" s="8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="902" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A902" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B902" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C902" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D902" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="F902" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="G902" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H902" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="903" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D903" s="37"/>
+      <c r="F903" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G903" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H903" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="904" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D904" s="37"/>
+      <c r="F904" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G904" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="905" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D905" s="37"/>
+      <c r="F905" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G905" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="906" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D906" s="37"/>
+      <c r="F906" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="G906" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="907" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D907" s="37"/>
+      <c r="F907" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="G907" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="H907" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="908" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D908" s="37"/>
+      <c r="F908" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="G908" s="8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="911" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A911" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B911" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C911" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D911" s="37" t="s">
+        <v>556</v>
+      </c>
+      <c r="E911" s="7">
+        <v>1</v>
+      </c>
+      <c r="F911" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="G911" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H911" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="912" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D912" s="37"/>
+      <c r="E912" s="7">
+        <v>2</v>
+      </c>
+      <c r="F912" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G912" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H912" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="913" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D913" s="37"/>
+      <c r="E913" s="7">
+        <v>3</v>
+      </c>
+      <c r="F913" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G913" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="914" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D914" s="37"/>
+      <c r="E914" s="7">
+        <v>4</v>
+      </c>
+      <c r="F914" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G914" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="915" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D915" s="37"/>
+      <c r="E915" s="7">
+        <v>5</v>
+      </c>
+      <c r="F915" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="G915" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="916" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="D916" s="37"/>
+      <c r="E916" s="7">
+        <v>6</v>
+      </c>
+      <c r="F916" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="G916" s="8" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="917" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D917" s="37"/>
+      <c r="E917" s="7">
+        <v>7</v>
+      </c>
+      <c r="F917" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="G917" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="H917" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="920" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A920" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="B920" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C920" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D920" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="E920" s="7">
+        <v>1</v>
+      </c>
+      <c r="F920" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="G920" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H920" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="921" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D921" s="37"/>
+      <c r="E921" s="7">
+        <v>2</v>
+      </c>
+      <c r="F921" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G921" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H921" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="922" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D922" s="37"/>
+      <c r="E922" s="7">
+        <v>3</v>
+      </c>
+      <c r="F922" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G922" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="923" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D923" s="37"/>
+      <c r="E923" s="7">
+        <v>4</v>
+      </c>
+      <c r="F923" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G923" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="924" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D924" s="37"/>
+      <c r="E924" s="7">
+        <v>5</v>
+      </c>
+      <c r="F924" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="G924" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="925" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D925" s="37"/>
+      <c r="E925" s="7">
+        <v>6</v>
+      </c>
+      <c r="F925" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="G925" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="926" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D926" s="37"/>
+      <c r="E926" s="7">
+        <v>7</v>
+      </c>
+      <c r="F926" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="G926" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="927" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D927" s="37"/>
+      <c r="E927" s="7">
+        <v>8</v>
+      </c>
+      <c r="F927" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="G927" s="8" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="930" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A930" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="B930" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C930" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D930" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="E930" s="7">
+        <v>1</v>
+      </c>
+      <c r="F930" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="G930" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H930" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D931" s="37"/>
+      <c r="E931" s="7">
+        <v>2</v>
+      </c>
+      <c r="F931" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G931" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H931" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="932" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D932" s="37"/>
+      <c r="E932" s="7">
+        <v>3</v>
+      </c>
+      <c r="F932" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G932" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D933" s="37"/>
+      <c r="E933" s="7">
+        <v>4</v>
+      </c>
+      <c r="F933" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G933" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="934" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D934" s="37"/>
+      <c r="E934" s="7">
+        <v>5</v>
+      </c>
+      <c r="F934" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="G934" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="935" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D935" s="37"/>
+      <c r="E935" s="7">
+        <v>6</v>
+      </c>
+      <c r="F935" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="G935" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="H935" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="936" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D936" s="37"/>
+      <c r="E936" s="7">
+        <v>7</v>
+      </c>
+      <c r="F936" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G936" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="937" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D937" s="37"/>
+      <c r="E937" s="7">
+        <v>8</v>
+      </c>
+      <c r="F937" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="G937" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="938" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E938" s="7">
+        <v>9</v>
+      </c>
+      <c r="F938" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="G938" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="78">
+    <mergeCell ref="D835:D842"/>
+    <mergeCell ref="D854:D859"/>
+    <mergeCell ref="D862:D869"/>
+    <mergeCell ref="D845:D851"/>
+    <mergeCell ref="D930:D937"/>
+    <mergeCell ref="D719:D726"/>
+    <mergeCell ref="D662:D676"/>
+    <mergeCell ref="D690:D696"/>
+    <mergeCell ref="D547:D552"/>
+    <mergeCell ref="D555:D560"/>
+    <mergeCell ref="D572:D577"/>
+    <mergeCell ref="D580:D585"/>
+    <mergeCell ref="D603:D609"/>
+    <mergeCell ref="D612:D619"/>
+    <mergeCell ref="D622:D629"/>
     <mergeCell ref="D563:D568"/>
-    <mergeCell ref="D588:D599"/>
+    <mergeCell ref="D588:D600"/>
+    <mergeCell ref="D653:D659"/>
+    <mergeCell ref="D680:D687"/>
+    <mergeCell ref="D699:D706"/>
+    <mergeCell ref="D709:D716"/>
+    <mergeCell ref="D490:D500"/>
+    <mergeCell ref="D503:D512"/>
+    <mergeCell ref="D643:D650"/>
+    <mergeCell ref="D514:D524"/>
     <mergeCell ref="D527:D534"/>
     <mergeCell ref="D537:D544"/>
-    <mergeCell ref="D321:D333"/>
-    <mergeCell ref="D337:D352"/>
-    <mergeCell ref="D478:D487"/>
-    <mergeCell ref="D490:D500"/>
-    <mergeCell ref="D503:D512"/>
+    <mergeCell ref="D632:D639"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="D2:D10"/>
@@ -11861,15 +16249,12 @@
     <mergeCell ref="D129:D136"/>
     <mergeCell ref="D139:D148"/>
     <mergeCell ref="D151:D160"/>
+    <mergeCell ref="D478:D487"/>
     <mergeCell ref="D163:D194"/>
     <mergeCell ref="D197:D205"/>
     <mergeCell ref="D209:D218"/>
     <mergeCell ref="D222:D231"/>
     <mergeCell ref="D234:D249"/>
-    <mergeCell ref="D547:D552"/>
-    <mergeCell ref="D555:D560"/>
-    <mergeCell ref="D572:D577"/>
-    <mergeCell ref="D580:D585"/>
     <mergeCell ref="D252:D270"/>
     <mergeCell ref="D443:D475"/>
     <mergeCell ref="D433:D440"/>
@@ -11881,23 +16266,40 @@
     <mergeCell ref="D355:D375"/>
     <mergeCell ref="D378:D388"/>
     <mergeCell ref="D391:D409"/>
-    <mergeCell ref="D514:D524"/>
+    <mergeCell ref="D321:D333"/>
+    <mergeCell ref="D337:D352"/>
+    <mergeCell ref="D911:D917"/>
+    <mergeCell ref="D902:D908"/>
+    <mergeCell ref="D920:D927"/>
+    <mergeCell ref="D730:D736"/>
+    <mergeCell ref="D739:D744"/>
+    <mergeCell ref="D892:D899"/>
+    <mergeCell ref="D806:D813"/>
+    <mergeCell ref="D816:D823"/>
+    <mergeCell ref="D826:D832"/>
+    <mergeCell ref="D747:D757"/>
+    <mergeCell ref="D760:D772"/>
+    <mergeCell ref="D775:D781"/>
+    <mergeCell ref="D786:D793"/>
+    <mergeCell ref="D796:D802"/>
+    <mergeCell ref="D873:D880"/>
+    <mergeCell ref="D883:D889"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B11:B610" xr:uid="{AFF23500-95E7-47BF-9178-11CBABB7C7B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B11:B612 B622 B643 B653 B662 B680 B690 B699 B712 B719 B709 B632 B730 B739 B747 B760 B775 B786 B796 B806 B816 B826 B835 B844:B845 B854 B862 B873 B883 B892 B902 B911 B920 B930" xr:uid="{AFF23500-95E7-47BF-9178-11CBABB7C7B3}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J483:J687" xr:uid="{01AD6F3F-ED6E-4BD4-A56A-48A431009C35}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J483:J689 J697:J698" xr:uid="{01AD6F3F-ED6E-4BD4-A56A-48A431009C35}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J482" xr:uid="{9ABCAB91-EA72-4653-9CA8-9A382BDAE099}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K732" xr:uid="{448852A5-7DBD-44F3-839F-CC0FA067F14F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C739 C747 C2:C733 C760 C775 C786 C796 C806 C816 C826 C835 C844:C845 C854 C862 C873 C883 C892 C902 C911 C920 C930" xr:uid="{031CA33F-B44E-435C-B09A-6D90FA8E5898}">
+      <formula1>"Bharath, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K733" xr:uid="{448852A5-7DBD-44F3-839F-CC0FA067F14F}">
       <formula1>"Pass, Fail, Blocked"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C732" xr:uid="{031CA33F-B44E-435C-B09A-6D90FA8E5898}">
-      <formula1>"Bharath, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -11940,8 +16342,41 @@
     <hyperlink ref="H555" r:id="rId37" xr:uid="{69753ACD-EBFA-4C3A-AE6B-40041C97BCA3}"/>
     <hyperlink ref="H563" r:id="rId38" xr:uid="{C0CA47C2-F65F-44E6-89B3-280C5FA2DBAF}"/>
     <hyperlink ref="H588" r:id="rId39" xr:uid="{54CF0BF5-23D1-4ADF-8185-03CB4E8D8CD0}"/>
+    <hyperlink ref="H603" r:id="rId40" xr:uid="{1E07EA2D-F090-4FC9-A3A0-7D37E1BA5100}"/>
+    <hyperlink ref="H612" r:id="rId41" xr:uid="{29307381-49AF-40D3-9AD7-CCF71B5C8AFC}"/>
+    <hyperlink ref="H622" r:id="rId42" xr:uid="{80AD85A4-3150-4AB1-B472-C0FFCE081981}"/>
+    <hyperlink ref="H653" r:id="rId43" xr:uid="{35DC0143-851F-4376-ADD1-B198A3C74AE5}"/>
+    <hyperlink ref="H662" r:id="rId44" xr:uid="{68ABA5FD-E09F-492F-B6B6-3BE33225B782}"/>
+    <hyperlink ref="H680" r:id="rId45" xr:uid="{271B5D1E-0513-40C3-966B-68ECC857B65D}"/>
+    <hyperlink ref="H690" r:id="rId46" xr:uid="{5824B9FC-F0FD-4AA1-906B-D530FF2D48DC}"/>
+    <hyperlink ref="H699" r:id="rId47" xr:uid="{7AD271C9-903C-4A93-A3B0-572C268E639F}"/>
+    <hyperlink ref="H719" r:id="rId48" xr:uid="{33B65382-AA16-4B8F-B9BC-AABB39FFA508}"/>
+    <hyperlink ref="H709" r:id="rId49" xr:uid="{30270A88-8056-465B-99F9-E0B262B83728}"/>
+    <hyperlink ref="H643" r:id="rId50" xr:uid="{0847E098-6CFE-4104-87E2-4FBB47A35BC0}"/>
+    <hyperlink ref="H632" r:id="rId51" xr:uid="{32E2EEA5-C129-4D4E-AF97-6CC25B27743E}"/>
+    <hyperlink ref="H730" r:id="rId52" xr:uid="{FFA7D524-311A-4A45-9291-0D6C82933DF4}"/>
+    <hyperlink ref="H760" r:id="rId53" xr:uid="{C790BC74-D779-4CD0-9AD5-72FA9AED5704}"/>
+    <hyperlink ref="H747" r:id="rId54" xr:uid="{C4385E01-20D0-4A34-BF88-E1D7236040DD}"/>
+    <hyperlink ref="H775" r:id="rId55" xr:uid="{15073F65-91D2-4C3B-880E-866155F6C104}"/>
+    <hyperlink ref="H786" r:id="rId56" xr:uid="{93003D0C-95D0-43EA-AABB-CFA95EF31C96}"/>
+    <hyperlink ref="H796" r:id="rId57" xr:uid="{0EE6362E-3E14-43BB-9ADC-E68B508389D2}"/>
+    <hyperlink ref="H806" r:id="rId58" xr:uid="{133141B1-373D-4398-8448-17B16F5FA570}"/>
+    <hyperlink ref="H816" r:id="rId59" xr:uid="{340A659C-3930-46A3-8C58-91BC31E3DA23}"/>
+    <hyperlink ref="H826" r:id="rId60" xr:uid="{9F546D8B-7AD7-4616-A778-505739E68383}"/>
+    <hyperlink ref="H739" r:id="rId61" xr:uid="{25C5F045-3BB8-4B6D-840D-1D3664576C4B}"/>
+    <hyperlink ref="H835" r:id="rId62" xr:uid="{D8017F35-6F1A-4129-9639-144E727D5665}"/>
+    <hyperlink ref="H845" r:id="rId63" xr:uid="{71BD7566-CC0D-4B13-A2CF-A7FAF397A8E2}"/>
+    <hyperlink ref="H854" r:id="rId64" xr:uid="{666EB562-1270-408C-A374-C974246D646A}"/>
+    <hyperlink ref="H862" r:id="rId65" xr:uid="{FE393ED0-CC69-4A1C-AF8D-0A16C63DC1E8}"/>
+    <hyperlink ref="H873" r:id="rId66" xr:uid="{F57D6BC5-B93F-431C-B96B-9F604F6CD4C9}"/>
+    <hyperlink ref="H883" r:id="rId67" xr:uid="{4E6F179A-9DF0-42C0-8215-71A1CE285230}"/>
+    <hyperlink ref="H892" r:id="rId68" xr:uid="{834DCF51-52E7-4B34-A407-229A56392144}"/>
+    <hyperlink ref="H902" r:id="rId69" xr:uid="{A14E1D35-3FEE-420B-803B-CE71BB0BED60}"/>
+    <hyperlink ref="H911" r:id="rId70" xr:uid="{B7035677-300E-4FA2-AED2-E05F56F533D2}"/>
+    <hyperlink ref="H920" r:id="rId71" xr:uid="{88061026-E8FD-4D22-A79B-7E4499BF7E46}"/>
+    <hyperlink ref="H930" r:id="rId72" xr:uid="{22975272-B3B7-4DDB-80C3-DCF7C6EA2BBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId73"/>
 </worksheet>
 </file>